--- a/ABC大Python课程选择题模板.xlsx
+++ b/ABC大Python课程选择题模板.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="498">
   <si>
     <t>章节</t>
   </si>
@@ -192,6 +192,42 @@
   </si>
   <si>
     <t>Jupyter</t>
+  </si>
+  <si>
+    <t>关于Python语言的特点，以下选项中描述错误的是(   )</t>
+  </si>
+  <si>
+    <t>Python语言是脚本语言 </t>
+  </si>
+  <si>
+    <t>Python语言是非开源语言</t>
+  </si>
+  <si>
+    <t>Python语言是跨平台语言</t>
+  </si>
+  <si>
+    <t>Python语言是多模型语言</t>
+  </si>
+  <si>
+    <t>Python 3.x 版本的保留字总数是(   )</t>
+  </si>
+  <si>
+    <t>在Python中(   )用于注释（）</t>
+  </si>
+  <si>
+    <t>AC</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>""</t>
+  </si>
+  <si>
+    <t>"""</t>
+  </si>
+  <si>
+    <t>//</t>
   </si>
   <si>
     <t>第一章
@@ -564,9 +600,6 @@
     <t>break语句和continue语句的用法是（   ）</t>
   </si>
   <si>
-    <t>AC</t>
-  </si>
-  <si>
     <t>break语句用于结束整个循环</t>
   </si>
   <si>
@@ -795,6 +828,882 @@
   </si>
   <si>
     <t>集合_字典</t>
+  </si>
+  <si>
+    <t>第一章
+Python基础 各种遍历_列表生成式</t>
+  </si>
+  <si>
+    <t>有一个列表解析式[for i in range（0,4）]返回的结果是（   ）</t>
+  </si>
+  <si>
+    <t>列表生成式</t>
+  </si>
+  <si>
+    <t>[1,2,3,4]</t>
+  </si>
+  <si>
+    <t>[0,1,2,3]</t>
+  </si>
+  <si>
+    <t>[1,2,3,4,5]</t>
+  </si>
+  <si>
+    <t>[1,3,4,5]</t>
+  </si>
+  <si>
+    <t>下列哪个列表生成式能生成1-10的平方组成的列表（   ）</t>
+  </si>
+  <si>
+    <t>[i * i for i in range(1, 11)]</t>
+  </si>
+  <si>
+    <t>[i * i for i in range(1, 10)]</t>
+  </si>
+  <si>
+    <t>[i * i for i in range(0, 11)]</t>
+  </si>
+  <si>
+    <t>[i for i in range(1, 11)]</t>
+  </si>
+  <si>
+    <t>下列哪个生成式能生成1-10的平方组成的字典（   ）</t>
+  </si>
+  <si>
+    <t>字典生成式</t>
+  </si>
+  <si>
+    <t>{item: item ** 2
+          for item in range(1, 11)}</t>
+  </si>
+  <si>
+    <t>{item: item * 2
+          for item in range(1, 11)}</t>
+  </si>
+  <si>
+    <t>{item: item ** 2
+          for item in range(1, 10)}</t>
+  </si>
+  <si>
+    <t>{item: item ** 2
+          for item in range(0, 11)}</t>
+  </si>
+  <si>
+    <t>比较两个列表中的元素,找出不相同的元素并保存在列表3中，L1 = ["Sun", "Mon", "Tue", "Wed", "Thu", "Fri", "Sat"]，L2 = ["Sun", "Mon", "Tue", "Tue", "Thu", "Sat"]。正确的选项是（   ）</t>
+  </si>
+  <si>
+    <t>高</t>
+  </si>
+  <si>
+    <t>列表遍历</t>
+  </si>
+  <si>
+    <t>for i in L1:
+    if i  in L2:
+        L3.append(i)
+print(L3)</t>
+  </si>
+  <si>
+    <t>for i in L2:
+    if i not in L1:
+        L3.append(i)
+print(L3)</t>
+  </si>
+  <si>
+    <t>for i in L1:
+    if i not in L2:
+        L3.append(i)
+print(L3)</t>
+  </si>
+  <si>
+    <t>for i in L1:
+    if i not in L2:
+        L2.append(i)
+print(L3)</t>
+  </si>
+  <si>
+    <t>遍历以下列表 ,并找出索引为奇数的元素，list = ["Sun", "Mon", "Tue", "Wed", "Thu", "Fri", "Sat"]，其正确选项为（   ）</t>
+  </si>
+  <si>
+    <t>for i in range(2, len(list), 2):
+    print(list[i])</t>
+  </si>
+  <si>
+    <t>for i in range(1, len(list)):
+    print(list[i])</t>
+  </si>
+  <si>
+    <t>for i in range(1, len(list),3):
+    print(list[i])</t>
+  </si>
+  <si>
+    <t>for i in range(1, len(list), 2):
+    print(list[i])</t>
+  </si>
+  <si>
+    <t>第二章
+Python高级   函数定义及使用（上）</t>
+  </si>
+  <si>
+    <t>（   ）是组织好的、实现单一功能或相关联功能的代码段</t>
+  </si>
+  <si>
+    <t>函数</t>
+  </si>
+  <si>
+    <t>条件语句</t>
+  </si>
+  <si>
+    <t>循环语句</t>
+  </si>
+  <si>
+    <t>输出语句</t>
+  </si>
+  <si>
+    <t>函数在定义完成后（   ）执行</t>
+  </si>
+  <si>
+    <t>立即</t>
+  </si>
+  <si>
+    <t>等待</t>
+  </si>
+  <si>
+    <t>调用</t>
+  </si>
+  <si>
+    <t>不会</t>
+  </si>
+  <si>
+    <t>下列关于函数的说法中，描述错误的是（   ）</t>
+  </si>
+  <si>
+    <t>函数可以减少重复的代码，使得程序更加模块化</t>
+  </si>
+  <si>
+    <t>不同的函数中可以使用相同名字的变量</t>
+  </si>
+  <si>
+    <t>D.匿名函数与使用关键字def定义的函数没有区别</t>
+  </si>
+  <si>
+    <t>调用函数时，实参的传递顺序与形参的顺序可以不同</t>
+  </si>
+  <si>
+    <t>Python使用（ ）关键字定义一个匿名函数</t>
+  </si>
+  <si>
+    <t>function</t>
+  </si>
+  <si>
+    <t>func</t>
+  </si>
+  <si>
+    <t>def</t>
+  </si>
+  <si>
+    <t>lambda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Python使用（ ）关键字自定义一个函数   </t>
+  </si>
+  <si>
+    <t>第二章
+Python高级   函数定义及使用（下）</t>
+  </si>
+  <si>
+    <t>运行以下代码，输出结果为（   ）num_one = 12
+def sum(num_two):
+    global num_one
+    num_one = 90
+    return num_one + num_two
+print(sum(10))</t>
+  </si>
+  <si>
+    <t>运行以下代码，输出结果为（   ）def many_param(num_one, num_two, *args):
+    print(args)
+many_param(11, 22, 33, 44, 55)</t>
+  </si>
+  <si>
+    <t>(11,22,33)</t>
+  </si>
+  <si>
+    <t>(22,33,44)</t>
+  </si>
+  <si>
+    <t>(33,44,55)</t>
+  </si>
+  <si>
+    <t>(11,22)</t>
+  </si>
+  <si>
+    <t>以下代码打印出来的c,a,b分别为多少（   ）</t>
+  </si>
+  <si>
+    <t>None
+10
+20</t>
+  </si>
+  <si>
+    <t>20，10
+10
+20</t>
+  </si>
+  <si>
+    <t>10，20
+10
+20</t>
+  </si>
+  <si>
+    <t>None
+20
+10</t>
+  </si>
+  <si>
+    <t>全局变量是指在函数（   ）定义的变量</t>
+  </si>
+  <si>
+    <t>外部</t>
+  </si>
+  <si>
+    <t>内部</t>
+  </si>
+  <si>
+    <t>函数形参</t>
+  </si>
+  <si>
+    <t>函数实参</t>
+  </si>
+  <si>
+    <t>函数的return语句会在函数结束时将数据返回给主程序，下列哪个返回方式有误（   ）</t>
+  </si>
+  <si>
+    <t>def fun01():
+    return "hello world"
+    print("我是输出语句")</t>
+  </si>
+  <si>
+    <t>def fun01():
+    return 
+    print("我是输出语句")
+fun01()</t>
+  </si>
+  <si>
+    <t>def fun01():
+    print("我是输出语句")
+    return "hello world"
+fun01()</t>
+  </si>
+  <si>
+    <t>def fun01():
+    print("我是输出语句")
+    return 
+fun01()</t>
+  </si>
+  <si>
+    <t>第二章
+Python高级  函数递归</t>
+  </si>
+  <si>
+    <t>若函数内部调用了自身，则这个函数被称为（   ）</t>
+  </si>
+  <si>
+    <t>递归函数</t>
+  </si>
+  <si>
+    <t>匿名函数</t>
+  </si>
+  <si>
+    <t>常规函数</t>
+  </si>
+  <si>
+    <t>统一函数</t>
+  </si>
+  <si>
+    <t>以下哪个函数可以实现10的阶乘（   ）</t>
+  </si>
+  <si>
+    <t>def factorial(num):
+    if num == 0:
+        return 0
+    elif num == 1:
+        return 1
+    else:
+        return num * factorial(num - 1)
+print(factorial(10))</t>
+  </si>
+  <si>
+    <t>def factorial(num):
+    if num == 0:
+        return 0
+    else:
+        return num * factorial(num - 1)
+print(factorial(10))</t>
+  </si>
+  <si>
+    <t>def factorial(num):
+    if num == 0:
+        return 0
+    elif num == 1:
+        return 1
+    else:
+        return num * factorial(num)
+print(factorial(10))</t>
+  </si>
+  <si>
+    <t>def factorial(num):
+    if num == 0:
+        return 0
+    elif num == 1:
+        return 1
+    else:
+        return num * factorial(num - 1)
+print(factorial(11))</t>
+  </si>
+  <si>
+    <t>利用递归函数实现斐波那契数的代码是（   ）</t>
+  </si>
+  <si>
+    <t>def fibonacci(n):
+    if n == 1 or n == 2:
+        return 1
+    else:
+        return fibonacci(n ) + fibonacci(n)
+num = int(input('请输入一个正整数: '))
+for i in range(1, num + 1):
+    print(fibonacci(i), end=' ')</t>
+  </si>
+  <si>
+    <t>def fibonacci(n):
+    if n == 1 or n == 2:
+        return 1
+    else:
+        return fibonacci(n - 1) + fibonacci(n - 2)
+num = int(input('请输入一个正整数: '))
+for i in range(1, num):
+    print(fibonacci(i), end=' ')</t>
+  </si>
+  <si>
+    <t>def fibonacci(n):
+    if n == 1 or n == 2:
+        return 1
+    else:
+        return fibonacci(n - 1) + fibonacci(n - 2)
+num = int(input('请输入一个正整数: '))
+for i in range(1, num + 1):
+    print(fibonacci(i), end=' ')</t>
+  </si>
+  <si>
+    <t>def fibonacci(n):
+    if n == 1 or n == 2:
+        return 1
+    else:
+        return fibonacci(n - 2) + fibonacci(n - 1)
+num = int(input('请输入一个正整数: '))
+for i in range(1, num + 1):
+    print(fibonacci(i), end=' ')</t>
+  </si>
+  <si>
+    <t>关于递归函数的描述，以下选项中正确的是(   )</t>
+  </si>
+  <si>
+    <t>函数名称作为返回值</t>
+  </si>
+  <si>
+    <t>包含一个循环结构</t>
+  </si>
+  <si>
+    <t>函数比较复杂</t>
+  </si>
+  <si>
+    <t>函数内部包含对本函数的再次调用</t>
+  </si>
+  <si>
+    <t>递归函数具有以下哪些特性（   ）</t>
+  </si>
+  <si>
+    <t>必须有一个明确的结束条件</t>
+  </si>
+  <si>
+    <t>每进入更深一层递归时，问题规模相比于上一次递归都有减少</t>
+  </si>
+  <si>
+    <t>递归效率不高，层次过多会导致栈溢出</t>
+  </si>
+  <si>
+    <t>递归不用考虑终止条件，可以一直递归下去</t>
+  </si>
+  <si>
+    <t>第二章
+Python高级   匿名函数及异常处理</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Python使用（ ）关键字定义一个匿名函数   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">function  </t>
+  </si>
+  <si>
+    <t>下列选项中，关于异常描述错误的是（ ）</t>
+  </si>
+  <si>
+    <t>异常</t>
+  </si>
+  <si>
+    <t>错误就是异常，异常就是错误</t>
+  </si>
+  <si>
+    <t>异常是程序运行时产生的</t>
+  </si>
+  <si>
+    <t>IndexError是Exception的子类</t>
+  </si>
+  <si>
+    <t>except子句一定位于else和finally子句之前</t>
+  </si>
+  <si>
+    <t>当try子句中的代码没有任何错误时，一定不会执行（ ）子句</t>
+  </si>
+  <si>
+    <t>try</t>
+  </si>
+  <si>
+    <t>except</t>
+  </si>
+  <si>
+    <t>finally</t>
+  </si>
+  <si>
+    <t>若执行代码1/0，会引发什么异常？（ ）</t>
+  </si>
+  <si>
+    <t>ZeroDivisionError</t>
+  </si>
+  <si>
+    <t>NameError</t>
+  </si>
+  <si>
+    <t>KeyError</t>
+  </si>
+  <si>
+    <t>IndexError</t>
+  </si>
+  <si>
+    <t>下列代码运行后会引发（ ）异常</t>
+  </si>
+  <si>
+    <t>第二章
+Python高级   文件的读写</t>
+  </si>
+  <si>
+    <t>打开文件对文件进行读写后，应调用（   ）方法关闭文件以释放资源</t>
+  </si>
+  <si>
+    <t>文件的读写</t>
+  </si>
+  <si>
+    <t>open()</t>
+  </si>
+  <si>
+    <t>read()</t>
+  </si>
+  <si>
+    <t>close()</t>
+  </si>
+  <si>
+    <t>write()</t>
+  </si>
+  <si>
+    <t>seek()方法用于指定文件读写位置，该方法的（   )参数表示要偏移的字节数</t>
+  </si>
+  <si>
+    <t>offset()</t>
+  </si>
+  <si>
+    <t>from()</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t xml:space="preserve">os模块中的mkdir()函数用于(   )        </t>
+  </si>
+  <si>
+    <t>删除目录</t>
+  </si>
+  <si>
+    <t>创建目录</t>
+  </si>
+  <si>
+    <t>修改目录</t>
+  </si>
+  <si>
+    <t>查询目录</t>
+  </si>
+  <si>
+    <t>文件打开的默认方式是（   ）</t>
+  </si>
+  <si>
+    <t>只写</t>
+  </si>
+  <si>
+    <t>只读</t>
+  </si>
+  <si>
+    <t>可读可写</t>
+  </si>
+  <si>
+    <t>不可读不可写</t>
+  </si>
+  <si>
+    <t>打开文件的模式有（   ）</t>
+  </si>
+  <si>
+    <t>BCD</t>
+  </si>
+  <si>
+    <t>mode</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>第二章
+Python高级   文件定位读写及深浅拷贝</t>
+  </si>
+  <si>
+    <t>假设file是文本文件对象，下列哪个选项可读取file的一行内容？（ ）</t>
+  </si>
+  <si>
+    <t>文件的定位读写</t>
+  </si>
+  <si>
+    <t>file.read()</t>
+  </si>
+  <si>
+    <t>file.read(200)</t>
+  </si>
+  <si>
+    <t>file.readline()</t>
+  </si>
+  <si>
+    <t>file.readlines()</t>
+  </si>
+  <si>
+    <t>7.若文本文件abc.txt中的内容如下：
+abcdef
+阅读下面的程序：
+file = open('abc.txt', 'r')
+data = file.readline()
+data_list = list(data)
+print(data_list)
+以上程序的执行结果为（ ）</t>
+  </si>
+  <si>
+    <t>['abcdef']</t>
+  </si>
+  <si>
+    <t>['abcdef\n']</t>
+  </si>
+  <si>
+    <t>['a', 'b', 'c', 'd', 'e', 'f']</t>
+  </si>
+  <si>
+    <t>['a', 'b', 'c', 'd', 'e', 'f', '\n']</t>
+  </si>
+  <si>
+    <t>（   ）只拷贝父级第一层级的对象，或顶级对象</t>
+  </si>
+  <si>
+    <t>深拷贝和浅拷贝</t>
+  </si>
+  <si>
+    <t>浅拷贝</t>
+  </si>
+  <si>
+    <t>深拷贝</t>
+  </si>
+  <si>
+    <t>单向拷贝</t>
+  </si>
+  <si>
+    <t>多向拷贝</t>
+  </si>
+  <si>
+    <t>（   ）每个层级的对象都会拷贝，无论是单层的还是多个层级</t>
+  </si>
+  <si>
+    <t>Python中读取文件的方法有（   ）</t>
+  </si>
+  <si>
+    <t>readline()</t>
+  </si>
+  <si>
+    <t>readlines()</t>
+  </si>
+  <si>
+    <t>第二章
+Python高级   面向对象_类与对象的创建及使用（上）</t>
+  </si>
+  <si>
+    <t>Python中使用（   ）关键字来声明一个类</t>
+  </si>
+  <si>
+    <t>类与对象</t>
+  </si>
+  <si>
+    <t>class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">new </t>
+  </si>
+  <si>
+    <t>init</t>
+  </si>
+  <si>
+    <t>实例方法可以由类和（   ）调用</t>
+  </si>
+  <si>
+    <t>类</t>
+  </si>
+  <si>
+    <t>对象</t>
+  </si>
+  <si>
+    <t>属性</t>
+  </si>
+  <si>
+    <t>方法</t>
+  </si>
+  <si>
+    <t>下列关于类的说法，错误的是（ ）</t>
+  </si>
+  <si>
+    <t>类中可以定义私有方法和属性</t>
+  </si>
+  <si>
+    <t>类方法的第一个参数是cls</t>
+  </si>
+  <si>
+    <t>实例方法的第一个参数是self</t>
+  </si>
+  <si>
+    <t>类的实例无法访问类属性</t>
+  </si>
+  <si>
+    <t>下列方法中，只能由对象调用的是（ ）</t>
+  </si>
+  <si>
+    <t>类方法</t>
+  </si>
+  <si>
+    <t>实例方法</t>
+  </si>
+  <si>
+    <t>静态方法</t>
+  </si>
+  <si>
+    <t>析构方法</t>
+  </si>
+  <si>
+    <t>类的成员包括（   ）和（   ）</t>
+  </si>
+  <si>
+    <t>类属性</t>
+  </si>
+  <si>
+    <t>主方法</t>
+  </si>
+  <si>
+    <t>第二章
+Python高级   面向对象_类与对象的创建及使用（下）</t>
+  </si>
+  <si>
+    <t>下列方法中，负责初始化属性的是（ ）</t>
+  </si>
+  <si>
+    <t>__del__()</t>
+  </si>
+  <si>
+    <t>__init__()</t>
+  </si>
+  <si>
+    <t>__init()</t>
+  </si>
+  <si>
+    <t>__add__()</t>
+  </si>
+  <si>
+    <t>对象的创建方式是（   ）</t>
+  </si>
+  <si>
+    <t>类名</t>
+  </si>
+  <si>
+    <t>new 类名()</t>
+  </si>
+  <si>
+    <t>类名()</t>
+  </si>
+  <si>
+    <t>类名.__init__()</t>
+  </si>
+  <si>
+    <t>关于面向对象和面向过程编程描述，以下选项中正确的是(   )</t>
+  </si>
+  <si>
+    <t>面向对象</t>
+  </si>
+  <si>
+    <t>面向对象编程比面向过程编程更为高级</t>
+  </si>
+  <si>
+    <t>所有面向对象编程能实现的功能采用面向过程同样能完成</t>
+  </si>
+  <si>
+    <t>面向对象和面向过程是编程语言的分类依据</t>
+  </si>
+  <si>
+    <t>模块化设计就是面向对象的设计</t>
+  </si>
+  <si>
+    <t>实例方法中的参数self表示(   )</t>
+  </si>
+  <si>
+    <t>实例属性</t>
+  </si>
+  <si>
+    <t>现有类Student，并有属性姓名、年龄、所在城市。创建实例化对象"张三"，性别为“男”，所在城市为“北京”的正确方式有（   ）</t>
+  </si>
+  <si>
+    <t>Student("张三","男","北京")</t>
+  </si>
+  <si>
+    <t>student("张三","男","北京")</t>
+  </si>
+  <si>
+    <t>s = Student()
+s.name="张三"
+s.sex="男"
+s.city="北京"</t>
+  </si>
+  <si>
+    <t>s = student()
+s.name="张三"
+s.sex="男"
+s.city="北京"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">第二章
+Python高级   封装_对象私有化处理 </t>
+  </si>
+  <si>
+    <t>Python可以通过在类成员名称之前添加_（   ）的方式将公有成员改为私有成员</t>
+  </si>
+  <si>
+    <t>封装</t>
+  </si>
+  <si>
+    <t>public</t>
+  </si>
+  <si>
+    <t>private</t>
+  </si>
+  <si>
+    <t>_</t>
+  </si>
+  <si>
+    <t>__</t>
+  </si>
+  <si>
+    <t>下列选项中，不属于面向对象程序设计的三个特征的是（   ）</t>
+  </si>
+  <si>
+    <t>抽象</t>
+  </si>
+  <si>
+    <t>继承</t>
+  </si>
+  <si>
+    <t>多态</t>
+  </si>
+  <si>
+    <t>第二章
+Python高级   继承</t>
+  </si>
+  <si>
+    <t>以下C类继承A类和B类的格式中，正确的是（   ）</t>
+  </si>
+  <si>
+    <t>class C A,B</t>
+  </si>
+  <si>
+    <t>class C（A:B）</t>
+  </si>
+  <si>
+    <t>class C（A,B）</t>
+  </si>
+  <si>
+    <t>class C A and B</t>
+  </si>
+  <si>
+    <t>下列选项中，与class Person等价的是（   ）</t>
+  </si>
+  <si>
+    <t>class Person（Object）</t>
+  </si>
+  <si>
+    <t>class Person（Animal）</t>
+  </si>
+  <si>
+    <t>class Person（object）</t>
+  </si>
+  <si>
+    <t>class Person: object</t>
+  </si>
+  <si>
+    <t>Python支持（   ）继承</t>
+  </si>
+  <si>
+    <t>单</t>
+  </si>
+  <si>
+    <t>多</t>
+  </si>
+  <si>
+    <t>不能</t>
+  </si>
+  <si>
+    <t>双重</t>
+  </si>
+  <si>
+    <t>第二章
+Python高级   鸭子语言（多态）</t>
+  </si>
+  <si>
+    <t>第二章
+Python高级   模块导入</t>
+  </si>
+  <si>
+    <t>关于import引用，以下选项中描述错误的是(   )</t>
+  </si>
+  <si>
+    <t>模块导入</t>
+  </si>
+  <si>
+    <t>可以使用from turtle import setup 引入turtle库</t>
+  </si>
+  <si>
+    <t>使用import turtle as t引入turtle库，取别名为t</t>
+  </si>
+  <si>
+    <t>使用import turtle引入turtle库</t>
+  </si>
+  <si>
+    <t>import保留字用于导入模块或者模块中的对象</t>
   </si>
 </sst>
 </file>
@@ -1796,10 +2705,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K96"/>
+  <dimension ref="A1:K216"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B75" workbookViewId="0">
-      <selection activeCell="E87" sqref="E87:E88"/>
+    <sheetView tabSelected="1" topLeftCell="A168" workbookViewId="0">
+      <selection activeCell="B181" sqref="B181:B182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
@@ -2083,21 +2992,108 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="2:2">
-      <c r="B9" s="7"/>
-    </row>
-    <row r="10" spans="2:2">
-      <c r="B10" s="7"/>
-    </row>
-    <row r="11" spans="2:2">
-      <c r="B11" s="7"/>
+    <row r="9" spans="2:11">
+      <c r="B9" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="3">
+        <v>2</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11">
+      <c r="B10" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="3">
+        <v>2</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="3">
+        <v>27</v>
+      </c>
+      <c r="I10" s="3">
+        <v>29</v>
+      </c>
+      <c r="J10" s="3">
+        <v>33</v>
+      </c>
+      <c r="K10" s="3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11">
+      <c r="B11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="3">
+        <v>2</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="5" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>13</v>
@@ -2112,24 +3108,24 @@
         <v>2</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="2:11">
       <c r="B13" s="3" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>13</v>
@@ -2144,7 +3140,7 @@
         <v>2</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="H13" s="3">
         <v>80</v>
@@ -2161,7 +3157,7 @@
     </row>
     <row r="14" spans="2:11">
       <c r="B14" s="3" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>13</v>
@@ -2176,24 +3172,24 @@
         <v>2</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="2:11">
       <c r="B15" s="3" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>13</v>
@@ -2208,24 +3204,24 @@
         <v>2</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="2:11">
       <c r="B16" s="3" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>40</v>
@@ -2240,27 +3236,27 @@
         <v>2</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" ht="14" spans="1:11">
       <c r="A17" s="5" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>13</v>
@@ -2275,29 +3271,29 @@
         <v>2</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="18" ht="14" spans="1:2">
       <c r="A18" s="5"/>
       <c r="B18" s="7"/>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" ht="14" spans="1:11">
       <c r="A19" s="5"/>
       <c r="B19" s="3" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>13</v>
@@ -2312,28 +3308,28 @@
         <v>2</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="20" ht="14" spans="1:1">
       <c r="A20" s="5"/>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" ht="14" spans="1:11">
       <c r="A21" s="5"/>
       <c r="B21" s="3" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>13</v>
@@ -2348,28 +3344,28 @@
         <v>2</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="22" ht="14" spans="1:1">
       <c r="A22" s="5"/>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" ht="14" spans="1:11">
       <c r="A23" s="5"/>
       <c r="B23" s="3" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>13</v>
@@ -2384,28 +3380,28 @@
         <v>2</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="24" ht="14" spans="1:1">
       <c r="A24" s="5"/>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" ht="14" spans="1:11">
       <c r="A25" s="5"/>
       <c r="B25" s="3" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>13</v>
@@ -2420,30 +3416,30 @@
         <v>2</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="26" ht="14" spans="1:1">
       <c r="A26" s="5"/>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" ht="14" spans="1:11">
       <c r="A27" s="5" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>13</v>
@@ -2458,24 +3454,24 @@
         <v>2</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
     </row>
     <row r="29" spans="2:11">
       <c r="B29" s="5" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>13</v>
@@ -2484,30 +3480,30 @@
         <v>34</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="F29" s="3">
         <v>2</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
     </row>
     <row r="31" spans="2:11">
       <c r="B31" s="5" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>13</v>
@@ -2516,30 +3512,30 @@
         <v>14</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="F31" s="3">
         <v>2</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
     </row>
     <row r="33" spans="2:11">
       <c r="B33" s="3" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>13</v>
@@ -2548,36 +3544,36 @@
         <v>14</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="F33" s="3">
         <v>2</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
     </row>
     <row r="35" spans="2:11">
       <c r="B35" s="3" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>40</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>15</v>
@@ -2586,27 +3582,27 @@
         <v>2</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="37" ht="14" spans="1:11">
       <c r="A37" s="5" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>13</v>
@@ -2621,24 +3617,24 @@
         <v>2</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="H37" s="3" t="b">
         <v>1</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="J37" s="3">
         <v>0</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
     </row>
     <row r="39" spans="2:11">
       <c r="B39" s="5" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>13</v>
@@ -2647,13 +3643,13 @@
         <v>28</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="F39" s="3">
         <v>2</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="H39" s="3">
         <v>3</v>
@@ -2670,7 +3666,7 @@
     </row>
     <row r="41" spans="2:11">
       <c r="B41" s="5" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>13</v>
@@ -2679,13 +3675,13 @@
         <v>28</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="F41" s="3">
         <v>2</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="H41" s="3">
         <v>1</v>
@@ -2697,12 +3693,12 @@
         <v>5</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
     </row>
     <row r="43" spans="2:11">
       <c r="B43" s="5" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>13</v>
@@ -2711,65 +3707,65 @@
         <v>22</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="F43" s="3">
         <v>2</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
     </row>
     <row r="45" spans="2:11">
       <c r="B45" s="3" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>40</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="F45" s="3">
         <v>2</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="I45" s="5" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="J45" s="5" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="K45" s="5" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="47" ht="14" spans="1:11">
       <c r="A47" s="5" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>13</v>
@@ -2778,30 +3774,30 @@
         <v>14</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="F47" s="3">
         <v>2</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="J47" s="5" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="K47" s="5" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
     </row>
     <row r="49" spans="2:11">
       <c r="B49" s="5" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>13</v>
@@ -2810,13 +3806,13 @@
         <v>34</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="F49" s="3">
         <v>2</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="H49" s="3">
         <v>15</v>
@@ -2833,7 +3829,7 @@
     </row>
     <row r="51" spans="2:11">
       <c r="B51" s="3" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>13</v>
@@ -2848,24 +3844,24 @@
         <v>2</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
     </row>
     <row r="53" spans="2:11">
       <c r="B53" s="5" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>13</v>
@@ -2874,65 +3870,65 @@
         <v>14</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="F53" s="3">
         <v>2</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
     </row>
     <row r="55" spans="2:11">
       <c r="B55" s="3" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>40</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>161</v>
+        <v>65</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="F55" s="3">
         <v>2</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="57" ht="14" spans="1:11">
       <c r="A57" s="5" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>13</v>
@@ -2947,24 +3943,24 @@
         <v>2</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="J57" s="3" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
     </row>
     <row r="59" spans="2:11">
       <c r="B59" s="3" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>13</v>
@@ -2979,24 +3975,24 @@
         <v>2</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="J59" s="3" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="K59" s="3" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
     </row>
     <row r="61" spans="2:11">
       <c r="B61" s="3" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>13</v>
@@ -3011,24 +4007,24 @@
         <v>2</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="I61" s="3" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="J61" s="3" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
     </row>
     <row r="63" spans="2:11">
       <c r="B63" s="3" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>13</v>
@@ -3043,59 +4039,59 @@
         <v>2</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="I63" s="3" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="J63" s="3" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="K63" s="3" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
     </row>
     <row r="65" spans="2:11">
       <c r="B65" s="3" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>40</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="F65" s="3">
         <v>2</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="H65" s="3" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="I65" s="3" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="J65" s="3" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="K65" s="3" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="67" ht="14" spans="1:11">
       <c r="A67" s="5" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>13</v>
@@ -3104,30 +4100,30 @@
         <v>14</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="F67" s="3">
         <v>2</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="I67" s="3" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="J67" s="3" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
     </row>
     <row r="69" spans="2:11">
       <c r="B69" s="3" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>13</v>
@@ -3136,30 +4132,30 @@
         <v>28</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="F69" s="3">
         <v>2</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="H69" s="3" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="I69" s="3" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="J69" s="3" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="K69" s="3" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
     </row>
     <row r="71" spans="2:11">
       <c r="B71" s="3" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>13</v>
@@ -3174,24 +4170,24 @@
         <v>2</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="H71" s="3" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="I71" s="3" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="J71" s="3" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="K71" s="3" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
     </row>
     <row r="73" spans="2:11">
       <c r="B73" s="3" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>13</v>
@@ -3206,24 +4202,24 @@
         <v>2</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="H73" s="3" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="I73" s="3" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="J73" s="3" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="K73" s="3" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
     </row>
     <row r="75" spans="2:11">
       <c r="B75" s="3" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>40</v>
@@ -3238,27 +4234,27 @@
         <v>2</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="H75" s="3" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="I75" s="3" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="J75" s="3" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K75" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="77" ht="14" spans="1:11">
       <c r="A77" s="5" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="C77" s="3" t="s">
         <v>13</v>
@@ -3273,24 +4269,24 @@
         <v>2</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="H77" s="3" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="I77" s="3" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="J77" s="3" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="K77" s="3" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
     </row>
     <row r="79" spans="2:11">
       <c r="B79" s="3" t="s">
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>13</v>
@@ -3305,24 +4301,24 @@
         <v>2</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="H79" s="3" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c r="I79" s="3" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
       <c r="J79" s="3" t="s">
-        <v>223</v>
+        <v>234</v>
       </c>
       <c r="K79" s="3" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
     </row>
     <row r="81" spans="2:11">
       <c r="B81" s="3" t="s">
-        <v>225</v>
+        <v>236</v>
       </c>
       <c r="C81" s="3" t="s">
         <v>13</v>
@@ -3337,24 +4333,24 @@
         <v>2</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="H81" s="3" t="s">
-        <v>226</v>
+        <v>237</v>
       </c>
       <c r="I81" s="3" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="J81" s="3" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="K81" s="3" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
     </row>
     <row r="83" spans="2:11">
       <c r="B83" s="5" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="C83" s="3" t="s">
         <v>13</v>
@@ -3369,60 +4365,1769 @@
         <v>2</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H83" s="3" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="I83" s="3" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="J83" s="3" t="s">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="K83" s="3" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
     </row>
     <row r="85" spans="2:11">
       <c r="B85" s="3" t="s">
-        <v>234</v>
+        <v>245</v>
       </c>
       <c r="C85" s="3" t="s">
         <v>40</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="F85" s="3">
         <v>2</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c r="H85" s="3" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="I85" s="3" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="J85" s="3" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K85" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="87" ht="14" spans="1:1">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87" s="5" t="s">
-        <v>214</v>
-      </c>
-    </row>
+        <v>248</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F87" s="3">
+        <v>2</v>
+      </c>
+      <c r="G87" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="H87" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="I87" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="J87" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="K87" s="3" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="89" spans="2:11">
+      <c r="B89" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F89" s="3">
+        <v>2</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="K89" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="91" spans="2:11">
+      <c r="B91" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F91" s="3">
+        <v>2</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="H91" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="I91" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="J91" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="K91" s="5" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="93" spans="2:11">
+      <c r="B93" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="F93" s="3">
+        <v>2</v>
+      </c>
+      <c r="G93" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="H93" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="I93" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="J93" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="K93" s="5" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="95" spans="2:11">
+      <c r="B95" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F95" s="3">
+        <v>2</v>
+      </c>
+      <c r="G95" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="H95" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="I95" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="J95" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="K95" s="5" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
+      <c r="A97" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E97" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F97" s="3">
+        <v>2</v>
+      </c>
+      <c r="G97" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="H97" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="I97" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="J97" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="K97" s="3" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="99" spans="2:11">
+      <c r="B99" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E99" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F99" s="3">
+        <v>2</v>
+      </c>
+      <c r="G99" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="H99" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="I99" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="J99" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="K99" s="3" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="101" spans="2:11">
+      <c r="B101" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F101" s="3">
+        <v>2</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="K101" s="3" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="103" spans="2:11">
+      <c r="B103" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E103" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F103" s="3">
+        <v>2</v>
+      </c>
+      <c r="G103" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="H103" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="I103" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="J103" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="K103" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="104" ht="14"/>
+    <row r="105" spans="2:11">
+      <c r="B105" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E105" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F105" s="3">
+        <v>2</v>
+      </c>
+      <c r="G105" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="H105" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="I105" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="J105" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="K105" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11">
+      <c r="A107" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E107" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F107" s="3">
+        <v>2</v>
+      </c>
+      <c r="G107" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="H107" s="3">
+        <v>102</v>
+      </c>
+      <c r="I107" s="3">
+        <v>100</v>
+      </c>
+      <c r="J107" s="3">
+        <v>22</v>
+      </c>
+      <c r="K107" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="109" spans="2:11">
+      <c r="B109" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D109" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E109" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F109" s="3">
+        <v>2</v>
+      </c>
+      <c r="G109" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="H109" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="I109" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="J109" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="K109" s="3" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="111" spans="2:11">
+      <c r="B111" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E111" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F111" s="3">
+        <v>2</v>
+      </c>
+      <c r="G111" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="H111" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="I111" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="J111" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="K111" s="5" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="113" spans="2:11">
+      <c r="B113" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D113" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E113" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F113" s="3">
+        <v>2</v>
+      </c>
+      <c r="G113" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="H113" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="I113" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="J113" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="K113" s="3" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="115" spans="2:11">
+      <c r="B115" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D115" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E115" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F115" s="3">
+        <v>2</v>
+      </c>
+      <c r="G115" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="H115" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="I115" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="J115" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="K115" s="5" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11">
+      <c r="A117" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D117" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E117" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F117" s="3">
+        <v>2</v>
+      </c>
+      <c r="G117" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="H117" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="I117" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="J117" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="K117" s="3" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="119" spans="2:11">
+      <c r="B119" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D119" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E119" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="F119" s="3">
+        <v>2</v>
+      </c>
+      <c r="G119" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="H119" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="I119" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="J119" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="K119" s="5" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="121" spans="2:11">
+      <c r="B121" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E121" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="F121" s="3">
+        <v>2</v>
+      </c>
+      <c r="G121" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="H121" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="I121" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="J121" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="K121" s="5" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="123" spans="2:11">
+      <c r="B123" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D123" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E123" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F123" s="3">
+        <v>2</v>
+      </c>
+      <c r="G123" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="H123" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="I123" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="J123" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="K123" s="3" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="124" ht="14"/>
+    <row r="125" spans="2:11">
+      <c r="B125" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D125" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E125" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F125" s="3">
+        <v>2</v>
+      </c>
+      <c r="G125" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="H125" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="I125" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="J125" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="K125" s="3" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11">
+      <c r="A127" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D127" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E127" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F127" s="3">
+        <v>2</v>
+      </c>
+      <c r="G127" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="H127" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="I127" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="J127" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="K127" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="129" spans="2:11">
+      <c r="B129" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D129" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E129" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F129" s="3">
+        <v>2</v>
+      </c>
+      <c r="G129" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="H129" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="I129" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="J129" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="K129" s="3" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="130" ht="14"/>
+    <row r="131" spans="2:11">
+      <c r="B131" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D131" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E131" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F131" s="3">
+        <v>2</v>
+      </c>
+      <c r="G131" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="H131" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="I131" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="J131" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="K131" s="3" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="132" ht="14"/>
+    <row r="133" spans="2:11">
+      <c r="B133" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D133" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E133" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F133" s="3">
+        <v>2</v>
+      </c>
+      <c r="G133" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="H133" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="I133" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="J133" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="K133" s="3" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="134" ht="14"/>
+    <row r="135" spans="2:11">
+      <c r="B135" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D135" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E135" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F135" s="3">
+        <v>2</v>
+      </c>
+      <c r="G135" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="H135" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="I135" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="J135" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="K135" s="3" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11">
+      <c r="A137" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D137" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E137" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F137" s="3">
+        <v>2</v>
+      </c>
+      <c r="G137" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="H137" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="I137" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="J137" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="K137" s="3" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="139" spans="2:11">
+      <c r="B139" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D139" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E139" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F139" s="3">
+        <v>2</v>
+      </c>
+      <c r="G139" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="H139" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="I139" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="J139" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="K139" s="3" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="140" ht="14"/>
+    <row r="141" spans="2:11">
+      <c r="B141" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D141" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E141" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F141" s="3">
+        <v>2</v>
+      </c>
+      <c r="G141" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="H141" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="I141" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="J141" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="K141" s="3" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="142" ht="14"/>
+    <row r="143" spans="2:11">
+      <c r="B143" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D143" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E143" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F143" s="3">
+        <v>2</v>
+      </c>
+      <c r="G143" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="H143" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="I143" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="J143" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="K143" s="3" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="144" ht="14"/>
+    <row r="145" spans="2:11">
+      <c r="B145" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D145" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="E145" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F145" s="3">
+        <v>2</v>
+      </c>
+      <c r="G145" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="H145" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="I145" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="J145" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="K145" s="3" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11">
+      <c r="A147" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="B147" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D147" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E147" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F147" s="3">
+        <v>2</v>
+      </c>
+      <c r="G147" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="H147" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="I147" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="J147" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="K147" s="3" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="149" spans="2:11">
+      <c r="B149" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D149" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E149" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F149" s="3">
+        <v>2</v>
+      </c>
+      <c r="G149" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="H149" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="I149" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="J149" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="K149" s="3" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="151" spans="2:11">
+      <c r="B151" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="C151" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D151" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E151" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F151" s="3">
+        <v>2</v>
+      </c>
+      <c r="G151" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="H151" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="I151" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="J151" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="K151" s="3" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="152" ht="14"/>
+    <row r="153" spans="2:11">
+      <c r="B153" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="C153" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D153" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E153" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F153" s="3">
+        <v>2</v>
+      </c>
+      <c r="G153" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="H153" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="I153" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="J153" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="K153" s="3" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="154" ht="14"/>
+    <row r="155" spans="2:11">
+      <c r="B155" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="C155" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D155" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E155" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F155" s="3">
+        <v>2</v>
+      </c>
+      <c r="G155" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="H155" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="I155" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="J155" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="K155" s="3" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11">
+      <c r="A157" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="B157" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="C157" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D157" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E157" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F157" s="3">
+        <v>2</v>
+      </c>
+      <c r="G157" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="H157" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="I157" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="J157" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="K157" s="3" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="159" spans="2:11">
+      <c r="B159" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="C159" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D159" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E159" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F159" s="3">
+        <v>2</v>
+      </c>
+      <c r="G159" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="H159" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="I159" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="J159" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="K159" s="3" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="160" ht="14"/>
+    <row r="161" spans="2:11">
+      <c r="B161" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="C161" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D161" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E161" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F161" s="3">
+        <v>2</v>
+      </c>
+      <c r="G161" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="H161" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="I161" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="J161" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="K161" s="3" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="162" ht="14"/>
+    <row r="163" spans="2:11">
+      <c r="B163" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="C163" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D163" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E163" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F163" s="3">
+        <v>2</v>
+      </c>
+      <c r="G163" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="H163" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="I163" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="J163" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="K163" s="3" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="164" ht="14"/>
+    <row r="165" spans="2:11">
+      <c r="B165" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="C165" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D165" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E165" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F165" s="3">
+        <v>2</v>
+      </c>
+      <c r="G165" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="H165" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="I165" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="J165" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="K165" s="3" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11">
+      <c r="A167" s="5" t="s">
+        <v>439</v>
+      </c>
+      <c r="B167" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="C167" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D167" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E167" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F167" s="3">
+        <v>2</v>
+      </c>
+      <c r="G167" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="H167" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="I167" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="J167" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="K167" s="3" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="169" spans="2:11">
+      <c r="B169" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="C169" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D169" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E169" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F169" s="3">
+        <v>2</v>
+      </c>
+      <c r="G169" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="H169" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="I169" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="J169" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="K169" s="3" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="170" ht="14"/>
+    <row r="171" spans="2:11">
+      <c r="B171" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="C171" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D171" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E171" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F171" s="3">
+        <v>2</v>
+      </c>
+      <c r="G171" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="H171" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="I171" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="J171" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="K171" s="3" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="172" ht="14"/>
+    <row r="173" spans="2:11">
+      <c r="B173" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="C173" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D173" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E173" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F173" s="3">
+        <v>2</v>
+      </c>
+      <c r="G173" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="H173" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="I173" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="J173" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="K173" s="3" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="175" spans="2:11">
+      <c r="B175" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="C175" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D175" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E175" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F175" s="3">
+        <v>2</v>
+      </c>
+      <c r="G175" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="H175" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="I175" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="J175" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="K175" s="5" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11">
+      <c r="A177" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="B177" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="C177" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D177" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E177" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F177" s="3">
+        <v>2</v>
+      </c>
+      <c r="G177" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="H177" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="I177" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="J177" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="K177" s="3" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="179" spans="2:11">
+      <c r="B179" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="C179" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D179" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E179" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F179" s="3">
+        <v>2</v>
+      </c>
+      <c r="G179" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="H179" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="I179" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="J179" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="K179" s="3" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="180" ht="14"/>
+    <row r="181" ht="14"/>
+    <row r="182" ht="14"/>
+    <row r="183" ht="14"/>
+    <row r="184" ht="14"/>
+    <row r="185" ht="14"/>
+    <row r="187" spans="1:11">
+      <c r="A187" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="B187" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="C187" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D187" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E187" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F187" s="3">
+        <v>2</v>
+      </c>
+      <c r="G187" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="H187" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="I187" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="J187" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="K187" s="3" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="189" spans="2:11">
+      <c r="B189" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="C189" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D189" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E189" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F189" s="3">
+        <v>2</v>
+      </c>
+      <c r="G189" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="H189" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="I189" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="J189" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="K189" s="3" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="190" ht="14"/>
+    <row r="191" spans="2:11">
+      <c r="B191" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="C191" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D191" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E191" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F191" s="3">
+        <v>2</v>
+      </c>
+      <c r="G191" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="H191" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="I191" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="J191" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="K191" s="3" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="192" ht="14"/>
+    <row r="193" ht="14"/>
+    <row r="194" ht="14"/>
+    <row r="195" ht="14"/>
+    <row r="197" spans="1:1">
+      <c r="A197" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="199" ht="14"/>
+    <row r="200" ht="14"/>
+    <row r="201" ht="14"/>
+    <row r="202" ht="14"/>
+    <row r="203" ht="14"/>
+    <row r="204" ht="14"/>
+    <row r="205" ht="14"/>
+    <row r="207" spans="1:11">
+      <c r="A207" s="5" t="s">
+        <v>491</v>
+      </c>
+      <c r="B207" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="C207" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D207" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E207" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F207" s="3">
+        <v>2</v>
+      </c>
+      <c r="G207" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="H207" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="I207" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="J207" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="K207" s="3" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="209" ht="14"/>
+    <row r="210" ht="14"/>
+    <row r="211" ht="14"/>
+    <row r="212" ht="14"/>
+    <row r="213" ht="14"/>
+    <row r="214" ht="14"/>
+    <row r="215" ht="14"/>
+    <row r="216" ht="14"/>
   </sheetData>
-  <mergeCells count="411">
+  <mergeCells count="1023">
     <mergeCell ref="A2:A6"/>
     <mergeCell ref="A7:A11"/>
     <mergeCell ref="A12:A16"/>
@@ -3434,6 +6139,18 @@
     <mergeCell ref="A67:A76"/>
     <mergeCell ref="A77:A86"/>
     <mergeCell ref="A87:A96"/>
+    <mergeCell ref="A97:A106"/>
+    <mergeCell ref="A107:A116"/>
+    <mergeCell ref="A117:A126"/>
+    <mergeCell ref="A127:A136"/>
+    <mergeCell ref="A137:A146"/>
+    <mergeCell ref="A147:A156"/>
+    <mergeCell ref="A157:A166"/>
+    <mergeCell ref="A167:A176"/>
+    <mergeCell ref="A177:A186"/>
+    <mergeCell ref="A187:A196"/>
+    <mergeCell ref="A197:A206"/>
+    <mergeCell ref="A207:A216"/>
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="B21:B22"/>
@@ -3474,6 +6191,66 @@
     <mergeCell ref="B91:B92"/>
     <mergeCell ref="B93:B94"/>
     <mergeCell ref="B95:B96"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="B99:B100"/>
+    <mergeCell ref="B101:B102"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="B105:B106"/>
+    <mergeCell ref="B107:B108"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="B111:B112"/>
+    <mergeCell ref="B113:B114"/>
+    <mergeCell ref="B115:B116"/>
+    <mergeCell ref="B117:B118"/>
+    <mergeCell ref="B119:B120"/>
+    <mergeCell ref="B121:B122"/>
+    <mergeCell ref="B123:B124"/>
+    <mergeCell ref="B125:B126"/>
+    <mergeCell ref="B127:B128"/>
+    <mergeCell ref="B129:B130"/>
+    <mergeCell ref="B131:B132"/>
+    <mergeCell ref="B133:B134"/>
+    <mergeCell ref="B135:B136"/>
+    <mergeCell ref="B137:B138"/>
+    <mergeCell ref="B139:B140"/>
+    <mergeCell ref="B141:B142"/>
+    <mergeCell ref="B143:B144"/>
+    <mergeCell ref="B145:B146"/>
+    <mergeCell ref="B147:B148"/>
+    <mergeCell ref="B149:B150"/>
+    <mergeCell ref="B151:B152"/>
+    <mergeCell ref="B153:B154"/>
+    <mergeCell ref="B155:B156"/>
+    <mergeCell ref="B157:B158"/>
+    <mergeCell ref="B159:B160"/>
+    <mergeCell ref="B161:B162"/>
+    <mergeCell ref="B163:B164"/>
+    <mergeCell ref="B165:B166"/>
+    <mergeCell ref="B167:B168"/>
+    <mergeCell ref="B169:B170"/>
+    <mergeCell ref="B171:B172"/>
+    <mergeCell ref="B173:B174"/>
+    <mergeCell ref="B175:B176"/>
+    <mergeCell ref="B177:B178"/>
+    <mergeCell ref="B179:B180"/>
+    <mergeCell ref="B181:B182"/>
+    <mergeCell ref="B183:B184"/>
+    <mergeCell ref="B185:B186"/>
+    <mergeCell ref="B187:B188"/>
+    <mergeCell ref="B189:B190"/>
+    <mergeCell ref="B191:B192"/>
+    <mergeCell ref="B193:B194"/>
+    <mergeCell ref="B195:B196"/>
+    <mergeCell ref="B197:B198"/>
+    <mergeCell ref="B199:B200"/>
+    <mergeCell ref="B201:B202"/>
+    <mergeCell ref="B203:B204"/>
+    <mergeCell ref="B205:B206"/>
+    <mergeCell ref="B207:B208"/>
+    <mergeCell ref="B209:B210"/>
+    <mergeCell ref="B211:B212"/>
+    <mergeCell ref="B213:B214"/>
+    <mergeCell ref="B215:B216"/>
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="C19:C20"/>
     <mergeCell ref="C21:C22"/>
@@ -3514,6 +6291,66 @@
     <mergeCell ref="C91:C92"/>
     <mergeCell ref="C93:C94"/>
     <mergeCell ref="C95:C96"/>
+    <mergeCell ref="C97:C98"/>
+    <mergeCell ref="C99:C100"/>
+    <mergeCell ref="C101:C102"/>
+    <mergeCell ref="C103:C104"/>
+    <mergeCell ref="C105:C106"/>
+    <mergeCell ref="C107:C108"/>
+    <mergeCell ref="C109:C110"/>
+    <mergeCell ref="C111:C112"/>
+    <mergeCell ref="C113:C114"/>
+    <mergeCell ref="C115:C116"/>
+    <mergeCell ref="C117:C118"/>
+    <mergeCell ref="C119:C120"/>
+    <mergeCell ref="C121:C122"/>
+    <mergeCell ref="C123:C124"/>
+    <mergeCell ref="C125:C126"/>
+    <mergeCell ref="C127:C128"/>
+    <mergeCell ref="C129:C130"/>
+    <mergeCell ref="C131:C132"/>
+    <mergeCell ref="C133:C134"/>
+    <mergeCell ref="C135:C136"/>
+    <mergeCell ref="C137:C138"/>
+    <mergeCell ref="C139:C140"/>
+    <mergeCell ref="C141:C142"/>
+    <mergeCell ref="C143:C144"/>
+    <mergeCell ref="C145:C146"/>
+    <mergeCell ref="C147:C148"/>
+    <mergeCell ref="C149:C150"/>
+    <mergeCell ref="C151:C152"/>
+    <mergeCell ref="C153:C154"/>
+    <mergeCell ref="C155:C156"/>
+    <mergeCell ref="C157:C158"/>
+    <mergeCell ref="C159:C160"/>
+    <mergeCell ref="C161:C162"/>
+    <mergeCell ref="C163:C164"/>
+    <mergeCell ref="C165:C166"/>
+    <mergeCell ref="C167:C168"/>
+    <mergeCell ref="C169:C170"/>
+    <mergeCell ref="C171:C172"/>
+    <mergeCell ref="C173:C174"/>
+    <mergeCell ref="C175:C176"/>
+    <mergeCell ref="C177:C178"/>
+    <mergeCell ref="C179:C180"/>
+    <mergeCell ref="C181:C182"/>
+    <mergeCell ref="C183:C184"/>
+    <mergeCell ref="C185:C186"/>
+    <mergeCell ref="C187:C188"/>
+    <mergeCell ref="C189:C190"/>
+    <mergeCell ref="C191:C192"/>
+    <mergeCell ref="C193:C194"/>
+    <mergeCell ref="C195:C196"/>
+    <mergeCell ref="C197:C198"/>
+    <mergeCell ref="C199:C200"/>
+    <mergeCell ref="C201:C202"/>
+    <mergeCell ref="C203:C204"/>
+    <mergeCell ref="C205:C206"/>
+    <mergeCell ref="C207:C208"/>
+    <mergeCell ref="C209:C210"/>
+    <mergeCell ref="C211:C212"/>
+    <mergeCell ref="C213:C214"/>
+    <mergeCell ref="C215:C216"/>
     <mergeCell ref="D17:D18"/>
     <mergeCell ref="D19:D20"/>
     <mergeCell ref="D21:D22"/>
@@ -3554,6 +6391,66 @@
     <mergeCell ref="D91:D92"/>
     <mergeCell ref="D93:D94"/>
     <mergeCell ref="D95:D96"/>
+    <mergeCell ref="D97:D98"/>
+    <mergeCell ref="D99:D100"/>
+    <mergeCell ref="D101:D102"/>
+    <mergeCell ref="D103:D104"/>
+    <mergeCell ref="D105:D106"/>
+    <mergeCell ref="D107:D108"/>
+    <mergeCell ref="D109:D110"/>
+    <mergeCell ref="D111:D112"/>
+    <mergeCell ref="D113:D114"/>
+    <mergeCell ref="D115:D116"/>
+    <mergeCell ref="D117:D118"/>
+    <mergeCell ref="D119:D120"/>
+    <mergeCell ref="D121:D122"/>
+    <mergeCell ref="D123:D124"/>
+    <mergeCell ref="D125:D126"/>
+    <mergeCell ref="D127:D128"/>
+    <mergeCell ref="D129:D130"/>
+    <mergeCell ref="D131:D132"/>
+    <mergeCell ref="D133:D134"/>
+    <mergeCell ref="D135:D136"/>
+    <mergeCell ref="D137:D138"/>
+    <mergeCell ref="D139:D140"/>
+    <mergeCell ref="D141:D142"/>
+    <mergeCell ref="D143:D144"/>
+    <mergeCell ref="D145:D146"/>
+    <mergeCell ref="D147:D148"/>
+    <mergeCell ref="D149:D150"/>
+    <mergeCell ref="D151:D152"/>
+    <mergeCell ref="D153:D154"/>
+    <mergeCell ref="D155:D156"/>
+    <mergeCell ref="D157:D158"/>
+    <mergeCell ref="D159:D160"/>
+    <mergeCell ref="D161:D162"/>
+    <mergeCell ref="D163:D164"/>
+    <mergeCell ref="D165:D166"/>
+    <mergeCell ref="D167:D168"/>
+    <mergeCell ref="D169:D170"/>
+    <mergeCell ref="D171:D172"/>
+    <mergeCell ref="D173:D174"/>
+    <mergeCell ref="D175:D176"/>
+    <mergeCell ref="D177:D178"/>
+    <mergeCell ref="D179:D180"/>
+    <mergeCell ref="D181:D182"/>
+    <mergeCell ref="D183:D184"/>
+    <mergeCell ref="D185:D186"/>
+    <mergeCell ref="D187:D188"/>
+    <mergeCell ref="D189:D190"/>
+    <mergeCell ref="D191:D192"/>
+    <mergeCell ref="D193:D194"/>
+    <mergeCell ref="D195:D196"/>
+    <mergeCell ref="D197:D198"/>
+    <mergeCell ref="D199:D200"/>
+    <mergeCell ref="D201:D202"/>
+    <mergeCell ref="D203:D204"/>
+    <mergeCell ref="D205:D206"/>
+    <mergeCell ref="D207:D208"/>
+    <mergeCell ref="D209:D210"/>
+    <mergeCell ref="D211:D212"/>
+    <mergeCell ref="D213:D214"/>
+    <mergeCell ref="D215:D216"/>
     <mergeCell ref="E17:E18"/>
     <mergeCell ref="E19:E20"/>
     <mergeCell ref="E21:E22"/>
@@ -3594,6 +6491,66 @@
     <mergeCell ref="E91:E92"/>
     <mergeCell ref="E93:E94"/>
     <mergeCell ref="E95:E96"/>
+    <mergeCell ref="E97:E98"/>
+    <mergeCell ref="E99:E100"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="E103:E104"/>
+    <mergeCell ref="E105:E106"/>
+    <mergeCell ref="E107:E108"/>
+    <mergeCell ref="E109:E110"/>
+    <mergeCell ref="E111:E112"/>
+    <mergeCell ref="E113:E114"/>
+    <mergeCell ref="E115:E116"/>
+    <mergeCell ref="E117:E118"/>
+    <mergeCell ref="E119:E120"/>
+    <mergeCell ref="E121:E122"/>
+    <mergeCell ref="E123:E124"/>
+    <mergeCell ref="E125:E126"/>
+    <mergeCell ref="E127:E128"/>
+    <mergeCell ref="E129:E130"/>
+    <mergeCell ref="E131:E132"/>
+    <mergeCell ref="E133:E134"/>
+    <mergeCell ref="E135:E136"/>
+    <mergeCell ref="E137:E138"/>
+    <mergeCell ref="E139:E140"/>
+    <mergeCell ref="E141:E142"/>
+    <mergeCell ref="E143:E144"/>
+    <mergeCell ref="E145:E146"/>
+    <mergeCell ref="E147:E148"/>
+    <mergeCell ref="E149:E150"/>
+    <mergeCell ref="E151:E152"/>
+    <mergeCell ref="E153:E154"/>
+    <mergeCell ref="E155:E156"/>
+    <mergeCell ref="E157:E158"/>
+    <mergeCell ref="E159:E160"/>
+    <mergeCell ref="E161:E162"/>
+    <mergeCell ref="E163:E164"/>
+    <mergeCell ref="E165:E166"/>
+    <mergeCell ref="E167:E168"/>
+    <mergeCell ref="E169:E170"/>
+    <mergeCell ref="E171:E172"/>
+    <mergeCell ref="E173:E174"/>
+    <mergeCell ref="E175:E176"/>
+    <mergeCell ref="E177:E178"/>
+    <mergeCell ref="E179:E180"/>
+    <mergeCell ref="E181:E182"/>
+    <mergeCell ref="E183:E184"/>
+    <mergeCell ref="E185:E186"/>
+    <mergeCell ref="E187:E188"/>
+    <mergeCell ref="E189:E190"/>
+    <mergeCell ref="E191:E192"/>
+    <mergeCell ref="E193:E194"/>
+    <mergeCell ref="E195:E196"/>
+    <mergeCell ref="E197:E198"/>
+    <mergeCell ref="E199:E200"/>
+    <mergeCell ref="E201:E202"/>
+    <mergeCell ref="E203:E204"/>
+    <mergeCell ref="E205:E206"/>
+    <mergeCell ref="E207:E208"/>
+    <mergeCell ref="E209:E210"/>
+    <mergeCell ref="E211:E212"/>
+    <mergeCell ref="E213:E214"/>
+    <mergeCell ref="E215:E216"/>
     <mergeCell ref="F17:F18"/>
     <mergeCell ref="F19:F20"/>
     <mergeCell ref="F21:F22"/>
@@ -3634,6 +6591,66 @@
     <mergeCell ref="F91:F92"/>
     <mergeCell ref="F93:F94"/>
     <mergeCell ref="F95:F96"/>
+    <mergeCell ref="F97:F98"/>
+    <mergeCell ref="F99:F100"/>
+    <mergeCell ref="F101:F102"/>
+    <mergeCell ref="F103:F104"/>
+    <mergeCell ref="F105:F106"/>
+    <mergeCell ref="F107:F108"/>
+    <mergeCell ref="F109:F110"/>
+    <mergeCell ref="F111:F112"/>
+    <mergeCell ref="F113:F114"/>
+    <mergeCell ref="F115:F116"/>
+    <mergeCell ref="F117:F118"/>
+    <mergeCell ref="F119:F120"/>
+    <mergeCell ref="F121:F122"/>
+    <mergeCell ref="F123:F124"/>
+    <mergeCell ref="F125:F126"/>
+    <mergeCell ref="F127:F128"/>
+    <mergeCell ref="F129:F130"/>
+    <mergeCell ref="F131:F132"/>
+    <mergeCell ref="F133:F134"/>
+    <mergeCell ref="F135:F136"/>
+    <mergeCell ref="F137:F138"/>
+    <mergeCell ref="F139:F140"/>
+    <mergeCell ref="F141:F142"/>
+    <mergeCell ref="F143:F144"/>
+    <mergeCell ref="F145:F146"/>
+    <mergeCell ref="F147:F148"/>
+    <mergeCell ref="F149:F150"/>
+    <mergeCell ref="F151:F152"/>
+    <mergeCell ref="F153:F154"/>
+    <mergeCell ref="F155:F156"/>
+    <mergeCell ref="F157:F158"/>
+    <mergeCell ref="F159:F160"/>
+    <mergeCell ref="F161:F162"/>
+    <mergeCell ref="F163:F164"/>
+    <mergeCell ref="F165:F166"/>
+    <mergeCell ref="F167:F168"/>
+    <mergeCell ref="F169:F170"/>
+    <mergeCell ref="F171:F172"/>
+    <mergeCell ref="F173:F174"/>
+    <mergeCell ref="F175:F176"/>
+    <mergeCell ref="F177:F178"/>
+    <mergeCell ref="F179:F180"/>
+    <mergeCell ref="F181:F182"/>
+    <mergeCell ref="F183:F184"/>
+    <mergeCell ref="F185:F186"/>
+    <mergeCell ref="F187:F188"/>
+    <mergeCell ref="F189:F190"/>
+    <mergeCell ref="F191:F192"/>
+    <mergeCell ref="F193:F194"/>
+    <mergeCell ref="F195:F196"/>
+    <mergeCell ref="F197:F198"/>
+    <mergeCell ref="F199:F200"/>
+    <mergeCell ref="F201:F202"/>
+    <mergeCell ref="F203:F204"/>
+    <mergeCell ref="F205:F206"/>
+    <mergeCell ref="F207:F208"/>
+    <mergeCell ref="F209:F210"/>
+    <mergeCell ref="F211:F212"/>
+    <mergeCell ref="F213:F214"/>
+    <mergeCell ref="F215:F216"/>
     <mergeCell ref="G17:G18"/>
     <mergeCell ref="G19:G20"/>
     <mergeCell ref="G21:G22"/>
@@ -3674,6 +6691,66 @@
     <mergeCell ref="G91:G92"/>
     <mergeCell ref="G93:G94"/>
     <mergeCell ref="G95:G96"/>
+    <mergeCell ref="G97:G98"/>
+    <mergeCell ref="G99:G100"/>
+    <mergeCell ref="G101:G102"/>
+    <mergeCell ref="G103:G104"/>
+    <mergeCell ref="G105:G106"/>
+    <mergeCell ref="G107:G108"/>
+    <mergeCell ref="G109:G110"/>
+    <mergeCell ref="G111:G112"/>
+    <mergeCell ref="G113:G114"/>
+    <mergeCell ref="G115:G116"/>
+    <mergeCell ref="G117:G118"/>
+    <mergeCell ref="G119:G120"/>
+    <mergeCell ref="G121:G122"/>
+    <mergeCell ref="G123:G124"/>
+    <mergeCell ref="G125:G126"/>
+    <mergeCell ref="G127:G128"/>
+    <mergeCell ref="G129:G130"/>
+    <mergeCell ref="G131:G132"/>
+    <mergeCell ref="G133:G134"/>
+    <mergeCell ref="G135:G136"/>
+    <mergeCell ref="G137:G138"/>
+    <mergeCell ref="G139:G140"/>
+    <mergeCell ref="G141:G142"/>
+    <mergeCell ref="G143:G144"/>
+    <mergeCell ref="G145:G146"/>
+    <mergeCell ref="G147:G148"/>
+    <mergeCell ref="G149:G150"/>
+    <mergeCell ref="G151:G152"/>
+    <mergeCell ref="G153:G154"/>
+    <mergeCell ref="G155:G156"/>
+    <mergeCell ref="G157:G158"/>
+    <mergeCell ref="G159:G160"/>
+    <mergeCell ref="G161:G162"/>
+    <mergeCell ref="G163:G164"/>
+    <mergeCell ref="G165:G166"/>
+    <mergeCell ref="G167:G168"/>
+    <mergeCell ref="G169:G170"/>
+    <mergeCell ref="G171:G172"/>
+    <mergeCell ref="G173:G174"/>
+    <mergeCell ref="G175:G176"/>
+    <mergeCell ref="G177:G178"/>
+    <mergeCell ref="G179:G180"/>
+    <mergeCell ref="G181:G182"/>
+    <mergeCell ref="G183:G184"/>
+    <mergeCell ref="G185:G186"/>
+    <mergeCell ref="G187:G188"/>
+    <mergeCell ref="G189:G190"/>
+    <mergeCell ref="G191:G192"/>
+    <mergeCell ref="G193:G194"/>
+    <mergeCell ref="G195:G196"/>
+    <mergeCell ref="G197:G198"/>
+    <mergeCell ref="G199:G200"/>
+    <mergeCell ref="G201:G202"/>
+    <mergeCell ref="G203:G204"/>
+    <mergeCell ref="G205:G206"/>
+    <mergeCell ref="G207:G208"/>
+    <mergeCell ref="G209:G210"/>
+    <mergeCell ref="G211:G212"/>
+    <mergeCell ref="G213:G214"/>
+    <mergeCell ref="G215:G216"/>
     <mergeCell ref="H17:H18"/>
     <mergeCell ref="H19:H20"/>
     <mergeCell ref="H21:H22"/>
@@ -3714,6 +6791,66 @@
     <mergeCell ref="H91:H92"/>
     <mergeCell ref="H93:H94"/>
     <mergeCell ref="H95:H96"/>
+    <mergeCell ref="H97:H98"/>
+    <mergeCell ref="H99:H100"/>
+    <mergeCell ref="H101:H102"/>
+    <mergeCell ref="H103:H104"/>
+    <mergeCell ref="H105:H106"/>
+    <mergeCell ref="H107:H108"/>
+    <mergeCell ref="H109:H110"/>
+    <mergeCell ref="H111:H112"/>
+    <mergeCell ref="H113:H114"/>
+    <mergeCell ref="H115:H116"/>
+    <mergeCell ref="H117:H118"/>
+    <mergeCell ref="H119:H120"/>
+    <mergeCell ref="H121:H122"/>
+    <mergeCell ref="H123:H124"/>
+    <mergeCell ref="H125:H126"/>
+    <mergeCell ref="H127:H128"/>
+    <mergeCell ref="H129:H130"/>
+    <mergeCell ref="H131:H132"/>
+    <mergeCell ref="H133:H134"/>
+    <mergeCell ref="H135:H136"/>
+    <mergeCell ref="H137:H138"/>
+    <mergeCell ref="H139:H140"/>
+    <mergeCell ref="H141:H142"/>
+    <mergeCell ref="H143:H144"/>
+    <mergeCell ref="H145:H146"/>
+    <mergeCell ref="H147:H148"/>
+    <mergeCell ref="H149:H150"/>
+    <mergeCell ref="H151:H152"/>
+    <mergeCell ref="H153:H154"/>
+    <mergeCell ref="H155:H156"/>
+    <mergeCell ref="H157:H158"/>
+    <mergeCell ref="H159:H160"/>
+    <mergeCell ref="H161:H162"/>
+    <mergeCell ref="H163:H164"/>
+    <mergeCell ref="H165:H166"/>
+    <mergeCell ref="H167:H168"/>
+    <mergeCell ref="H169:H170"/>
+    <mergeCell ref="H171:H172"/>
+    <mergeCell ref="H173:H174"/>
+    <mergeCell ref="H175:H176"/>
+    <mergeCell ref="H177:H178"/>
+    <mergeCell ref="H179:H180"/>
+    <mergeCell ref="H181:H182"/>
+    <mergeCell ref="H183:H184"/>
+    <mergeCell ref="H185:H186"/>
+    <mergeCell ref="H187:H188"/>
+    <mergeCell ref="H189:H190"/>
+    <mergeCell ref="H191:H192"/>
+    <mergeCell ref="H193:H194"/>
+    <mergeCell ref="H195:H196"/>
+    <mergeCell ref="H197:H198"/>
+    <mergeCell ref="H199:H200"/>
+    <mergeCell ref="H201:H202"/>
+    <mergeCell ref="H203:H204"/>
+    <mergeCell ref="H205:H206"/>
+    <mergeCell ref="H207:H208"/>
+    <mergeCell ref="H209:H210"/>
+    <mergeCell ref="H211:H212"/>
+    <mergeCell ref="H213:H214"/>
+    <mergeCell ref="H215:H216"/>
     <mergeCell ref="I17:I18"/>
     <mergeCell ref="I19:I20"/>
     <mergeCell ref="I21:I22"/>
@@ -3754,6 +6891,66 @@
     <mergeCell ref="I91:I92"/>
     <mergeCell ref="I93:I94"/>
     <mergeCell ref="I95:I96"/>
+    <mergeCell ref="I97:I98"/>
+    <mergeCell ref="I99:I100"/>
+    <mergeCell ref="I101:I102"/>
+    <mergeCell ref="I103:I104"/>
+    <mergeCell ref="I105:I106"/>
+    <mergeCell ref="I107:I108"/>
+    <mergeCell ref="I109:I110"/>
+    <mergeCell ref="I111:I112"/>
+    <mergeCell ref="I113:I114"/>
+    <mergeCell ref="I115:I116"/>
+    <mergeCell ref="I117:I118"/>
+    <mergeCell ref="I119:I120"/>
+    <mergeCell ref="I121:I122"/>
+    <mergeCell ref="I123:I124"/>
+    <mergeCell ref="I125:I126"/>
+    <mergeCell ref="I127:I128"/>
+    <mergeCell ref="I129:I130"/>
+    <mergeCell ref="I131:I132"/>
+    <mergeCell ref="I133:I134"/>
+    <mergeCell ref="I135:I136"/>
+    <mergeCell ref="I137:I138"/>
+    <mergeCell ref="I139:I140"/>
+    <mergeCell ref="I141:I142"/>
+    <mergeCell ref="I143:I144"/>
+    <mergeCell ref="I145:I146"/>
+    <mergeCell ref="I147:I148"/>
+    <mergeCell ref="I149:I150"/>
+    <mergeCell ref="I151:I152"/>
+    <mergeCell ref="I153:I154"/>
+    <mergeCell ref="I155:I156"/>
+    <mergeCell ref="I157:I158"/>
+    <mergeCell ref="I159:I160"/>
+    <mergeCell ref="I161:I162"/>
+    <mergeCell ref="I163:I164"/>
+    <mergeCell ref="I165:I166"/>
+    <mergeCell ref="I167:I168"/>
+    <mergeCell ref="I169:I170"/>
+    <mergeCell ref="I171:I172"/>
+    <mergeCell ref="I173:I174"/>
+    <mergeCell ref="I175:I176"/>
+    <mergeCell ref="I177:I178"/>
+    <mergeCell ref="I179:I180"/>
+    <mergeCell ref="I181:I182"/>
+    <mergeCell ref="I183:I184"/>
+    <mergeCell ref="I185:I186"/>
+    <mergeCell ref="I187:I188"/>
+    <mergeCell ref="I189:I190"/>
+    <mergeCell ref="I191:I192"/>
+    <mergeCell ref="I193:I194"/>
+    <mergeCell ref="I195:I196"/>
+    <mergeCell ref="I197:I198"/>
+    <mergeCell ref="I199:I200"/>
+    <mergeCell ref="I201:I202"/>
+    <mergeCell ref="I203:I204"/>
+    <mergeCell ref="I205:I206"/>
+    <mergeCell ref="I207:I208"/>
+    <mergeCell ref="I209:I210"/>
+    <mergeCell ref="I211:I212"/>
+    <mergeCell ref="I213:I214"/>
+    <mergeCell ref="I215:I216"/>
     <mergeCell ref="J17:J18"/>
     <mergeCell ref="J19:J20"/>
     <mergeCell ref="J21:J22"/>
@@ -3794,6 +6991,66 @@
     <mergeCell ref="J91:J92"/>
     <mergeCell ref="J93:J94"/>
     <mergeCell ref="J95:J96"/>
+    <mergeCell ref="J97:J98"/>
+    <mergeCell ref="J99:J100"/>
+    <mergeCell ref="J101:J102"/>
+    <mergeCell ref="J103:J104"/>
+    <mergeCell ref="J105:J106"/>
+    <mergeCell ref="J107:J108"/>
+    <mergeCell ref="J109:J110"/>
+    <mergeCell ref="J111:J112"/>
+    <mergeCell ref="J113:J114"/>
+    <mergeCell ref="J115:J116"/>
+    <mergeCell ref="J117:J118"/>
+    <mergeCell ref="J119:J120"/>
+    <mergeCell ref="J121:J122"/>
+    <mergeCell ref="J123:J124"/>
+    <mergeCell ref="J125:J126"/>
+    <mergeCell ref="J127:J128"/>
+    <mergeCell ref="J129:J130"/>
+    <mergeCell ref="J131:J132"/>
+    <mergeCell ref="J133:J134"/>
+    <mergeCell ref="J135:J136"/>
+    <mergeCell ref="J137:J138"/>
+    <mergeCell ref="J139:J140"/>
+    <mergeCell ref="J141:J142"/>
+    <mergeCell ref="J143:J144"/>
+    <mergeCell ref="J145:J146"/>
+    <mergeCell ref="J147:J148"/>
+    <mergeCell ref="J149:J150"/>
+    <mergeCell ref="J151:J152"/>
+    <mergeCell ref="J153:J154"/>
+    <mergeCell ref="J155:J156"/>
+    <mergeCell ref="J157:J158"/>
+    <mergeCell ref="J159:J160"/>
+    <mergeCell ref="J161:J162"/>
+    <mergeCell ref="J163:J164"/>
+    <mergeCell ref="J165:J166"/>
+    <mergeCell ref="J167:J168"/>
+    <mergeCell ref="J169:J170"/>
+    <mergeCell ref="J171:J172"/>
+    <mergeCell ref="J173:J174"/>
+    <mergeCell ref="J175:J176"/>
+    <mergeCell ref="J177:J178"/>
+    <mergeCell ref="J179:J180"/>
+    <mergeCell ref="J181:J182"/>
+    <mergeCell ref="J183:J184"/>
+    <mergeCell ref="J185:J186"/>
+    <mergeCell ref="J187:J188"/>
+    <mergeCell ref="J189:J190"/>
+    <mergeCell ref="J191:J192"/>
+    <mergeCell ref="J193:J194"/>
+    <mergeCell ref="J195:J196"/>
+    <mergeCell ref="J197:J198"/>
+    <mergeCell ref="J199:J200"/>
+    <mergeCell ref="J201:J202"/>
+    <mergeCell ref="J203:J204"/>
+    <mergeCell ref="J205:J206"/>
+    <mergeCell ref="J207:J208"/>
+    <mergeCell ref="J209:J210"/>
+    <mergeCell ref="J211:J212"/>
+    <mergeCell ref="J213:J214"/>
+    <mergeCell ref="J215:J216"/>
     <mergeCell ref="K17:K18"/>
     <mergeCell ref="K19:K20"/>
     <mergeCell ref="K21:K22"/>
@@ -3834,6 +7091,66 @@
     <mergeCell ref="K91:K92"/>
     <mergeCell ref="K93:K94"/>
     <mergeCell ref="K95:K96"/>
+    <mergeCell ref="K97:K98"/>
+    <mergeCell ref="K99:K100"/>
+    <mergeCell ref="K101:K102"/>
+    <mergeCell ref="K103:K104"/>
+    <mergeCell ref="K105:K106"/>
+    <mergeCell ref="K107:K108"/>
+    <mergeCell ref="K109:K110"/>
+    <mergeCell ref="K111:K112"/>
+    <mergeCell ref="K113:K114"/>
+    <mergeCell ref="K115:K116"/>
+    <mergeCell ref="K117:K118"/>
+    <mergeCell ref="K119:K120"/>
+    <mergeCell ref="K121:K122"/>
+    <mergeCell ref="K123:K124"/>
+    <mergeCell ref="K125:K126"/>
+    <mergeCell ref="K127:K128"/>
+    <mergeCell ref="K129:K130"/>
+    <mergeCell ref="K131:K132"/>
+    <mergeCell ref="K133:K134"/>
+    <mergeCell ref="K135:K136"/>
+    <mergeCell ref="K137:K138"/>
+    <mergeCell ref="K139:K140"/>
+    <mergeCell ref="K141:K142"/>
+    <mergeCell ref="K143:K144"/>
+    <mergeCell ref="K145:K146"/>
+    <mergeCell ref="K147:K148"/>
+    <mergeCell ref="K149:K150"/>
+    <mergeCell ref="K151:K152"/>
+    <mergeCell ref="K153:K154"/>
+    <mergeCell ref="K155:K156"/>
+    <mergeCell ref="K157:K158"/>
+    <mergeCell ref="K159:K160"/>
+    <mergeCell ref="K161:K162"/>
+    <mergeCell ref="K163:K164"/>
+    <mergeCell ref="K165:K166"/>
+    <mergeCell ref="K167:K168"/>
+    <mergeCell ref="K169:K170"/>
+    <mergeCell ref="K171:K172"/>
+    <mergeCell ref="K173:K174"/>
+    <mergeCell ref="K175:K176"/>
+    <mergeCell ref="K177:K178"/>
+    <mergeCell ref="K179:K180"/>
+    <mergeCell ref="K181:K182"/>
+    <mergeCell ref="K183:K184"/>
+    <mergeCell ref="K185:K186"/>
+    <mergeCell ref="K187:K188"/>
+    <mergeCell ref="K189:K190"/>
+    <mergeCell ref="K191:K192"/>
+    <mergeCell ref="K193:K194"/>
+    <mergeCell ref="K195:K196"/>
+    <mergeCell ref="K197:K198"/>
+    <mergeCell ref="K199:K200"/>
+    <mergeCell ref="K201:K202"/>
+    <mergeCell ref="K203:K204"/>
+    <mergeCell ref="K205:K206"/>
+    <mergeCell ref="K207:K208"/>
+    <mergeCell ref="K209:K210"/>
+    <mergeCell ref="K211:K212"/>
+    <mergeCell ref="K213:K214"/>
+    <mergeCell ref="K215:K216"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/ABC大Python课程选择题模板.xlsx
+++ b/ABC大Python课程选择题模板.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1044" uniqueCount="563">
   <si>
     <t>章节</t>
   </si>
@@ -1631,6 +1631,67 @@
     <t>多态</t>
   </si>
   <si>
+    <t>如果一个类中的某一属性做了私有化处理，创建的对象可以通过类的（   ）访问</t>
+  </si>
+  <si>
+    <t>私有方法</t>
+  </si>
+  <si>
+    <t>其它私有属性</t>
+  </si>
+  <si>
+    <t>公开方法</t>
+  </si>
+  <si>
+    <t>其它公开属性</t>
+  </si>
+  <si>
+    <t>代码：class Site:
+    def __init__(self, name, url):
+        self.name = name 
+        self.__url = url 
+    def __foo(self): 
+        print('方法执行了')
+x = Site('OAEC', 'https://abc.oracleoaec.com/')
+x.__foo() 的输出结果未</t>
+  </si>
+  <si>
+    <t>OAEC</t>
+  </si>
+  <si>
+    <t>https://abc.oracleoaec.com/</t>
+  </si>
+  <si>
+    <t>方法执行了</t>
+  </si>
+  <si>
+    <t>报错</t>
+  </si>
+  <si>
+    <t>以下代码可以输出__secretCount的值的时（   ）class JustCounter:
+    __secretCount = 0
+    publicCount = 0
+    def count(self):
+        self.__secretCount += 1
+        self.publicCount += 1
+        print(self.__secretCount)</t>
+  </si>
+  <si>
+    <t>counter = JustCounter()
+counter.count()</t>
+  </si>
+  <si>
+    <t>counter = JustCounter()
+print(counter.__secretCount)</t>
+  </si>
+  <si>
+    <t>print(__secretCount)</t>
+  </si>
+  <si>
+    <t>counter = JustCounter()
+print(counter.publicCount)</t>
+  </si>
+  <si>
     <t>第二章
 Python高级   继承</t>
   </si>
@@ -1680,10 +1741,116 @@
     <t>双重</t>
   </si>
   <si>
+    <t>代码class DerivedClassName(Base1, Base2, Base3):
+    &lt;statement&gt;说法正确的是</t>
+  </si>
+  <si>
+    <t>DerivedClassName有多个父类</t>
+  </si>
+  <si>
+    <t>DerivedClassName只有一个父类</t>
+  </si>
+  <si>
+    <t>DerivedClassName所继承的属性中来自Base1的最多</t>
+  </si>
+  <si>
+    <t>Base1,Base2,Base3中的私有属性和方法，DerivedClassName也能访问</t>
+  </si>
+  <si>
+    <t>关于继承，下列说法正确的是（   ）</t>
+  </si>
+  <si>
+    <t>子类可以继承父类所有的属性和方法</t>
+  </si>
+  <si>
+    <t>父类的私有属性，子类无法访问</t>
+  </si>
+  <si>
+    <t>一个子类可以继承自多个父类</t>
+  </si>
+  <si>
+    <t>一个子类只能继承自多个父类</t>
+  </si>
+  <si>
     <t>第二章
 Python高级   鸭子语言（多态）</t>
   </si>
   <si>
+    <t>关于鸭子类型语言，说法正确的是（   ）</t>
+  </si>
+  <si>
+    <t>鸭子语言</t>
+  </si>
+  <si>
+    <t>鸭子语言不关注对象的类型，而是关注它是否具有要调用的方法</t>
+  </si>
+  <si>
+    <t xml:space="preserve">鸭子语言只关注类本身是否有公有方法 </t>
+  </si>
+  <si>
+    <t>鸭子语言实现了类的重写</t>
+  </si>
+  <si>
+    <t>鸭子是Python中一切类的总类</t>
+  </si>
+  <si>
+    <t>以下代码的输出结果为（   ）class Animal:
+    def move(self):
+        print("动物可以活动")
+class Rabbit(Animal):
+    def move(self):
+        print("兔子可以蹦蹦跳跳")
+def test(obj):
+    obj.move()
+rabbit = Rabbit()
+test(rabbit)</t>
+  </si>
+  <si>
+    <t>动物可以活动</t>
+  </si>
+  <si>
+    <t>兔子可以蹦蹦跳跳</t>
+  </si>
+  <si>
+    <t>test(rabbit)</t>
+  </si>
+  <si>
+    <t>关于创建对象说法正确的是（   ）</t>
+  </si>
+  <si>
+    <t>通过new关键字创建</t>
+  </si>
+  <si>
+    <t>类名即为对象</t>
+  </si>
+  <si>
+    <t>通过类型()创建对象</t>
+  </si>
+  <si>
+    <t>不用创建对象也能使用</t>
+  </si>
+  <si>
+    <t>class Cat:
+    def shout(self):
+        print("喵喵喵")
+    def __eat(self):
+        print("猫捕食不被打扰")
+cat = Cat()
+cat.eat()的输出结果是（   ）</t>
+  </si>
+  <si>
+    <t>喵喵喵</t>
+  </si>
+  <si>
+    <t>猫捕食不被打扰</t>
+  </si>
+  <si>
+    <t>cat.eat()</t>
+  </si>
+  <si>
+    <t>以下属于Python面向对象三大特征的是（   ）</t>
+  </si>
+  <si>
     <t>第二章
 Python高级   模块导入</t>
   </si>
@@ -1704,6 +1871,66 @@
   </si>
   <si>
     <t>import保留字用于导入模块或者模块中的对象</t>
+  </si>
+  <si>
+    <t>以下关键词不会用于模块导入的是（   ）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">import </t>
+  </si>
+  <si>
+    <t>with</t>
+  </si>
+  <si>
+    <t>as</t>
+  </si>
+  <si>
+    <t>from</t>
+  </si>
+  <si>
+    <t>random模块是生成随机数的一个模块，random.random()返回数值为（   ）</t>
+  </si>
+  <si>
+    <t>0-1之间的随机实数</t>
+  </si>
+  <si>
+    <t>任意整数</t>
+  </si>
+  <si>
+    <t>0-100之间的随机实数</t>
+  </si>
+  <si>
+    <t>任意小数</t>
+  </si>
+  <si>
+    <t>下列哪个属性可以获取模块的名称（   ）</t>
+  </si>
+  <si>
+    <t>__doc__</t>
+  </si>
+  <si>
+    <t>__name</t>
+  </si>
+  <si>
+    <t>__init__</t>
+  </si>
+  <si>
+    <t>sys</t>
+  </si>
+  <si>
+    <t>time模块提供了一系列处理时间的函数，下面哪些方法是time模块的常用函数（   ）</t>
+  </si>
+  <si>
+    <t>time()</t>
+  </si>
+  <si>
+    <t>sleep()</t>
+  </si>
+  <si>
+    <t>localtime()</t>
+  </si>
+  <si>
+    <t>strftime()</t>
   </si>
 </sst>
 </file>
@@ -1738,6 +1965,14 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -1761,14 +1996,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2194,10 +2421,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2206,19 +2433,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2230,7 +2457,7 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2251,13 +2478,13 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
@@ -2269,10 +2496,10 @@
     <xf numFmtId="0" fontId="17" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -2287,56 +2514,56 @@
     <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2358,6 +2585,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2707,8 +2937,8 @@
   <sheetPr/>
   <dimension ref="A1:K216"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A168" workbookViewId="0">
-      <selection activeCell="B181" sqref="B181:B182"/>
+    <sheetView tabSelected="1" topLeftCell="A204" workbookViewId="0">
+      <selection activeCell="A217" sqref="A217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
@@ -4412,7 +4642,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="87" spans="1:11">
+    <row r="87" ht="14" spans="1:11">
       <c r="A87" s="5" t="s">
         <v>248</v>
       </c>
@@ -4575,7 +4805,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="97" spans="1:11">
+    <row r="97" ht="14" spans="1:11">
       <c r="A97" s="5" t="s">
         <v>278</v>
       </c>
@@ -4706,7 +4936,6 @@
         <v>298</v>
       </c>
     </row>
-    <row r="104" ht="14"/>
     <row r="105" spans="2:11">
       <c r="B105" s="3" t="s">
         <v>299</v>
@@ -4739,7 +4968,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="107" spans="1:11">
+    <row r="107" ht="14" spans="1:11">
       <c r="A107" s="5" t="s">
         <v>300</v>
       </c>
@@ -4902,7 +5131,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="117" spans="1:11">
+    <row r="117" ht="14" spans="1:11">
       <c r="A117" s="5" t="s">
         <v>322</v>
       </c>
@@ -5033,7 +5262,6 @@
         <v>342</v>
       </c>
     </row>
-    <row r="124" ht="14"/>
     <row r="125" spans="2:11">
       <c r="B125" s="3" t="s">
         <v>343</v>
@@ -5066,7 +5294,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="127" spans="1:11">
+    <row r="127" ht="14" spans="1:11">
       <c r="A127" s="5" t="s">
         <v>348</v>
       </c>
@@ -5133,7 +5361,6 @@
         <v>356</v>
       </c>
     </row>
-    <row r="130" ht="14"/>
     <row r="131" spans="2:11">
       <c r="B131" s="3" t="s">
         <v>357</v>
@@ -5166,7 +5393,6 @@
         <v>360</v>
       </c>
     </row>
-    <row r="132" ht="14"/>
     <row r="133" spans="2:11">
       <c r="B133" s="3" t="s">
         <v>361</v>
@@ -5199,7 +5425,6 @@
         <v>365</v>
       </c>
     </row>
-    <row r="134" ht="14"/>
     <row r="135" spans="2:11">
       <c r="B135" s="3" t="s">
         <v>366</v>
@@ -5232,7 +5457,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="137" spans="1:11">
+    <row r="137" ht="14" spans="1:11">
       <c r="A137" s="5" t="s">
         <v>367</v>
       </c>
@@ -5299,7 +5524,6 @@
         <v>378</v>
       </c>
     </row>
-    <row r="140" ht="14"/>
     <row r="141" spans="2:11">
       <c r="B141" s="3" t="s">
         <v>379</v>
@@ -5332,7 +5556,6 @@
         <v>383</v>
       </c>
     </row>
-    <row r="142" ht="14"/>
     <row r="143" spans="2:11">
       <c r="B143" s="3" t="s">
         <v>384</v>
@@ -5365,7 +5588,6 @@
         <v>388</v>
       </c>
     </row>
-    <row r="144" ht="14"/>
     <row r="145" spans="2:11">
       <c r="B145" s="3" t="s">
         <v>389</v>
@@ -5398,7 +5620,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="147" spans="1:11">
+    <row r="147" ht="14" spans="1:11">
       <c r="A147" s="5" t="s">
         <v>393</v>
       </c>
@@ -5497,7 +5719,6 @@
         <v>410</v>
       </c>
     </row>
-    <row r="152" ht="14"/>
     <row r="153" spans="2:11">
       <c r="B153" s="3" t="s">
         <v>411</v>
@@ -5530,7 +5751,6 @@
         <v>410</v>
       </c>
     </row>
-    <row r="154" ht="14"/>
     <row r="155" spans="2:11">
       <c r="B155" s="3" t="s">
         <v>412</v>
@@ -5563,7 +5783,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="157" spans="1:11">
+    <row r="157" ht="14" spans="1:11">
       <c r="A157" s="5" t="s">
         <v>415</v>
       </c>
@@ -5630,7 +5850,6 @@
         <v>425</v>
       </c>
     </row>
-    <row r="160" ht="14"/>
     <row r="161" spans="2:11">
       <c r="B161" s="3" t="s">
         <v>426</v>
@@ -5663,7 +5882,6 @@
         <v>430</v>
       </c>
     </row>
-    <row r="162" ht="14"/>
     <row r="163" spans="2:11">
       <c r="B163" s="3" t="s">
         <v>431</v>
@@ -5696,7 +5914,6 @@
         <v>435</v>
       </c>
     </row>
-    <row r="164" ht="14"/>
     <row r="165" spans="2:11">
       <c r="B165" s="3" t="s">
         <v>436</v>
@@ -5729,7 +5946,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="167" spans="1:11">
+    <row r="167" ht="14" spans="1:11">
       <c r="A167" s="5" t="s">
         <v>439</v>
       </c>
@@ -5796,7 +6013,6 @@
         <v>449</v>
       </c>
     </row>
-    <row r="170" ht="14"/>
     <row r="171" spans="2:11">
       <c r="B171" s="3" t="s">
         <v>450</v>
@@ -5829,7 +6045,6 @@
         <v>455</v>
       </c>
     </row>
-    <row r="172" ht="14"/>
     <row r="173" spans="2:11">
       <c r="B173" s="3" t="s">
         <v>456</v>
@@ -5894,7 +6109,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="177" spans="1:11">
+    <row r="177" ht="14" spans="1:11">
       <c r="A177" s="5" t="s">
         <v>463</v>
       </c>
@@ -5961,18 +6176,108 @@
         <v>473</v>
       </c>
     </row>
-    <row r="180" ht="14"/>
-    <row r="181" ht="14"/>
-    <row r="182" ht="14"/>
-    <row r="183" ht="14"/>
-    <row r="184" ht="14"/>
-    <row r="185" ht="14"/>
+    <row r="181" spans="2:11">
+      <c r="B181" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="C181" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D181" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E181" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F181" s="3">
+        <v>2</v>
+      </c>
+      <c r="G181" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="H181" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="I181" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="J181" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="K181" s="3" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="183" spans="2:11">
+      <c r="B183" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="C183" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D183" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E183" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F183" s="3">
+        <v>2</v>
+      </c>
+      <c r="G183" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="H183" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="I183" s="8" t="s">
+        <v>481</v>
+      </c>
+      <c r="J183" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="K183" s="3" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="185" spans="2:11">
+      <c r="B185" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="C185" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D185" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E185" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F185" s="3">
+        <v>2</v>
+      </c>
+      <c r="G185" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="H185" s="5" t="s">
+        <v>485</v>
+      </c>
+      <c r="I185" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="J185" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="K185" s="5" t="s">
+        <v>488</v>
+      </c>
+    </row>
     <row r="187" spans="1:11">
       <c r="A187" s="5" t="s">
-        <v>474</v>
+        <v>489</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>475</v>
+        <v>490</v>
       </c>
       <c r="C187" s="3" t="s">
         <v>13</v>
@@ -5990,21 +6295,21 @@
         <v>472</v>
       </c>
       <c r="H187" s="3" t="s">
-        <v>476</v>
+        <v>491</v>
       </c>
       <c r="I187" s="3" t="s">
-        <v>477</v>
+        <v>492</v>
       </c>
       <c r="J187" s="3" t="s">
-        <v>478</v>
+        <v>493</v>
       </c>
       <c r="K187" s="3" t="s">
-        <v>479</v>
+        <v>494</v>
       </c>
     </row>
     <row r="189" spans="2:11">
       <c r="B189" s="3" t="s">
-        <v>480</v>
+        <v>495</v>
       </c>
       <c r="C189" s="3" t="s">
         <v>13</v>
@@ -6022,22 +6327,21 @@
         <v>472</v>
       </c>
       <c r="H189" s="3" t="s">
-        <v>481</v>
+        <v>496</v>
       </c>
       <c r="I189" s="3" t="s">
-        <v>482</v>
+        <v>497</v>
       </c>
       <c r="J189" s="3" t="s">
-        <v>483</v>
+        <v>498</v>
       </c>
       <c r="K189" s="3" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="190" ht="14"/>
+        <v>499</v>
+      </c>
+    </row>
     <row r="191" spans="2:11">
       <c r="B191" s="3" t="s">
-        <v>485</v>
+        <v>500</v>
       </c>
       <c r="C191" s="3" t="s">
         <v>13</v>
@@ -6055,40 +6359,251 @@
         <v>472</v>
       </c>
       <c r="H191" s="3" t="s">
-        <v>486</v>
+        <v>501</v>
       </c>
       <c r="I191" s="3" t="s">
-        <v>487</v>
+        <v>502</v>
       </c>
       <c r="J191" s="3" t="s">
-        <v>488</v>
+        <v>503</v>
       </c>
       <c r="K191" s="3" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="192" ht="14"/>
-    <row r="193" ht="14"/>
-    <row r="194" ht="14"/>
-    <row r="195" ht="14"/>
-    <row r="197" spans="1:1">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="193" spans="2:11">
+      <c r="B193" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="C193" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D193" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E193" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F193" s="3">
+        <v>2</v>
+      </c>
+      <c r="G193" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="H193" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="I193" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="J193" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="K193" s="3" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="195" spans="2:11">
+      <c r="B195" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="C195" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D195" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="E195" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F195" s="3">
+        <v>2</v>
+      </c>
+      <c r="G195" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="H195" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="I195" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="J195" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="K195" s="3" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11">
       <c r="A197" s="5" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="199" ht="14"/>
-    <row r="200" ht="14"/>
-    <row r="201" ht="14"/>
-    <row r="202" ht="14"/>
-    <row r="203" ht="14"/>
-    <row r="204" ht="14"/>
-    <row r="205" ht="14"/>
+        <v>515</v>
+      </c>
+      <c r="B197" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="C197" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D197" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E197" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F197" s="3">
+        <v>2</v>
+      </c>
+      <c r="G197" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="H197" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="I197" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="J197" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="K197" s="3" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="199" spans="2:11">
+      <c r="B199" s="5" t="s">
+        <v>522</v>
+      </c>
+      <c r="C199" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D199" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E199" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F199" s="3">
+        <v>2</v>
+      </c>
+      <c r="G199" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="H199" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="I199" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="J199" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="K199" s="3" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="201" spans="2:11">
+      <c r="B201" s="3" t="s">
+        <v>526</v>
+      </c>
+      <c r="C201" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D201" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E201" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F201" s="3">
+        <v>2</v>
+      </c>
+      <c r="G201" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="H201" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="I201" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="J201" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="K201" s="3" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="203" spans="2:11">
+      <c r="B203" s="5" t="s">
+        <v>531</v>
+      </c>
+      <c r="C203" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D203" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E203" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F203" s="3">
+        <v>2</v>
+      </c>
+      <c r="G203" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="H203" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="I203" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="J203" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="K203" s="3" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="205" spans="2:11">
+      <c r="B205" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="C205" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D205" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E205" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F205" s="3">
+        <v>2</v>
+      </c>
+      <c r="G205" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="H205" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="I205" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="J205" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="K205" s="3" t="s">
+        <v>471</v>
+      </c>
+    </row>
     <row r="207" spans="1:11">
       <c r="A207" s="5" t="s">
-        <v>491</v>
+        <v>536</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>492</v>
+        <v>537</v>
       </c>
       <c r="C207" s="3" t="s">
         <v>13</v>
@@ -6103,29 +6618,149 @@
         <v>2</v>
       </c>
       <c r="G207" s="3" t="s">
-        <v>493</v>
+        <v>538</v>
       </c>
       <c r="H207" s="3" t="s">
-        <v>494</v>
+        <v>539</v>
       </c>
       <c r="I207" s="3" t="s">
-        <v>495</v>
+        <v>540</v>
       </c>
       <c r="J207" s="3" t="s">
-        <v>496</v>
+        <v>541</v>
       </c>
       <c r="K207" s="3" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="209" ht="14"/>
-    <row r="210" ht="14"/>
-    <row r="211" ht="14"/>
-    <row r="212" ht="14"/>
-    <row r="213" ht="14"/>
-    <row r="214" ht="14"/>
-    <row r="215" ht="14"/>
-    <row r="216" ht="14"/>
+        <v>542</v>
+      </c>
+    </row>
+    <row r="209" spans="2:11">
+      <c r="B209" s="3" t="s">
+        <v>543</v>
+      </c>
+      <c r="C209" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D209" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E209" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F209" s="3">
+        <v>2</v>
+      </c>
+      <c r="G209" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="H209" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="I209" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="J209" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="K209" s="3" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="211" spans="2:11">
+      <c r="B211" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="C211" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D211" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E211" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F211" s="3">
+        <v>2</v>
+      </c>
+      <c r="G211" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="H211" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="I211" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="J211" s="3" t="s">
+        <v>551</v>
+      </c>
+      <c r="K211" s="3" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="213" spans="2:11">
+      <c r="B213" s="3" t="s">
+        <v>553</v>
+      </c>
+      <c r="C213" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D213" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E213" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F213" s="3">
+        <v>2</v>
+      </c>
+      <c r="G213" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="H213" s="3" t="s">
+        <v>554</v>
+      </c>
+      <c r="I213" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="J213" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="K213" s="3" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="215" spans="2:11">
+      <c r="B215" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="C215" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D215" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E215" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F215" s="3">
+        <v>2</v>
+      </c>
+      <c r="G215" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="H215" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="I215" s="3" t="s">
+        <v>560</v>
+      </c>
+      <c r="J215" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="K215" s="3" t="s">
+        <v>562</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1023">
     <mergeCell ref="A2:A6"/>
@@ -7152,6 +7787,9 @@
     <mergeCell ref="K213:K214"/>
     <mergeCell ref="K215:K216"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="I183" r:id="rId1" display="https://abc.oracleoaec.com/"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>

--- a/ABC大Python课程选择题模板.xlsx
+++ b/ABC大Python课程选择题模板.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1044" uniqueCount="563">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2412" uniqueCount="1294">
   <si>
     <t>章节</t>
   </si>
@@ -1931,6 +1931,2308 @@
   </si>
   <si>
     <t>strftime()</t>
+  </si>
+  <si>
+    <t>爬虫基础知识</t>
+  </si>
+  <si>
+    <t>下列选项中，用于表示bs4中的标签的类是</t>
+  </si>
+  <si>
+    <t>Tag</t>
+  </si>
+  <si>
+    <t>NavigableString</t>
+  </si>
+  <si>
+    <t>BeautifulSoup</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>当Scrapy下载器完成请求，传递响应交给引擎时会调用（）方法</t>
+  </si>
+  <si>
+    <t>process_request()</t>
+  </si>
+  <si>
+    <t>process_response()</t>
+  </si>
+  <si>
+    <t>open_spider()</t>
+  </si>
+  <si>
+    <t>close_spider()</t>
+  </si>
+  <si>
+    <t>下列选项中，可以匹配任何属性节点的是</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>node()</t>
+  </si>
+  <si>
+    <t>@*</t>
+  </si>
+  <si>
+    <t>node</t>
+  </si>
+  <si>
+    <t>下列方法中，使用XPath表达式来定位元素的是</t>
+  </si>
+  <si>
+    <t>find_element_by_id</t>
+  </si>
+  <si>
+    <t>find_elements_by_xpath</t>
+  </si>
+  <si>
+    <t>find_elements_by_name</t>
+  </si>
+  <si>
+    <t>find_elements_by_tag_name</t>
+  </si>
+  <si>
+    <t>下列符号中，用于注释robots.txt文件的记录的是</t>
+  </si>
+  <si>
+    <t>下列选项中，通过给定的图像文件创建Image对象的是</t>
+  </si>
+  <si>
+    <t>new()</t>
+  </si>
+  <si>
+    <t>save()</t>
+  </si>
+  <si>
+    <t>point()</t>
+  </si>
+  <si>
+    <t>属于网络爬虫应用场景的是</t>
+  </si>
+  <si>
+    <t>搜索引擎</t>
+  </si>
+  <si>
+    <t>舆情分析和监测</t>
+  </si>
+  <si>
+    <t>聚合平台</t>
+  </si>
+  <si>
+    <t>出行类软件</t>
+  </si>
+  <si>
+    <t>爬虫抓取数据</t>
+  </si>
+  <si>
+    <t>下列端口号中，用来表示的HTTP程序的是</t>
+  </si>
+  <si>
+    <t>如果设置（）参数的值小于或等于0，则表示队列的大小没有限制</t>
+  </si>
+  <si>
+    <t>maxsize</t>
+  </si>
+  <si>
+    <t>timeout</t>
+  </si>
+  <si>
+    <t>block</t>
+  </si>
+  <si>
+    <t>size</t>
+  </si>
+  <si>
+    <t>下列选项中，可以将页面内容加载到PhantomJS对象中的是</t>
+  </si>
+  <si>
+    <t>get()</t>
+  </si>
+  <si>
+    <t>find()</t>
+  </si>
+  <si>
+    <t>save_screenshot()</t>
+  </si>
+  <si>
+    <t>send_keys()</t>
+  </si>
+  <si>
+    <t>为了避免open函数载入图像文件时出现延迟，可以调用（）函数进行强制加载</t>
+  </si>
+  <si>
+    <t>load()</t>
+  </si>
+  <si>
+    <t>下列协议类型中，用于表示访问远程网络资源的超文本传输协议的是</t>
+  </si>
+  <si>
+    <t>file</t>
+  </si>
+  <si>
+    <t>http</t>
+  </si>
+  <si>
+    <t>mailto</t>
+  </si>
+  <si>
+    <t>ftp</t>
+  </si>
+  <si>
+    <t>下列选项中，用作发送HTTP请求的模块是</t>
+  </si>
+  <si>
+    <t>urllib.request</t>
+  </si>
+  <si>
+    <t>urllib.error</t>
+  </si>
+  <si>
+    <t>urllib.parse</t>
+  </si>
+  <si>
+    <t>urllib.robotparser</t>
+  </si>
+  <si>
+    <t>在使用爬虫类工具批量采集网页数据时，其流程为</t>
+  </si>
+  <si>
+    <t>寻找目标页面的网址规律</t>
+  </si>
+  <si>
+    <t>编写采集规则</t>
+  </si>
+  <si>
+    <t>实施采集</t>
+  </si>
+  <si>
+    <t>查看目标网站开发语言</t>
+  </si>
+  <si>
+    <t>xpath语法与lxml模块安装</t>
+  </si>
+  <si>
+    <t>下列方法中，可以往集合中插入多条文档对象的是</t>
+  </si>
+  <si>
+    <t>insert()</t>
+  </si>
+  <si>
+    <t>insert_one()</t>
+  </si>
+  <si>
+    <t>insert_many()</t>
+  </si>
+  <si>
+    <t>find_many()</t>
+  </si>
+  <si>
+    <t>Scrapy项目中，哪个文件可以定制各个组件的行为？</t>
+  </si>
+  <si>
+    <t>middlewares.py</t>
+  </si>
+  <si>
+    <t>items.py</t>
+  </si>
+  <si>
+    <t>pipelines.py</t>
+  </si>
+  <si>
+    <t>settings.py</t>
+  </si>
+  <si>
+    <t>下列选项中，能够与JSONPath语法配合使用解析JSON文档的是</t>
+  </si>
+  <si>
+    <t>lxml</t>
+  </si>
+  <si>
+    <t>re</t>
+  </si>
+  <si>
+    <t>json</t>
+  </si>
+  <si>
+    <t>beautifulsoup4</t>
+  </si>
+  <si>
+    <t>下列符号中，用来表示JSONPath语法中的根节点的是</t>
+  </si>
+  <si>
+    <t>阅读下面的程序：
+from bs4 import BeautifulSoup
+html_doc = """
+&lt;html&gt;
+&lt;body&gt;
+&lt;a&gt;这是段落。&lt;/a&gt;
+&lt;b&gt;这是段落。&lt;/b&gt;
+&lt;p&gt;这是段落。&lt;/p&gt;
+&lt;p&gt;段落元素由 p 标签定义。&lt;/p&gt;
+&lt;/body&gt;
+&lt;/html&gt;
+"""
+soup = BeautifulSoup(html_doc, 'lxml')
+result = soup.find_all(["a", "b"])
+print(result)
+运行上述程序，最终输出的结果为（）。</t>
+  </si>
+  <si>
+    <t>[&lt;a&gt;这是段落&lt;/a&gt;]</t>
+  </si>
+  <si>
+    <t>[&lt;b&gt;这是段落&lt;/b&gt;]</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>[&lt;a&gt;这是段落&lt;/a&gt;, &lt;b&gt;这是段落&lt;/b&gt;]</t>
+  </si>
+  <si>
+    <t>ITEM_PIPELINES设置项的值是一个保存项目中启用的Item Pipeline及其顺序的</t>
+  </si>
+  <si>
+    <t>下列方法中，用于获取页面中的所有的Cookie值的是</t>
+  </si>
+  <si>
+    <t>get_cookies()</t>
+  </si>
+  <si>
+    <t>get_cookie()</t>
+  </si>
+  <si>
+    <t>delete_cookie()</t>
+  </si>
+  <si>
+    <t>以下关于XPath的叙述中错误的是</t>
+  </si>
+  <si>
+    <t>XPath表达式是指符合W3C XPath 2.0建议的字符串表达式</t>
+  </si>
+  <si>
+    <t>XPath表达式用于在匹配XML文档结构树时能够准确地找到节点元素</t>
+  </si>
+  <si>
+    <t>.可以将XPath比作文件管理路径</t>
+  </si>
+  <si>
+    <t>可以将XPath比作存储文件的路径</t>
+  </si>
+  <si>
+    <t>爬虫数据清洗</t>
+  </si>
+  <si>
+    <t>下列工具中，主要应用于爬虫和数据清晰等领域的是</t>
+  </si>
+  <si>
+    <t>Pentaho Kettle</t>
+  </si>
+  <si>
+    <t>Informatica PowerCenter</t>
+  </si>
+  <si>
+    <t>DataStage</t>
+  </si>
+  <si>
+    <t>Hawk</t>
+  </si>
+  <si>
+    <t>下列控件中，作业执行开始的控件是</t>
+  </si>
+  <si>
+    <t>Start</t>
+  </si>
+  <si>
+    <t>Dummy</t>
+  </si>
+  <si>
+    <t>成功</t>
+  </si>
+  <si>
+    <t>转换</t>
+  </si>
+  <si>
+    <t>下列说法中，关于全量加载说法正确的是</t>
+  </si>
+  <si>
+    <t>全量加载是指将目标数据表中的数据全部删除后，进行数据加载的操作</t>
+  </si>
+  <si>
+    <t>全量加载是指目标表只加载源数据表中变化的数据</t>
+  </si>
+  <si>
+    <t>全量加载比增量加载的操作要复杂很多</t>
+  </si>
+  <si>
+    <t>以上说法均错误</t>
+  </si>
+  <si>
+    <t>下列选项中，不属于数据增量抽取的方式有</t>
+  </si>
+  <si>
+    <t>触发器方式</t>
+  </si>
+  <si>
+    <t>时间戳方式</t>
+  </si>
+  <si>
+    <t>全表比对方式</t>
+  </si>
+  <si>
+    <t>全量方式</t>
+  </si>
+  <si>
+    <t>下列选项中，关于数据质量的评价指标中完整性的说法正确的是</t>
+  </si>
+  <si>
+    <t>数据缺失的情况是整条数据记录缺失</t>
+  </si>
+  <si>
+    <t>数据缺失可能是数据中某个字段信息的记录缺失</t>
+  </si>
+  <si>
+    <t>数据完整性是评价数据质量的核心</t>
+  </si>
+  <si>
+    <t>数据质量的完整性是很难去评估的</t>
+  </si>
+  <si>
+    <t>关于数据清洗，以下说法错误的是</t>
+  </si>
+  <si>
+    <t>在数据清洗之前，可以不需要明确数据存在哪些问题，再针对各问题逐一击破就直接进行</t>
+  </si>
+  <si>
+    <t>数据清洗包括对重复值、缺失值以及其他异常情况的处理</t>
+  </si>
+  <si>
+    <t>drop_duplicates()函数可以删除DataFrame的重复行</t>
+  </si>
+  <si>
+    <t>astype()函数可以将pandas对象转换为指定的数据类型，但字符串类型不能转换为浮点型</t>
+  </si>
+  <si>
+    <t>并发爬虫综合（上）</t>
+  </si>
+  <si>
+    <t>对名为fido的文件用chmod 551 fido 进行了修改，则它的许可权是</t>
+  </si>
+  <si>
+    <t>-rwxrwxr-x</t>
+  </si>
+  <si>
+    <t>-rrxrrx–r</t>
+  </si>
+  <si>
+    <t>-r–r--w–</t>
+  </si>
+  <si>
+    <t>-r-xr-x–x</t>
+  </si>
+  <si>
+    <t>ubuntu 环境下，在线安装软件包的命令是</t>
+  </si>
+  <si>
+    <t>pip install</t>
+  </si>
+  <si>
+    <t>yum install</t>
+  </si>
+  <si>
+    <t>apt-get install</t>
+  </si>
+  <si>
+    <t>wget</t>
+  </si>
+  <si>
+    <t>快速排序的时间复杂度是</t>
+  </si>
+  <si>
+    <t>0(n)</t>
+  </si>
+  <si>
+    <t>0(nlogn)</t>
+  </si>
+  <si>
+    <t>0(n3)</t>
+  </si>
+  <si>
+    <t>0(n2)</t>
+  </si>
+  <si>
+    <t>在 SQL 中，可以用 Exists 来测试一个集合中是否</t>
+  </si>
+  <si>
+    <t>有相同元组存在</t>
+  </si>
+  <si>
+    <t>为空集合</t>
+  </si>
+  <si>
+    <t>有相同分量存在</t>
+  </si>
+  <si>
+    <t>为非空集合</t>
+  </si>
+  <si>
+    <t>下列方法中，负责生成Requests对象并交给Scrapy进行下载的是</t>
+  </si>
+  <si>
+    <t>parse()</t>
+  </si>
+  <si>
+    <t>log()</t>
+  </si>
+  <si>
+    <t>startD_requests()</t>
+  </si>
+  <si>
+    <t>下列函数中，用于构建一个HTTP请求的是</t>
+  </si>
+  <si>
+    <t>request()</t>
+  </si>
+  <si>
+    <t>head()</t>
+  </si>
+  <si>
+    <t>post()</t>
+  </si>
+  <si>
+    <t>关于爬虫的说法，错误的是</t>
+  </si>
+  <si>
+    <t>BD</t>
+  </si>
+  <si>
+    <t>爬虫遵循一定的规则</t>
+  </si>
+  <si>
+    <t>爬虫需要手动地抓取万维网信息的程序或者脚本</t>
+  </si>
+  <si>
+    <t>爬虫是由计算机自动与服务器交互获取数据的工具</t>
+  </si>
+  <si>
+    <t>爬虫的类型比较单一</t>
+  </si>
+  <si>
+    <t>并发爬虫综合（下）</t>
+  </si>
+  <si>
+    <t>下列选项中，主要负责解析JSON文档的技术是</t>
+  </si>
+  <si>
+    <t>正则表达式</t>
+  </si>
+  <si>
+    <t>XPath</t>
+  </si>
+  <si>
+    <t>Beautiful Soup</t>
+  </si>
+  <si>
+    <t>JSONPath</t>
+  </si>
+  <si>
+    <t>下列状态码中，表示服务器拒绝访问的是</t>
+  </si>
+  <si>
+    <t>下列组件中，用于将请求按照一定的方式整理入队的是</t>
+  </si>
+  <si>
+    <t>Scrapy Engine</t>
+  </si>
+  <si>
+    <t>Scheduler</t>
+  </si>
+  <si>
+    <t>Downloader</t>
+  </si>
+  <si>
+    <t>Spiders</t>
+  </si>
+  <si>
+    <t>下列一些类中，用来表示XML中节点的是</t>
+  </si>
+  <si>
+    <t>Node</t>
+  </si>
+  <si>
+    <t>ElementPath</t>
+  </si>
+  <si>
+    <t>Element</t>
+  </si>
+  <si>
+    <t>ElementTree</t>
+  </si>
+  <si>
+    <t>阅读下面的程序：
+from queue import Queue
+queue_object = Queue(2)
+print(queue_object.empty())
+运行程序，其最终输出的结果为</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+2</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>False</t>
+  </si>
+  <si>
+    <t>请阅读下面一段HTML结构：
+&lt;div id="u1"&gt;
+&lt;a href="http://news.baidu.com" name="tj_trnews" class="mnav"&gt;新闻&lt;/a&gt;
+&lt;a href="http://www.hao123.com" name="tj_trhao123" class="mnav"&gt;hao123&lt;/a&gt;
+&lt;a href="http://map.baidu.com" name="tj_trmap" class="mnav"&gt;地图&lt;/a&gt;
+&lt;a href="http://v.baidu.com" name="tj_trvideo" class="mnav"&gt;视频&lt;/a&gt;
+&lt;/div&gt;
+在上述示例中，所有的&lt;a&gt;标签属于（）关系。</t>
+  </si>
+  <si>
+    <t>父子</t>
+  </si>
+  <si>
+    <t>同胞</t>
+  </si>
+  <si>
+    <t>先辈</t>
+  </si>
+  <si>
+    <t>后代</t>
+  </si>
+  <si>
+    <t>以下是爬虫常见的错误的是</t>
+  </si>
+  <si>
+    <t>403 Forbidden</t>
+  </si>
+  <si>
+    <t>网络超时</t>
+  </si>
+  <si>
+    <t>代理服务</t>
+  </si>
+  <si>
+    <t>网络延时</t>
+  </si>
+  <si>
+    <t>爬虫requests库使用</t>
+  </si>
+  <si>
+    <t>Requests库甲携带 Cookie 友送请求的参数是 cookies,它接收的数据类型</t>
+  </si>
+  <si>
+    <t>CookieJar</t>
+  </si>
+  <si>
+    <t>list</t>
+  </si>
+  <si>
+    <t>关于requests和urllib的描述中，正确的是</t>
+  </si>
+  <si>
+    <t>requests库是Python内置的HTTP请求库</t>
+  </si>
+  <si>
+    <t>urllib是基于Python开发的第三方请求库</t>
+  </si>
+  <si>
+    <t>requests在urllib的基础上进行了高度的封装</t>
+  </si>
+  <si>
+    <t>requests不支持继承urllib的所有特性</t>
+  </si>
+  <si>
+    <t>关于requests的描述，以下选项中正确的是</t>
+  </si>
+  <si>
+    <t>requests是数据可视化方向的Python第三方库</t>
+  </si>
+  <si>
+    <t>requests库是处理HTTP请求的第三方库</t>
+  </si>
+  <si>
+    <t>requests是支持多种语言的自然语言处理Python第三方库</t>
+  </si>
+  <si>
+    <t>requests是一个支持符号计算的Python第三方库</t>
+  </si>
+  <si>
+    <t>下列有关Python第三方库requests的叙述中，错误的是</t>
+  </si>
+  <si>
+    <t>requests库提供了向网页发送请求的方法</t>
+  </si>
+  <si>
+    <t>requests库中的head()方法可以从指定链接获取HTML网页的头部信息</t>
+  </si>
+  <si>
+    <t>利用requests库的方法向指定链接发送请求时，若请求超时，将产生异常</t>
+  </si>
+  <si>
+    <t>response对象的属性text用来表示HTTP请求返回响应内容的编码方式</t>
+  </si>
+  <si>
+    <t>以下不是Python深度学习方向的第三方库是</t>
+  </si>
+  <si>
+    <t>PyTorch</t>
+  </si>
+  <si>
+    <t>requests</t>
+  </si>
+  <si>
+    <t>MXNet</t>
+  </si>
+  <si>
+    <t>Keras</t>
+  </si>
+  <si>
+    <t>Python网络爬虫主要通过()库实现HTTP请求</t>
+  </si>
+  <si>
+    <t>urllib</t>
+  </si>
+  <si>
+    <t>urllib3</t>
+  </si>
+  <si>
+    <t>asp</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> requests</t>
+  </si>
+  <si>
+    <t>numpy安装及创建数组</t>
+  </si>
+  <si>
+    <t>有数组 n = np.arange(24).reshape(2,-1,2,2)，n.shape的返回结果是什么？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(2,3,2,2)                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(2,2,2,2) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(2,4,2,2) </t>
+  </si>
+  <si>
+    <t>(2,6,2,2)</t>
+  </si>
+  <si>
+    <t>Numpy中创建全为0的矩阵使用</t>
+  </si>
+  <si>
+    <t>zeros</t>
+  </si>
+  <si>
+    <t>ones</t>
+  </si>
+  <si>
+    <t>empty</t>
+  </si>
+  <si>
+    <t>arange</t>
+  </si>
+  <si>
+    <t>已知c= np.arange(24).reshape(3,4,2) 那么c.sum(axis  = 0)所得的结果为</t>
+  </si>
+  <si>
+    <t>array([[12, 16],[44, 48],[76, 80]])              (列0，行1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">array([[ 1,  5,  9, 13],[17, 21, 25, 29],[33, 37, 41, 45]]) </t>
+  </si>
+  <si>
+    <t>array([[24, 27], [30, 33],[36, 39],[42, 45]])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">array([[ 1,  5,  9, 13],[17, 21, 15, 29],[33, 37, 46, 45]]) </t>
+  </si>
+  <si>
+    <t>在线安装扩展库numpy,可执行命令</t>
+  </si>
+  <si>
+    <t>install numpy</t>
+  </si>
+  <si>
+    <t>pip numpy</t>
+  </si>
+  <si>
+    <t>pip install numpy</t>
+  </si>
+  <si>
+    <t>instal pip numpy</t>
+  </si>
+  <si>
+    <t>以下那个不是numpy安装</t>
+  </si>
+  <si>
+    <t>windows下安装</t>
+  </si>
+  <si>
+    <t>ubuntu下安装</t>
+  </si>
+  <si>
+    <t>centos下安装</t>
+  </si>
+  <si>
+    <t>IOS下安装</t>
+  </si>
+  <si>
+    <t>下列关于Python中numpy模块的说法错误的是</t>
+  </si>
+  <si>
+    <t>CD</t>
+  </si>
+  <si>
+    <t>numpy是一个科学计算包</t>
+  </si>
+  <si>
+    <t>numpy中包含了很多数学函数,如三角函数、矩阵计算方法等</t>
+  </si>
+  <si>
+    <t>numpy模块中的arrange函数可以创建一个数组</t>
+  </si>
+  <si>
+    <t>numpy模块可以画函数图像</t>
+  </si>
+  <si>
+    <t>numpy常用方法使用（上）</t>
+  </si>
+  <si>
+    <t>计算numpy中元素个数的方法</t>
+  </si>
+  <si>
+    <t>np.sqrt()</t>
+  </si>
+  <si>
+    <t>np.size()</t>
+  </si>
+  <si>
+    <t>np.identity()</t>
+  </si>
+  <si>
+    <t>以上都不是</t>
+  </si>
+  <si>
+    <t>numpy中向量转成矩阵使用</t>
+  </si>
+  <si>
+    <t>reshape</t>
+  </si>
+  <si>
+    <t>reval</t>
+  </si>
+  <si>
+    <t>random</t>
+  </si>
+  <si>
+    <t>numpy中矩阵转成向量使用</t>
+  </si>
+  <si>
+    <t>Areshape</t>
+  </si>
+  <si>
+    <t>resize</t>
+  </si>
+  <si>
+    <t>df.tail()这个函数是用来</t>
+  </si>
+  <si>
+    <t>用来创建数据</t>
+  </si>
+  <si>
+    <t>用来展现数据</t>
+  </si>
+  <si>
+    <t>用来分析数据</t>
+  </si>
+  <si>
+    <t>用来获取收据</t>
+  </si>
+  <si>
+    <t>df.min()这个函数是用来</t>
+  </si>
+  <si>
+    <t>找寻元素最小值</t>
+  </si>
+  <si>
+    <t>找寻每行最小值</t>
+  </si>
+  <si>
+    <t>找寻每列最小值</t>
+  </si>
+  <si>
+    <t>寻找每列最大值</t>
+  </si>
+  <si>
+    <t>以下属于numpy方法的是</t>
+  </si>
+  <si>
+    <t>sort</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>numpy常用方法使用（下）</t>
+  </si>
+  <si>
+    <t>最简单的Series是由（）的数据构成</t>
+  </si>
+  <si>
+    <t>一个数组</t>
+  </si>
+  <si>
+    <t>两个数组</t>
+  </si>
+  <si>
+    <t>三个数组</t>
+  </si>
+  <si>
+    <t>任意个数组</t>
+  </si>
+  <si>
+    <t>我们在使用pandas时需要导入什么东西</t>
+  </si>
+  <si>
+    <t>import pandas as pd</t>
+  </si>
+  <si>
+    <t>import sys</t>
+  </si>
+  <si>
+    <t>import matplotlib</t>
+  </si>
+  <si>
+    <t>import system</t>
+  </si>
+  <si>
+    <t>执行import numpy as np后，则下列语句可以创建3*3单位矩阵的命令是</t>
+  </si>
+  <si>
+    <t>A、 A=np.zeros(3)</t>
+  </si>
+  <si>
+    <t>A=np.ones(3)</t>
+  </si>
+  <si>
+    <t>A=np.eye(3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D、 A=np.full(3,3) </t>
+  </si>
+  <si>
+    <t>假设有命令import numpy as np
+Array1 = np.linspace(1,5,3,dtype=int)
+print(Array1)则,执行结果是</t>
+  </si>
+  <si>
+    <t>[1 3 5]</t>
+  </si>
+  <si>
+    <t>[1 2 5]</t>
+  </si>
+  <si>
+    <t>[1. 3. 5.]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1. 2. 5.] </t>
+  </si>
+  <si>
+    <t>能将扩展名为.dat的二进制文件内容读取到数组中的函数是</t>
+  </si>
+  <si>
+    <t>numpy.fromfile()</t>
+  </si>
+  <si>
+    <t>numpy.ndarray.tofile()</t>
+  </si>
+  <si>
+    <t>numpy.savetxt()</t>
+  </si>
+  <si>
+    <t>numpy.loadtxt()</t>
+  </si>
+  <si>
+    <t>假设有命令如下,import numpy as np
+Array1=np.arange(12)则,可将一维数组Array1的形状改变为(3,4)的语句是</t>
+  </si>
+  <si>
+    <t>Array1=Array1.reshape(3,4)</t>
+  </si>
+  <si>
+    <t>BArray1=Array1.resize(3,4)</t>
+  </si>
+  <si>
+    <t>Array1=Array1.transpose(3,4)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Array1=Array1.flatten(3,4) </t>
+  </si>
+  <si>
+    <t>下列关于NumPy的说法中，错误的是</t>
+  </si>
+  <si>
+    <t>NumPy拥有线性代数和随机数生成的内置函数</t>
+  </si>
+  <si>
+    <t>NumPy可以处理傅立叶变换和用于图形操作的例程</t>
+  </si>
+  <si>
+    <t>NumPy系统主要用于统计计算，提供了许多高级的统计编程工具</t>
+  </si>
+  <si>
+    <t>NumPy能进行数组（限一维数组）的算术和逻辑运算</t>
+  </si>
+  <si>
+    <t>pandas中的序列</t>
+  </si>
+  <si>
+    <t>pandas库中的merge函数的how参数,根据数据对象之间连接主键的交集进行合并的是</t>
+  </si>
+  <si>
+    <t>inner</t>
+  </si>
+  <si>
+    <t>outer</t>
+  </si>
+  <si>
+    <t>left</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>pandas读取excel文件中的数据，获取的数据类型为</t>
+  </si>
+  <si>
+    <t>数组</t>
+  </si>
+  <si>
+    <t>dataframe</t>
+  </si>
+  <si>
+    <t>下列关于pandas数据排序说法正确的是</t>
+  </si>
+  <si>
+    <t>sort() values()可以列排序</t>
+  </si>
+  <si>
+    <t>sort() index()可以按值排序</t>
+  </si>
+  <si>
+    <t>sort() index()可以按索引排序</t>
+  </si>
+  <si>
+    <t>sort() values()可以按索引排序</t>
+  </si>
+  <si>
+    <t>pandas的数据结构有</t>
+  </si>
+  <si>
+    <t>二维数据表：Series序列</t>
+  </si>
+  <si>
+    <t>二维数据表：DataFrame数据帧</t>
+  </si>
+  <si>
+    <t>二维数据表：Panel面板</t>
+  </si>
+  <si>
+    <t>N维数据表</t>
+  </si>
+  <si>
+    <t>pandas库中可以实现纵向堆叠的是</t>
+  </si>
+  <si>
+    <t>concat</t>
+  </si>
+  <si>
+    <t>append</t>
+  </si>
+  <si>
+    <t>merge</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>下列关于pandas数据读/写说法错误的是</t>
+  </si>
+  <si>
+    <t>read_csv能够读取所有文本文档的数据</t>
+  </si>
+  <si>
+    <t>read_sql能够读取文档里的数据</t>
+  </si>
+  <si>
+    <t>to_csv函数能够将结构化数据写.csv文件</t>
+  </si>
+  <si>
+    <t>to_excel函数能够将结构化数据写入Excel文件</t>
+  </si>
+  <si>
+    <t>DataFrame创建</t>
+  </si>
+  <si>
+    <t>．我们在用Python进行数据分析的时候，经常会用到pandas库中的DataFrame，这是类似于（     ）的数据结构  （     ）</t>
+  </si>
+  <si>
+    <t>一维表格</t>
+  </si>
+  <si>
+    <t>二维表格</t>
+  </si>
+  <si>
+    <t>三维表格</t>
+  </si>
+  <si>
+    <t>四维表格</t>
+  </si>
+  <si>
+    <t>下列关于DataFrame说法正确的是</t>
+  </si>
+  <si>
+    <t>DataFrame结构是由索引和数据组成</t>
+  </si>
+  <si>
+    <t>DataFrame的行索引位于最右侧</t>
+  </si>
+  <si>
+    <t>创建一个DataFrame对象时需要指定索引</t>
+  </si>
+  <si>
+    <t>DataFrame每列的数据类型必须是相同的</t>
+  </si>
+  <si>
+    <t>下⾯哪个不是 RDD 的特点</t>
+  </si>
+  <si>
+    <t>可分区</t>
+  </si>
+  <si>
+    <t>可序列化</t>
+  </si>
+  <si>
+    <t>可修改</t>
+  </si>
+  <si>
+    <t>可持久化</t>
+  </si>
+  <si>
+    <t>DataFrame 和 RDD 最⼤的区别</t>
+  </si>
+  <si>
+    <t>科学统计⽀持</t>
+  </si>
+  <si>
+    <t>多了 schema</t>
+  </si>
+  <si>
+    <t>存储⽅式不⼀样</t>
+  </si>
+  <si>
+    <t>外部数据源⽀持</t>
+  </si>
+  <si>
+    <t>关于DataFrame的说法错误的是</t>
+  </si>
+  <si>
+    <t>DataFrame是由SchemaRDD发展而来</t>
+  </si>
+  <si>
+    <t>DataFrame直接继承了RDD</t>
+  </si>
+  <si>
+    <t>DataFrame实现了RDD的绝大多数功能</t>
+  </si>
+  <si>
+    <t>DataFrame是一个分布式Row对象的数据集合</t>
+  </si>
+  <si>
+    <t>下面关于DataFrame的描述正确的是</t>
+  </si>
+  <si>
+    <t>DataFrame的推出，让Spark具备了处理大规模结构化数据的能力</t>
+  </si>
+  <si>
+    <t>DataFrame比原有的RDD转化方式更加简单易用，而且获得了更高的计算性能</t>
+  </si>
+  <si>
+    <t>Spark能够轻松实现从MySQL到DataFrame的转化，并且支持SQL查询</t>
+  </si>
+  <si>
+    <t>DataFrame是一种以RDD为基础的分布式数据集，提供了详细的结构信息</t>
+  </si>
+  <si>
+    <t>DataFrame常用方法</t>
+  </si>
+  <si>
+    <t>给定df是一个DataFrame对象，对df所有字段进行描述性统计，可以利用的方法为</t>
+  </si>
+  <si>
+    <t>df.summary()</t>
+  </si>
+  <si>
+    <t>df.statistics()</t>
+  </si>
+  <si>
+    <t>df.mean()</t>
+  </si>
+  <si>
+    <t>df.describe()</t>
+  </si>
+  <si>
+    <t>SparkDataFrame中()方法可以返回一个List</t>
+  </si>
+  <si>
+    <t>takeAsList</t>
+  </si>
+  <si>
+    <t>take</t>
+  </si>
+  <si>
+    <t>AsList</t>
+  </si>
+  <si>
+    <t>collect</t>
+  </si>
+  <si>
+    <t>想要对DataFrame按值进行排序,可以使用方法是</t>
+  </si>
+  <si>
+    <t>sort_index</t>
+  </si>
+  <si>
+    <t>sort_values</t>
+  </si>
+  <si>
+    <t>order</t>
+  </si>
+  <si>
+    <t>下列方法中，能够利用pandas.DataFrame()创建DataFrame的是</t>
+  </si>
+  <si>
+    <t>通过ndarray对象创建</t>
+  </si>
+  <si>
+    <t>通过ndarray字典创建</t>
+  </si>
+  <si>
+    <t>通过Series创建</t>
+  </si>
+  <si>
+    <t>通过随机函数创建</t>
+  </si>
+  <si>
+    <t>DataFrame的groupBy方法返回的结果是什么类型</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DataFrame  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Column </t>
+  </si>
+  <si>
+    <t>RDD</t>
+  </si>
+  <si>
+    <t>GroupedData</t>
+  </si>
+  <si>
+    <t>对于一个Series或DataFrame对象来说,错误的是</t>
+  </si>
+  <si>
+    <t>isnull()方法可以用来判断缺失值</t>
+  </si>
+  <si>
+    <t>drop()方法可以用来删除缺失行</t>
+  </si>
+  <si>
+    <t>fillna()方法可以用来填充缺失行</t>
+  </si>
+  <si>
+    <t>fillna()方法可以通过method参数指定缺失值用其上或其下的第一个非缺失值填充</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>‏</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>从</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>RDD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>转换得到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>DataFrame</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>包含两种典型方法，分别是</t>
+    </r>
+  </si>
+  <si>
+    <t>利用反射机制推断RDD模式</t>
+  </si>
+  <si>
+    <t>使用编程方式定义RDD模式</t>
+  </si>
+  <si>
+    <t>利用投影机制推断RDD模式</t>
+  </si>
+  <si>
+    <t>利用互联机制推断RDD模式</t>
+  </si>
+  <si>
+    <t>DataFrame练习（上）</t>
+  </si>
+  <si>
+    <t>下列DataFrame常用函数语句及其对应解释错误的是</t>
+  </si>
+  <si>
+    <t>drop()</t>
+  </si>
+  <si>
+    <t>read_excel()</t>
+  </si>
+  <si>
+    <t>append()</t>
+  </si>
+  <si>
+    <t>sort_values()</t>
+  </si>
+  <si>
+    <t>SparkSQL可以通过()方法加载json文件为DataFrame</t>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
+  <si>
+    <t>set</t>
+  </si>
+  <si>
+    <t>一个含有NaN数据的数据帧DataFrame:df=pd.DataFrame('value1':，'value2':['a'，'b'，'c'，'d'，'e'，np.nan，np.nan，'f'，'g'，np.nan，'g'])（）给df填充后面的值</t>
+  </si>
+  <si>
+    <t>df=df.fillna(method=’ffill’，inplace=False)</t>
+  </si>
+  <si>
+    <t>df=fillna(method=’ffill’，inplace=True)</t>
+  </si>
+  <si>
+    <t>df=df.fillna(axis=1，how=’bfill’)</t>
+  </si>
+  <si>
+    <t>df=df.fillna(method=’bfill’，inplace=False)</t>
+  </si>
+  <si>
+    <t>对数据帧data1按照标签‘Symbol‘进行分组，得到分组对象命名为grp’AAPL’标签对应的数据帧(DataFrame)，代码是</t>
+  </si>
+  <si>
+    <t>grp1.groups(‘AAPL’)</t>
+  </si>
+  <si>
+    <t>grp1.ngroups('AAPL')</t>
+  </si>
+  <si>
+    <t>grp1.get()group('AAPL')</t>
+  </si>
+  <si>
+    <t>grp1.groupby('AAPL')</t>
+  </si>
+  <si>
+    <t>若要输出数据帧DataFrame的值需要的语句是</t>
+  </si>
+  <si>
+    <t>df.values</t>
+  </si>
+  <si>
+    <t>df.index</t>
+  </si>
+  <si>
+    <t>df.columns</t>
+  </si>
+  <si>
+    <t>df.key</t>
+  </si>
+  <si>
+    <t>要读取people.json文件生成DataFrame，可以使用下面哪些命令</t>
+  </si>
+  <si>
+    <t>spark.read.json("people.json")</t>
+  </si>
+  <si>
+    <t>spark.read.parquet("people.json")</t>
+  </si>
+  <si>
+    <t>spark.read.format("json").load("people.json")</t>
+  </si>
+  <si>
+    <t>spark.read.format("csv").load("people.json")</t>
+  </si>
+  <si>
+    <t>DataFrame练习（下）</t>
+  </si>
+  <si>
+    <t>关于以下python代码说法错误的一项是?
+import pandas as pd
+df = pd.DataFrame({'A':['a1','a2'],
+'B':['b1','b2']},
+index=['i1','i2'])
+print("【显示】df\n",df)
+print("【遍历】df.itertuples()")
+for each in df.itertuples():
+print(each,each.Index,each.A,each.B)</t>
+  </si>
+  <si>
+    <t>itertuples()方法默认遍历数据表的每一行</t>
+  </si>
+  <si>
+    <t>itertuples()方法可以不显示索引</t>
+  </si>
+  <si>
+    <t>itertuples()方法输出内容必须包含索引</t>
+  </si>
+  <si>
+    <t>itertuples()方法返回的命名元组名称可以指定</t>
+  </si>
+  <si>
+    <t>关于以下代码说法错误的是?
+import pandas as pd
+list1 = [[1,2],[3,4]]
+df1 = pd.DataFrame(list1)
+print((df1))
+print("=============")
+df2 = pd.DataFrame({'A':[1,2],'B':[3,4]})
+list2 = df2.values.tolist()
+print(list2)</t>
+  </si>
+  <si>
+    <t>df1数据类型为DataFrame</t>
+  </si>
+  <si>
+    <t>list2数据类型为list</t>
+  </si>
+  <si>
+    <t>df1有2行2列数据</t>
+  </si>
+  <si>
+    <t>list2为一维列表</t>
+  </si>
+  <si>
+    <t>关于以下代码，说法错误的是? 
+import pandas as pd
+person = {"name": ['Tom', 'Jerry'],"age": [50,14]}
+df=pd.DataFrame(person,index=[2,5])
+print(df)
+print("======")
+print(df.reset_index(drop=True))</t>
+  </si>
+  <si>
+    <t>reset_index：将索引重置为从0到N的顺序索引值</t>
+  </si>
+  <si>
+    <t>reset_index函数重置后索引为0,1</t>
+  </si>
+  <si>
+    <t>reset_index函重置后索引为2,5</t>
+  </si>
+  <si>
+    <t>drop=True表示删除原索引值</t>
+  </si>
+  <si>
+    <t>以下关于DataFrame.duplicated()函数说法错误的是</t>
+  </si>
+  <si>
+    <t>该函数用于标记dataframe中内容重复的行</t>
+  </si>
+  <si>
+    <t>该函数返回值是一个序列，True表示重复</t>
+  </si>
+  <si>
+    <t>行内容被判定重复时，该行各列的值一定都重复</t>
+  </si>
+  <si>
+    <t>keep参数默认取值为"first"</t>
+  </si>
+  <si>
+    <t>关于DataFrame.drop()方法，以下哪一项说法错误</t>
+  </si>
+  <si>
+    <t>axis默认为0，指删除行</t>
+  </si>
+  <si>
+    <t>axis默认为0，指删除列</t>
+  </si>
+  <si>
+    <t>inplace=False，返回一个执行删除操作后的新数据框</t>
+  </si>
+  <si>
+    <t>inplace=True，则会直接在原数据上进行删除操作</t>
+  </si>
+  <si>
+    <t>使用编程方式定义RDD模式时，主要包括哪三个步骤</t>
+  </si>
+  <si>
+    <t>制作“表头”</t>
+  </si>
+  <si>
+    <t>制作“表中的记录”</t>
+  </si>
+  <si>
+    <t>制作映射表</t>
+  </si>
+  <si>
+    <t>把“表头”和“表中的记录”拼装在一起</t>
+  </si>
+  <si>
+    <t>数据分析</t>
+  </si>
+  <si>
+    <t>以下方法不是数据分析方法</t>
+  </si>
+  <si>
+    <t>相关分析法</t>
+  </si>
+  <si>
+    <t>聚类分析法</t>
+  </si>
+  <si>
+    <t>回归分析法</t>
+  </si>
+  <si>
+    <t>程序设计</t>
+  </si>
+  <si>
+    <t>对比分析法也称比较分析法，是把()加以比较，以达到认识事物的本质和规律并做出正确评价</t>
+  </si>
+  <si>
+    <t>客观事物</t>
+  </si>
+  <si>
+    <t>主观事物</t>
+  </si>
+  <si>
+    <t>主观数据</t>
+  </si>
+  <si>
+    <t>图形图片</t>
+  </si>
+  <si>
+    <t>()是世界上最早的统计分析软件</t>
+  </si>
+  <si>
+    <t>SPSS</t>
+  </si>
+  <si>
+    <t>R语言</t>
+  </si>
+  <si>
+    <t>Eviews</t>
+  </si>
+  <si>
+    <t>以下()不是描述数据集中趋势的统计量</t>
+  </si>
+  <si>
+    <t>均值</t>
+  </si>
+  <si>
+    <t>中位数</t>
+  </si>
+  <si>
+    <t>众数</t>
+  </si>
+  <si>
+    <t>标准差</t>
+  </si>
+  <si>
+    <t>以下()不是描述离散趋势的统计量</t>
+  </si>
+  <si>
+    <t>值域</t>
+  </si>
+  <si>
+    <t>分位数</t>
+  </si>
+  <si>
+    <t>变异系数</t>
+  </si>
+  <si>
+    <t>下列关于Python数据分析库的描述错误的是</t>
+  </si>
+  <si>
+    <t>NumPy的在线安装不需要其他任何辅助工具</t>
+  </si>
+  <si>
+    <t>SciPy的主要功能是可视化图标</t>
+  </si>
+  <si>
+    <t>pandas能够实现数据的整理工作</t>
+  </si>
+  <si>
+    <t>scikit-learn包含所有算法</t>
+  </si>
+  <si>
+    <t>数据分析制图</t>
+  </si>
+  <si>
+    <t>在matplotlib子图绘制中,若执行plt.subplot(3,2,4),则当前的绘图子区域索引号是()</t>
+  </si>
+  <si>
+    <t>matpltlib中绘制图形,可以通过传递参数设置当前绘图区的标题及位置。若标题是"s",以下设置绘图区标题写法正确的是:()</t>
+  </si>
+  <si>
+    <t>plt.text(x,y, "s")</t>
+  </si>
+  <si>
+    <t>plt.title(x,y, "s")</t>
+  </si>
+  <si>
+    <t>plt.text("s",loc='center')</t>
+  </si>
+  <si>
+    <t>Dplt.title("s",loc='center')</t>
+  </si>
+  <si>
+    <t>matpltlib中绘制图形,通过更改绘图框的尺寸来设置相等的缩放比例的参数是</t>
+  </si>
+  <si>
+    <t>equal'</t>
+  </si>
+  <si>
+    <t>scaled'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'auto'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'normal'</t>
+  </si>
+  <si>
+    <t>import matplotlib.pyplot as plt 
+plt.plot([9, 7, 15, 2, 9]) 
+plt.show() 其中，show()函数的作用是什么？</t>
+  </si>
+  <si>
+    <t>显示所绘制的数据图</t>
+  </si>
+  <si>
+    <t>存储所绘制的数据图</t>
+  </si>
+  <si>
+    <t>缓存所绘制的数据图</t>
+  </si>
+  <si>
+    <t>刷新所绘制的数据图</t>
+  </si>
+  <si>
+    <t>利⽤下⾯哪个可视化绘图可以发现数据的异常点</t>
+  </si>
+  <si>
+    <t>密度图</t>
+  </si>
+  <si>
+    <t>直方图</t>
+  </si>
+  <si>
+    <t>盒图</t>
+  </si>
+  <si>
+    <t>概率图</t>
+  </si>
+  <si>
+    <t>关于散点图与气泡图，以下说法正确的是</t>
+  </si>
+  <si>
+    <t>散点图与气泡图适用于展示三维数据之间的关系</t>
+  </si>
+  <si>
+    <t>气泡图是一种变形的散点图</t>
+  </si>
+  <si>
+    <t>散点图与气泡图适用于三维数据集中只有两维数据需要展示和比较的场景</t>
+  </si>
+  <si>
+    <t>散点图将数据以点的形式展现</t>
+  </si>
+  <si>
+    <t>机器学习介绍及安装</t>
+  </si>
+  <si>
+    <t>Python机器学习方向的第三方库是</t>
+  </si>
+  <si>
+    <t>requesis</t>
+  </si>
+  <si>
+    <t>TensorFlow</t>
+  </si>
+  <si>
+    <t>scipy</t>
+  </si>
+  <si>
+    <t>pandas</t>
+  </si>
+  <si>
+    <t>Python中可用于机器学习的库文件是哪个</t>
+  </si>
+  <si>
+    <t>learn-more</t>
+  </si>
+  <si>
+    <t>scikit-learn</t>
+  </si>
+  <si>
+    <t>geking</t>
+  </si>
+  <si>
+    <t>auto</t>
+  </si>
+  <si>
+    <t>安装飞桨框架时，确定python位置的命令</t>
+  </si>
+  <si>
+    <t>wherepython</t>
+  </si>
+  <si>
+    <t>python--version</t>
+  </si>
+  <si>
+    <t>python-mensurepip</t>
+  </si>
+  <si>
+    <t>python-mpip--version</t>
+  </si>
+  <si>
+    <t>下⾯不属于⼈⼯神经⽹络的是</t>
+  </si>
+  <si>
+    <t>卷积神经网络</t>
+  </si>
+  <si>
+    <t>循环神经网络</t>
+  </si>
+  <si>
+    <t>网络深林</t>
+  </si>
+  <si>
+    <t>深度神经网络</t>
+  </si>
+  <si>
+    <t>如果学习率过⼤，以下描述正确的是</t>
+  </si>
+  <si>
+    <t>模型需要更长的训练时间才能收敛到最优值</t>
+  </si>
+  <si>
+    <t>模型需要消耗更多的计算资源</t>
+  </si>
+  <si>
+    <t>模型难以泛化</t>
+  </si>
+  <si>
+    <t>模型易于泛化</t>
+  </si>
+  <si>
+    <t>神经网络优化计算存在的问题有</t>
+  </si>
+  <si>
+    <t>解的不稳定性</t>
+  </si>
+  <si>
+    <t>参数难以确定</t>
+  </si>
+  <si>
+    <t>难以保证最优解</t>
+  </si>
+  <si>
+    <t>能量函数存在大量局部极大值</t>
+  </si>
+  <si>
+    <t>线性回归</t>
+  </si>
+  <si>
+    <t>以下不是SKlearn线性回归方法的是</t>
+  </si>
+  <si>
+    <t>岭回归</t>
+  </si>
+  <si>
+    <t>Lasso回归</t>
+  </si>
+  <si>
+    <t>弹性网络回归</t>
+  </si>
+  <si>
+    <t>狭义线性回归</t>
+  </si>
+  <si>
+    <t>以下是贝叶斯回归说法正确的是</t>
+  </si>
+  <si>
+    <t>用贝叶斯推断方法求解的线性回归模型</t>
+  </si>
+  <si>
+    <t>用于具有非零系数变量数约束的近似线性模型</t>
+  </si>
+  <si>
+    <t>用于估计多元回归稀疏系数的线性模型</t>
+  </si>
+  <si>
+    <t>在普通最小二乘法的基础上增加惩罚因子以减少共线性的影响</t>
+  </si>
+  <si>
+    <t>关于岭回归,下列说法错误的是</t>
+  </si>
+  <si>
+    <t>属于线性回归</t>
+  </si>
+  <si>
+    <t>使用L2正规项</t>
+  </si>
+  <si>
+    <t>使用L1正规项</t>
+  </si>
+  <si>
+    <t>基于最小二乘法</t>
+  </si>
+  <si>
+    <t>下列不属于Lasso对象属性的是</t>
+  </si>
+  <si>
+    <t>coef_</t>
+  </si>
+  <si>
+    <t>sparse_coef_</t>
+  </si>
+  <si>
+    <t>intercept_</t>
+  </si>
+  <si>
+    <t>n_features_</t>
+  </si>
+  <si>
+    <t>下列不属于MLPClassifier对象方法的是</t>
+  </si>
+  <si>
+    <t>predict</t>
+  </si>
+  <si>
+    <t>score</t>
+  </si>
+  <si>
+    <t>fit</t>
+  </si>
+  <si>
+    <t>predict_proba</t>
+  </si>
+  <si>
+    <t>有关线性回归的说法，不正确的是</t>
+  </si>
+  <si>
+    <t>相关关系的两个变量是因果关系</t>
+  </si>
+  <si>
+    <t>散点图能直观地反映数据的相关程度</t>
+  </si>
+  <si>
+    <t>回归直线最能代表线性相关的两个变量之间的关系</t>
+  </si>
+  <si>
+    <t>任一组数据都有回归方程</t>
+  </si>
+  <si>
+    <t>分类预测</t>
+  </si>
+  <si>
+    <t>以下不属于分类模型的是</t>
+  </si>
+  <si>
+    <t>决策树</t>
+  </si>
+  <si>
+    <t>二叉树</t>
+  </si>
+  <si>
+    <t>朴素贝叶斯</t>
+  </si>
+  <si>
+    <t>神经网络</t>
+  </si>
+  <si>
+    <t>以下属于神经网络模型特点的是</t>
+  </si>
+  <si>
+    <t>具有强大的拟合能力,可疑用于拟合,分类等</t>
+  </si>
+  <si>
+    <t>基于"分类讨论,逐步细化"思想的分类模型</t>
+  </si>
+  <si>
+    <t>比较基础的线性分类模型,很多时候是简单有效的选择</t>
+  </si>
+  <si>
+    <t>基于概率思想的简单有效的分类模型,能够给出容易理解的概率解释</t>
+  </si>
+  <si>
+    <t>朴素贝叶斯位于()</t>
+  </si>
+  <si>
+    <t>sklearn.svm</t>
+  </si>
+  <si>
+    <t>sklearn.tree</t>
+  </si>
+  <si>
+    <t>sklearn.naive_bayes</t>
+  </si>
+  <si>
+    <t>下列分类预测属于决策树算法的是</t>
+  </si>
+  <si>
+    <t>递归算法</t>
+  </si>
+  <si>
+    <t>贝叶斯公式</t>
+  </si>
+  <si>
+    <t>ID3算法</t>
+  </si>
+  <si>
+    <t>二阶项回归</t>
+  </si>
+  <si>
+    <t>以下哪项关于决策树的说法是错误的()</t>
+  </si>
+  <si>
+    <t>冗余属性不会对决策树的准确率造成不利的影响</t>
+  </si>
+  <si>
+    <t>子树可能在决策树中重复多次</t>
+  </si>
+  <si>
+    <t>决策树算法对于噪声的干扰非常敏感</t>
+  </si>
+  <si>
+    <t>寻找最佳决策树是 NP 完全问题</t>
+  </si>
+  <si>
+    <t>关于决策树，下列说法正确的是</t>
+  </si>
+  <si>
+    <t>决策树可以用于不确定型决策的制定</t>
+  </si>
+  <si>
+    <t>决策树是风险型决策的决策方法</t>
+  </si>
+  <si>
+    <t>使用决策树，必须要知道每种方案发生的确切的结果</t>
+  </si>
+  <si>
+    <t>决策树是一种非理性决策方法</t>
+  </si>
+  <si>
+    <t>常见的分类预测算法有</t>
+  </si>
+  <si>
+    <t>回归分析</t>
+  </si>
+  <si>
+    <t>支持向量机</t>
+  </si>
+  <si>
+    <t>贝叶斯网络</t>
+  </si>
+  <si>
+    <t>分类分析制图</t>
+  </si>
+  <si>
+    <t>在不使用辅助库的情况下,Matplotlib不能绘制的图形是</t>
+  </si>
+  <si>
+    <t>箱线图</t>
+  </si>
+  <si>
+    <t>折线图</t>
+  </si>
+  <si>
+    <t>3D图</t>
+  </si>
+  <si>
+    <t>条形图</t>
+  </si>
+  <si>
+    <t>按以下步骤绘图,会出现错误的是</t>
+  </si>
+  <si>
+    <t>创建画布——&gt;添加图例——&gt;绘制图形——&gt;展示图形</t>
+  </si>
+  <si>
+    <t>创建画布——&gt;绘制图形——&gt;展示图形——&gt;保存图形</t>
+  </si>
+  <si>
+    <t xml:space="preserve">创建画布——&gt;修改图形元素——&gt;绘制图形——&gt;展示图形
+</t>
+  </si>
+  <si>
+    <t>绘制图形——&gt;添加图例——&gt;保存图形——&gt;展示图形</t>
+  </si>
+  <si>
+    <t>在绘图时‚-‛表示那种风格字符</t>
+  </si>
+  <si>
+    <t>虚线</t>
+  </si>
+  <si>
+    <t>实线</t>
+  </si>
+  <si>
+    <t>点划线</t>
+  </si>
+  <si>
+    <t>点虚线</t>
+  </si>
+  <si>
+    <t>绘图时显示图例的命令是</t>
+  </si>
+  <si>
+    <t>plt.plot</t>
+  </si>
+  <si>
+    <t>plt.legend</t>
+  </si>
+  <si>
+    <t>plt.legemd</t>
+  </si>
+  <si>
+    <t>plt.show</t>
+  </si>
+  <si>
+    <t>绘制直方图的命令是</t>
+  </si>
+  <si>
+    <t>plt.bar</t>
+  </si>
+  <si>
+    <t>plt.hist</t>
+  </si>
+  <si>
+    <t>plt.pie</t>
+  </si>
+  <si>
+    <t>plt.scatter</t>
+  </si>
+  <si>
+    <t>下列可以用来比较不同分类算法构建的分类模型性能的图形有</t>
+  </si>
+  <si>
+    <t>ROC曲线</t>
+  </si>
+  <si>
+    <t>增益图</t>
+  </si>
+  <si>
+    <t>分类算法比较</t>
+  </si>
+  <si>
+    <t>下列关于分类算法描述正确的是</t>
+  </si>
+  <si>
+    <t>分类算法的标签和回归算法完全相同</t>
+  </si>
+  <si>
+    <t>分类算法和聚类算法一样都没有标签</t>
+  </si>
+  <si>
+    <t>分类算法的评价需要参考真实标签</t>
+  </si>
+  <si>
+    <t>分类算法评价可以用均方误差来判</t>
+  </si>
+  <si>
+    <t>以下关于分类算法的说法错误是</t>
+  </si>
+  <si>
+    <t>K-means是分类算法</t>
+  </si>
+  <si>
+    <t>K-NN是典型的分类算法</t>
+  </si>
+  <si>
+    <t>分类算法是一种监督学习</t>
+  </si>
+  <si>
+    <t>分类和聚类是通过数据集是否有标签进行区分的</t>
+  </si>
+  <si>
+    <t>关于分类,以下说法正确的是</t>
+  </si>
+  <si>
+    <t>分类是有监督的学习，即训练样本的类标号是已知的</t>
+  </si>
+  <si>
+    <t>所有分类算法都会根据训练样本生成一个分类模型</t>
+  </si>
+  <si>
+    <t>决策树归纳法只能用于二元分类</t>
+  </si>
+  <si>
+    <t>朴素贝叶斯方法只能用于二元分类</t>
+  </si>
+  <si>
+    <t>下列关于分类问题的表述正确的是</t>
+  </si>
+  <si>
+    <t>逻辑回归是解决回归问题的算法</t>
+  </si>
+  <si>
+    <t>分类问题属于有监督学习</t>
+  </si>
+  <si>
+    <t>分类问题的数据集带有标签，标签为离散型</t>
+  </si>
+  <si>
+    <t>分类问题的数据集带有标签，标签为逻辑型</t>
+  </si>
+  <si>
+    <t>关于朴素贝叶斯分类算法,描述正确的是</t>
+  </si>
+  <si>
+    <t>假设属性之间相互独立</t>
+  </si>
+  <si>
+    <t>根据先验概率计算后验概率</t>
+  </si>
+  <si>
+    <t>对于给定的待分类项X={a1,a2,...,an}，求解在此项出现的条件下各个类别 yi 出现的概率，哪个P(yi|X)最大，就把此待分类项归属于哪个类别</t>
+  </si>
+  <si>
+    <t>有最小错误率判断规则和最小风险判断规则</t>
+  </si>
+  <si>
+    <t>下列属于探索性分析中数据分布统计量的有</t>
+  </si>
+  <si>
+    <t>峰态</t>
+  </si>
+  <si>
+    <t>偏态</t>
+  </si>
+  <si>
+    <t>方差</t>
+  </si>
+  <si>
+    <t>聚类（上）</t>
+  </si>
+  <si>
+    <t>关于聚类,下列说法正确的是</t>
+  </si>
+  <si>
+    <t>聚类属于无监督算法</t>
+  </si>
+  <si>
+    <t>聚类可用于数据预处理中的数据离散化</t>
+  </si>
+  <si>
+    <t>聚类的划分原则是样本距离最小化</t>
+  </si>
+  <si>
+    <t>聚类是根据数据相似度进行样本分组的方法</t>
+  </si>
+  <si>
+    <t>下列关于分类和聚类哪个描述是正确的</t>
+  </si>
+  <si>
+    <t>分类和聚类都是有指导的学习</t>
+  </si>
+  <si>
+    <t>分类和聚类都是无指导的学习</t>
+  </si>
+  <si>
+    <t>分类是有指导的学习，聚类是无指导的学习</t>
+  </si>
+  <si>
+    <t>分类是无指导的学习，聚类是有指导的学习</t>
+  </si>
+  <si>
+    <t>关于聚类算法，下列说法中错误的是</t>
+  </si>
+  <si>
+    <t>使用聚类算法时一定需要每个样本的标签</t>
+  </si>
+  <si>
+    <t>依据算法结构的不同，聚类算法能够被划分为自下而上与自上而下</t>
+  </si>
+  <si>
+    <t>依据被研究对象的不同，聚类算法能够被划分为Q型聚类和R型聚类</t>
+  </si>
+  <si>
+    <t>聚类的目的是根据人们所关心的相似关系，寻找数据中潜在的自然分组结构</t>
+  </si>
+  <si>
+    <t>下列关于聚类分析的表述中，正确的有</t>
+  </si>
+  <si>
+    <t>Q型聚类是对变量进行分类处理</t>
+  </si>
+  <si>
+    <t>实质是寻找一种能反映对象之间关系的统计量</t>
+  </si>
+  <si>
+    <t>R型聚类是对样本进行分类处理</t>
+  </si>
+  <si>
+    <t xml:space="preserve">依据某种准则对个体（样本或变量）进行分类E.常用的聚类方法包括系统聚类法和K均值聚类法
+</t>
+  </si>
+  <si>
+    <t>下列关于K-Means算法初始聚类中心说法错误的是</t>
+  </si>
+  <si>
+    <t>ACD</t>
+  </si>
+  <si>
+    <t>样本中择优选出</t>
+  </si>
+  <si>
+    <t>样本中随机选出</t>
+  </si>
+  <si>
+    <t>互相距离最近的n-1个点</t>
+  </si>
+  <si>
+    <t>互相距离最远的n个点</t>
+  </si>
+  <si>
+    <t>聚类（下）</t>
+  </si>
+  <si>
+    <t>下面关于聚类分析说法错误的是</t>
+  </si>
+  <si>
+    <t>一定存在一个最优的分类</t>
+  </si>
+  <si>
+    <t>聚类分析是无监督学习</t>
+  </si>
+  <si>
+    <t>聚类分析可以用于判断异常值</t>
+  </si>
+  <si>
+    <t>聚类分析即:物以类聚,人以群分</t>
+  </si>
+  <si>
+    <t>下列关于聚类分析说法正确的是</t>
+  </si>
+  <si>
+    <t>所选择的变量应该符合聚类的要求</t>
+  </si>
+  <si>
+    <t>变量值不应有数量级上的差异</t>
+  </si>
+  <si>
+    <t>变量间线性相关关系较弱</t>
+  </si>
+  <si>
+    <t>以上都不对</t>
+  </si>
+  <si>
+    <t>下列说法错误的是</t>
+  </si>
+  <si>
+    <t>聚类生成的子集合称为点</t>
+  </si>
+  <si>
+    <t>聚类:学习/训练过程无监督，样本无明确标签</t>
+  </si>
+  <si>
+    <t>分类:学习训练过程有监督，训练样本有明确标签</t>
+  </si>
+  <si>
+    <t>聚类是把各不相同的个体分割为有更多相似性子集合的工作</t>
+  </si>
+  <si>
+    <t>关于聚类算法，下列说法正确的是</t>
+  </si>
+  <si>
+    <t>Means算法适用于发现任意形状的簇</t>
+  </si>
+  <si>
+    <t>层次聚类适用于大型数据集</t>
+  </si>
+  <si>
+    <t>DBSCAN能在具有噪声的空间中发现任意形状的簇</t>
+  </si>
+  <si>
+    <t>GMM是混合模型中计算速度最快的算法，且占用的计算资源较少</t>
+  </si>
+  <si>
+    <t>下列关于K-Means算法的说法正确的是</t>
+  </si>
+  <si>
+    <t>构建K-Means 聚类模型需要对数据进行标准化</t>
+  </si>
+  <si>
+    <t>K-Means 算法涉及空间距离计算</t>
+  </si>
+  <si>
+    <t>K-Means 算法训练结果具有一定的随机性，所以需要多次训练</t>
+  </si>
+  <si>
+    <t>K-Means 算法是 sklearn 的 cluster 模块中唯一涉及距离计算的聚类算法</t>
   </si>
 </sst>
 </file>
@@ -1943,7 +4245,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1971,6 +4273,18 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF393939"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2107,6 +4421,12 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="34">
@@ -2421,10 +4741,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2433,16 +4753,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2451,19 +4771,13 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2472,98 +4786,104 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2588,6 +4908,18 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2935,10 +5267,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K216"/>
+  <dimension ref="A1:K367"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A204" workbookViewId="0">
-      <selection activeCell="A217" sqref="A217"/>
+    <sheetView tabSelected="1" topLeftCell="A207" workbookViewId="0">
+      <selection activeCell="A217" sqref="A217:A223"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
@@ -6272,7 +8604,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="187" spans="1:11">
+    <row r="187" ht="14" spans="1:11">
       <c r="A187" s="5" t="s">
         <v>489</v>
       </c>
@@ -6435,7 +8767,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="197" spans="1:11">
+    <row r="197" ht="14" spans="1:11">
       <c r="A197" s="5" t="s">
         <v>515</v>
       </c>
@@ -6598,7 +8930,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="207" spans="1:11">
+    <row r="207" ht="14" spans="1:11">
       <c r="A207" s="5" t="s">
         <v>536</v>
       </c>
@@ -6761,8 +9093,4973 @@
         <v>562</v>
       </c>
     </row>
+    <row r="217" ht="29" spans="1:11">
+      <c r="A217" s="5" t="s">
+        <v>563</v>
+      </c>
+      <c r="B217" s="6" t="s">
+        <v>564</v>
+      </c>
+      <c r="C217" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D217" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E217" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F217" s="5">
+        <v>2</v>
+      </c>
+      <c r="G217" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H217" s="5" t="s">
+        <v>565</v>
+      </c>
+      <c r="I217" s="5" t="s">
+        <v>566</v>
+      </c>
+      <c r="J217" s="5" t="s">
+        <v>567</v>
+      </c>
+      <c r="K217" s="5" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="218" ht="29" spans="1:11">
+      <c r="A218" s="5"/>
+      <c r="B218" s="6" t="s">
+        <v>569</v>
+      </c>
+      <c r="C218" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D218" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E218" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F218" s="5">
+        <v>2</v>
+      </c>
+      <c r="G218" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H218" s="5" t="s">
+        <v>570</v>
+      </c>
+      <c r="I218" s="5" t="s">
+        <v>571</v>
+      </c>
+      <c r="J218" s="5" t="s">
+        <v>572</v>
+      </c>
+      <c r="K218" s="5" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="219" spans="1:11">
+      <c r="A219" s="5"/>
+      <c r="B219" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="C219" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D219" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E219" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F219" s="5">
+        <v>2</v>
+      </c>
+      <c r="G219" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H219" s="5" t="s">
+        <v>575</v>
+      </c>
+      <c r="I219" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="J219" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="K219" s="3" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="220" ht="29" spans="1:11">
+      <c r="A220" s="5"/>
+      <c r="B220" s="5" t="s">
+        <v>579</v>
+      </c>
+      <c r="C220" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D220" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E220" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F220" s="5">
+        <v>2</v>
+      </c>
+      <c r="G220" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H220" s="5" t="s">
+        <v>580</v>
+      </c>
+      <c r="I220" s="5" t="s">
+        <v>581</v>
+      </c>
+      <c r="J220" s="5" t="s">
+        <v>582</v>
+      </c>
+      <c r="K220" s="5" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="221" ht="29" spans="1:11">
+      <c r="A221" s="5"/>
+      <c r="B221" s="5" t="s">
+        <v>584</v>
+      </c>
+      <c r="C221" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D221" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E221" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F221" s="5">
+        <v>2</v>
+      </c>
+      <c r="G221" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H221" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="I221" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J221" s="5" t="s">
+        <v>575</v>
+      </c>
+      <c r="K221" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="222" ht="29" spans="1:11">
+      <c r="A222" s="5"/>
+      <c r="B222" s="5" t="s">
+        <v>585</v>
+      </c>
+      <c r="C222" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D222" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E222" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F222" s="5">
+        <v>2</v>
+      </c>
+      <c r="G222" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H222" s="5" t="s">
+        <v>586</v>
+      </c>
+      <c r="I222" s="5" t="s">
+        <v>587</v>
+      </c>
+      <c r="J222" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="K222" s="5" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="223" spans="1:11">
+      <c r="A223" s="5"/>
+      <c r="B223" s="5" t="s">
+        <v>589</v>
+      </c>
+      <c r="C223" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D223" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E223" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F223" s="5">
+        <v>2</v>
+      </c>
+      <c r="G223" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H223" s="5" t="s">
+        <v>590</v>
+      </c>
+      <c r="I223" s="5" t="s">
+        <v>591</v>
+      </c>
+      <c r="J223" s="5" t="s">
+        <v>592</v>
+      </c>
+      <c r="K223" s="5" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="224" ht="29" spans="1:11">
+      <c r="A224" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="B224" s="5" t="s">
+        <v>595</v>
+      </c>
+      <c r="C224" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D224" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E224" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F224" s="5">
+        <v>2</v>
+      </c>
+      <c r="G224" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H224" s="5">
+        <v>80</v>
+      </c>
+      <c r="I224" s="5">
+        <v>443</v>
+      </c>
+      <c r="J224" s="5">
+        <v>403</v>
+      </c>
+      <c r="K224" s="5">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="225" ht="29" spans="2:11">
+      <c r="B225" s="5" t="s">
+        <v>596</v>
+      </c>
+      <c r="C225" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D225" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E225" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F225" s="5">
+        <v>2</v>
+      </c>
+      <c r="G225" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H225" s="5" t="s">
+        <v>597</v>
+      </c>
+      <c r="I225" s="5" t="s">
+        <v>598</v>
+      </c>
+      <c r="J225" s="5" t="s">
+        <v>599</v>
+      </c>
+      <c r="K225" s="5" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="226" ht="29" spans="2:11">
+      <c r="B226" s="5" t="s">
+        <v>601</v>
+      </c>
+      <c r="C226" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D226" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E226" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F226" s="5">
+        <v>2</v>
+      </c>
+      <c r="G226" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H226" s="5" t="s">
+        <v>602</v>
+      </c>
+      <c r="I226" s="5" t="s">
+        <v>603</v>
+      </c>
+      <c r="J226" s="5" t="s">
+        <v>604</v>
+      </c>
+      <c r="K226" s="5" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="227" ht="43.5" spans="2:11">
+      <c r="B227" s="5" t="s">
+        <v>606</v>
+      </c>
+      <c r="C227" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D227" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E227" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F227" s="5">
+        <v>2</v>
+      </c>
+      <c r="G227" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H227" s="5" t="s">
+        <v>586</v>
+      </c>
+      <c r="I227" s="5" t="s">
+        <v>607</v>
+      </c>
+      <c r="J227" s="5" t="s">
+        <v>587</v>
+      </c>
+      <c r="K227" s="5" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="228" ht="29" spans="2:11">
+      <c r="B228" s="5" t="s">
+        <v>608</v>
+      </c>
+      <c r="C228" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D228" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E228" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F228" s="5">
+        <v>2</v>
+      </c>
+      <c r="G228" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H228" s="5" t="s">
+        <v>609</v>
+      </c>
+      <c r="I228" s="5" t="s">
+        <v>610</v>
+      </c>
+      <c r="J228" s="5" t="s">
+        <v>611</v>
+      </c>
+      <c r="K228" s="5" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="229" ht="29" spans="2:11">
+      <c r="B229" s="5" t="s">
+        <v>613</v>
+      </c>
+      <c r="C229" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D229" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E229" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F229" s="5">
+        <v>2</v>
+      </c>
+      <c r="G229" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H229" s="5" t="s">
+        <v>614</v>
+      </c>
+      <c r="I229" s="5" t="s">
+        <v>615</v>
+      </c>
+      <c r="J229" s="5" t="s">
+        <v>616</v>
+      </c>
+      <c r="K229" s="5" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="230" ht="29" spans="2:11">
+      <c r="B230" s="5" t="s">
+        <v>618</v>
+      </c>
+      <c r="C230" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D230" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E230" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F230" s="5">
+        <v>2</v>
+      </c>
+      <c r="G230" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H230" s="5" t="s">
+        <v>619</v>
+      </c>
+      <c r="I230" s="5" t="s">
+        <v>620</v>
+      </c>
+      <c r="J230" s="5" t="s">
+        <v>621</v>
+      </c>
+      <c r="K230" s="5" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="231" ht="29" spans="1:11">
+      <c r="A231" s="5" t="s">
+        <v>623</v>
+      </c>
+      <c r="B231" s="5" t="s">
+        <v>624</v>
+      </c>
+      <c r="C231" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D231" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E231" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F231" s="5">
+        <v>2</v>
+      </c>
+      <c r="G231" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H231" s="5" t="s">
+        <v>625</v>
+      </c>
+      <c r="I231" s="5" t="s">
+        <v>626</v>
+      </c>
+      <c r="J231" s="5" t="s">
+        <v>627</v>
+      </c>
+      <c r="K231" s="5" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="232" ht="29" spans="1:11">
+      <c r="A232" s="5"/>
+      <c r="B232" s="5" t="s">
+        <v>629</v>
+      </c>
+      <c r="C232" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D232" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E232" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F232" s="5">
+        <v>2</v>
+      </c>
+      <c r="G232" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H232" s="5" t="s">
+        <v>630</v>
+      </c>
+      <c r="I232" s="5" t="s">
+        <v>631</v>
+      </c>
+      <c r="J232" s="5" t="s">
+        <v>632</v>
+      </c>
+      <c r="K232" s="5" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="233" ht="29" spans="1:11">
+      <c r="A233" s="5"/>
+      <c r="B233" s="5" t="s">
+        <v>634</v>
+      </c>
+      <c r="C233" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D233" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E233" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F233" s="5">
+        <v>2</v>
+      </c>
+      <c r="G233" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H233" s="5" t="s">
+        <v>635</v>
+      </c>
+      <c r="I233" s="5" t="s">
+        <v>636</v>
+      </c>
+      <c r="J233" s="5" t="s">
+        <v>637</v>
+      </c>
+      <c r="K233" s="5" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="234" ht="29" spans="1:11">
+      <c r="A234" s="5"/>
+      <c r="B234" s="5" t="s">
+        <v>639</v>
+      </c>
+      <c r="C234" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D234" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E234" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F234" s="5">
+        <v>2</v>
+      </c>
+      <c r="G234" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H234" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="I234" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="J234" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="K234" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="235" ht="261" spans="1:11">
+      <c r="A235" s="5"/>
+      <c r="B235" s="5" t="s">
+        <v>640</v>
+      </c>
+      <c r="C235" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D235" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E235" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F235" s="5">
+        <v>2</v>
+      </c>
+      <c r="G235" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H235" s="5" t="s">
+        <v>641</v>
+      </c>
+      <c r="I235" s="5" t="s">
+        <v>642</v>
+      </c>
+      <c r="J235" s="5" t="s">
+        <v>643</v>
+      </c>
+      <c r="K235" s="5" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="236" ht="43.5" spans="1:11">
+      <c r="A236" s="5"/>
+      <c r="B236" s="5" t="s">
+        <v>645</v>
+      </c>
+      <c r="C236" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D236" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E236" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F236" s="5">
+        <v>2</v>
+      </c>
+      <c r="G236" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H236" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="I236" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="J236" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="K236" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="237" ht="29" spans="1:11">
+      <c r="A237" s="5"/>
+      <c r="B237" s="5" t="s">
+        <v>646</v>
+      </c>
+      <c r="C237" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D237" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E237" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F237" s="5">
+        <v>2</v>
+      </c>
+      <c r="G237" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H237" s="5" t="s">
+        <v>602</v>
+      </c>
+      <c r="I237" s="5" t="s">
+        <v>647</v>
+      </c>
+      <c r="J237" s="5" t="s">
+        <v>648</v>
+      </c>
+      <c r="K237" s="5" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="238" ht="58" spans="1:11">
+      <c r="A238" s="5"/>
+      <c r="B238" s="5" t="s">
+        <v>650</v>
+      </c>
+      <c r="C238" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D238" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E238" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F238" s="5">
+        <v>2</v>
+      </c>
+      <c r="G238" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H238" s="5" t="s">
+        <v>651</v>
+      </c>
+      <c r="I238" s="5" t="s">
+        <v>652</v>
+      </c>
+      <c r="J238" s="5" t="s">
+        <v>653</v>
+      </c>
+      <c r="K238" s="5" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="239" ht="29" spans="1:11">
+      <c r="A239" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="B239" s="5" t="s">
+        <v>656</v>
+      </c>
+      <c r="C239" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D239" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E239" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F239" s="5">
+        <v>2</v>
+      </c>
+      <c r="G239" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H239" s="5" t="s">
+        <v>657</v>
+      </c>
+      <c r="I239" s="5" t="s">
+        <v>658</v>
+      </c>
+      <c r="J239" s="5" t="s">
+        <v>659</v>
+      </c>
+      <c r="K239" s="5" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="240" spans="2:11">
+      <c r="B240" s="5" t="s">
+        <v>661</v>
+      </c>
+      <c r="C240" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D240" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E240" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F240" s="5">
+        <v>2</v>
+      </c>
+      <c r="G240" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H240" s="5" t="s">
+        <v>662</v>
+      </c>
+      <c r="I240" s="5" t="s">
+        <v>663</v>
+      </c>
+      <c r="J240" s="5" t="s">
+        <v>664</v>
+      </c>
+      <c r="K240" s="5" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="241" ht="58" spans="2:11">
+      <c r="B241" s="5" t="s">
+        <v>666</v>
+      </c>
+      <c r="C241" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D241" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E241" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F241" s="5">
+        <v>2</v>
+      </c>
+      <c r="G241" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H241" s="5" t="s">
+        <v>667</v>
+      </c>
+      <c r="I241" s="5" t="s">
+        <v>668</v>
+      </c>
+      <c r="J241" s="5" t="s">
+        <v>669</v>
+      </c>
+      <c r="K241" s="5" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="242" ht="29" spans="2:11">
+      <c r="B242" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="C242" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D242" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E242" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F242" s="5">
+        <v>2</v>
+      </c>
+      <c r="G242" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H242" s="5" t="s">
+        <v>672</v>
+      </c>
+      <c r="I242" s="5" t="s">
+        <v>673</v>
+      </c>
+      <c r="J242" s="5" t="s">
+        <v>674</v>
+      </c>
+      <c r="K242" s="5" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="243" ht="43.5" spans="2:11">
+      <c r="B243" s="5" t="s">
+        <v>676</v>
+      </c>
+      <c r="C243" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D243" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E243" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F243" s="5">
+        <v>2</v>
+      </c>
+      <c r="G243" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H243" s="5" t="s">
+        <v>677</v>
+      </c>
+      <c r="I243" s="5" t="s">
+        <v>678</v>
+      </c>
+      <c r="J243" s="5" t="s">
+        <v>679</v>
+      </c>
+      <c r="K243" s="5" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="244" ht="72.5" spans="2:11">
+      <c r="B244" s="5" t="s">
+        <v>681</v>
+      </c>
+      <c r="C244" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D244" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E244" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F244" s="5">
+        <v>2</v>
+      </c>
+      <c r="G244" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H244" s="5" t="s">
+        <v>682</v>
+      </c>
+      <c r="I244" s="5" t="s">
+        <v>683</v>
+      </c>
+      <c r="J244" s="5" t="s">
+        <v>684</v>
+      </c>
+      <c r="K244" s="5" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="245" ht="29" spans="1:11">
+      <c r="A245" s="5" t="s">
+        <v>686</v>
+      </c>
+      <c r="B245" s="5" t="s">
+        <v>687</v>
+      </c>
+      <c r="C245" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D245" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E245" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F245" s="5">
+        <v>2</v>
+      </c>
+      <c r="G245" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H245" s="9" t="s">
+        <v>688</v>
+      </c>
+      <c r="I245" s="9" t="s">
+        <v>689</v>
+      </c>
+      <c r="J245" s="9" t="s">
+        <v>690</v>
+      </c>
+      <c r="K245" s="9" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="246" ht="29" spans="1:11">
+      <c r="A246" s="5"/>
+      <c r="B246" s="5" t="s">
+        <v>692</v>
+      </c>
+      <c r="C246" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D246" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E246" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F246" s="5">
+        <v>2</v>
+      </c>
+      <c r="G246" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H246" s="5" t="s">
+        <v>693</v>
+      </c>
+      <c r="I246" s="5" t="s">
+        <v>694</v>
+      </c>
+      <c r="J246" s="5" t="s">
+        <v>695</v>
+      </c>
+      <c r="K246" s="5" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="247" spans="1:11">
+      <c r="A247" s="5"/>
+      <c r="B247" s="5" t="s">
+        <v>697</v>
+      </c>
+      <c r="C247" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D247" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E247" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F247" s="5">
+        <v>2</v>
+      </c>
+      <c r="G247" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H247" s="5" t="s">
+        <v>698</v>
+      </c>
+      <c r="I247" s="5" t="s">
+        <v>699</v>
+      </c>
+      <c r="J247" s="5" t="s">
+        <v>700</v>
+      </c>
+      <c r="K247" s="5" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="248" ht="29" spans="1:11">
+      <c r="A248" s="5"/>
+      <c r="B248" s="5" t="s">
+        <v>702</v>
+      </c>
+      <c r="C248" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D248" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E248" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F248" s="5">
+        <v>2</v>
+      </c>
+      <c r="G248" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H248" s="5" t="s">
+        <v>703</v>
+      </c>
+      <c r="I248" s="5" t="s">
+        <v>704</v>
+      </c>
+      <c r="J248" s="5" t="s">
+        <v>705</v>
+      </c>
+      <c r="K248" s="5" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="249" ht="29" spans="1:11">
+      <c r="A249" s="5"/>
+      <c r="B249" s="5" t="s">
+        <v>707</v>
+      </c>
+      <c r="C249" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D249" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E249" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F249" s="5">
+        <v>2</v>
+      </c>
+      <c r="G249" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H249" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="I249" s="5" t="s">
+        <v>708</v>
+      </c>
+      <c r="J249" s="5" t="s">
+        <v>709</v>
+      </c>
+      <c r="K249" s="5" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="250" ht="29" spans="1:11">
+      <c r="A250" s="5"/>
+      <c r="B250" s="5" t="s">
+        <v>711</v>
+      </c>
+      <c r="C250" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D250" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E250" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F250" s="5">
+        <v>2</v>
+      </c>
+      <c r="G250" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H250" s="5" t="s">
+        <v>712</v>
+      </c>
+      <c r="I250" s="5" t="s">
+        <v>713</v>
+      </c>
+      <c r="J250" s="5" t="s">
+        <v>602</v>
+      </c>
+      <c r="K250" s="5" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="251" ht="43.5" spans="1:11">
+      <c r="A251" s="5"/>
+      <c r="B251" s="5" t="s">
+        <v>715</v>
+      </c>
+      <c r="C251" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D251" s="3" t="s">
+        <v>716</v>
+      </c>
+      <c r="E251" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F251" s="5">
+        <v>2</v>
+      </c>
+      <c r="G251" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H251" s="5" t="s">
+        <v>717</v>
+      </c>
+      <c r="I251" s="5" t="s">
+        <v>718</v>
+      </c>
+      <c r="J251" s="5" t="s">
+        <v>719</v>
+      </c>
+      <c r="K251" s="5" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="252" ht="29" spans="1:11">
+      <c r="A252" s="5" t="s">
+        <v>721</v>
+      </c>
+      <c r="B252" s="5" t="s">
+        <v>722</v>
+      </c>
+      <c r="C252" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D252" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E252" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F252" s="5">
+        <v>2</v>
+      </c>
+      <c r="G252" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H252" s="5" t="s">
+        <v>723</v>
+      </c>
+      <c r="I252" s="5" t="s">
+        <v>724</v>
+      </c>
+      <c r="J252" s="5" t="s">
+        <v>725</v>
+      </c>
+      <c r="K252" s="5" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="253" ht="29" spans="1:11">
+      <c r="A253" s="5"/>
+      <c r="B253" s="5" t="s">
+        <v>727</v>
+      </c>
+      <c r="C253" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D253" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E253" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F253" s="5">
+        <v>2</v>
+      </c>
+      <c r="G253" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H253" s="5">
+        <v>402</v>
+      </c>
+      <c r="I253" s="5">
+        <v>403</v>
+      </c>
+      <c r="J253" s="5">
+        <v>404</v>
+      </c>
+      <c r="K253" s="5">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="254" ht="29" spans="1:11">
+      <c r="A254" s="5"/>
+      <c r="B254" s="5" t="s">
+        <v>728</v>
+      </c>
+      <c r="C254" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D254" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E254" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F254" s="5">
+        <v>2</v>
+      </c>
+      <c r="G254" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H254" s="5" t="s">
+        <v>729</v>
+      </c>
+      <c r="I254" s="5" t="s">
+        <v>730</v>
+      </c>
+      <c r="J254" s="5" t="s">
+        <v>731</v>
+      </c>
+      <c r="K254" s="5" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="255" ht="29" spans="1:11">
+      <c r="A255" s="5"/>
+      <c r="B255" s="10" t="s">
+        <v>733</v>
+      </c>
+      <c r="C255" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D255" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E255" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F255" s="5">
+        <v>2</v>
+      </c>
+      <c r="G255" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H255" s="5" t="s">
+        <v>734</v>
+      </c>
+      <c r="I255" s="5" t="s">
+        <v>735</v>
+      </c>
+      <c r="J255" s="5" t="s">
+        <v>736</v>
+      </c>
+      <c r="K255" s="5" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="256" ht="72.5" spans="1:11">
+      <c r="A256" s="5"/>
+      <c r="B256" s="5" t="s">
+        <v>738</v>
+      </c>
+      <c r="C256" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D256" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E256" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F256" s="5">
+        <v>2</v>
+      </c>
+      <c r="G256" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H256" s="5" t="s">
+        <v>739</v>
+      </c>
+      <c r="I256" s="5">
+        <v>0</v>
+      </c>
+      <c r="J256" s="9" t="s">
+        <v>740</v>
+      </c>
+      <c r="K256" s="9" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="257" ht="246.5" spans="1:11">
+      <c r="A257" s="5"/>
+      <c r="B257" s="5" t="s">
+        <v>742</v>
+      </c>
+      <c r="C257" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D257" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E257" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F257" s="5">
+        <v>2</v>
+      </c>
+      <c r="G257" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H257" s="5" t="s">
+        <v>743</v>
+      </c>
+      <c r="I257" s="5" t="s">
+        <v>744</v>
+      </c>
+      <c r="J257" s="5" t="s">
+        <v>745</v>
+      </c>
+      <c r="K257" s="5" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="258" spans="1:11">
+      <c r="A258" s="5"/>
+      <c r="B258" s="5" t="s">
+        <v>747</v>
+      </c>
+      <c r="C258" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D258" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E258" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F258" s="5">
+        <v>2</v>
+      </c>
+      <c r="G258" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H258" s="5" t="s">
+        <v>748</v>
+      </c>
+      <c r="I258" s="5" t="s">
+        <v>749</v>
+      </c>
+      <c r="J258" s="5" t="s">
+        <v>750</v>
+      </c>
+      <c r="K258" s="5" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="259" ht="29" spans="1:11">
+      <c r="A259" s="5" t="s">
+        <v>752</v>
+      </c>
+      <c r="B259" s="5" t="s">
+        <v>753</v>
+      </c>
+      <c r="C259" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D259" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E259" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F259" s="5">
+        <v>2</v>
+      </c>
+      <c r="G259" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H259" s="5" t="s">
+        <v>754</v>
+      </c>
+      <c r="I259" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J259" s="5" t="s">
+        <v>755</v>
+      </c>
+      <c r="K259" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="260" ht="43.5" spans="1:11">
+      <c r="A260" s="5"/>
+      <c r="B260" s="5" t="s">
+        <v>756</v>
+      </c>
+      <c r="C260" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D260" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E260" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F260" s="5">
+        <v>2</v>
+      </c>
+      <c r="G260" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H260" s="5" t="s">
+        <v>757</v>
+      </c>
+      <c r="I260" s="5" t="s">
+        <v>758</v>
+      </c>
+      <c r="J260" s="5" t="s">
+        <v>759</v>
+      </c>
+      <c r="K260" s="5" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="261" ht="43.5" spans="1:11">
+      <c r="A261" s="5"/>
+      <c r="B261" s="5" t="s">
+        <v>761</v>
+      </c>
+      <c r="C261" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D261" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E261" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F261" s="5">
+        <v>2</v>
+      </c>
+      <c r="G261" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H261" s="5" t="s">
+        <v>762</v>
+      </c>
+      <c r="I261" s="5" t="s">
+        <v>763</v>
+      </c>
+      <c r="J261" s="5" t="s">
+        <v>764</v>
+      </c>
+      <c r="K261" s="5" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="262" ht="58" spans="1:11">
+      <c r="A262" s="5"/>
+      <c r="B262" s="5" t="s">
+        <v>766</v>
+      </c>
+      <c r="C262" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D262" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E262" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F262" s="5">
+        <v>2</v>
+      </c>
+      <c r="G262" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H262" s="5" t="s">
+        <v>767</v>
+      </c>
+      <c r="I262" s="5" t="s">
+        <v>768</v>
+      </c>
+      <c r="J262" s="5" t="s">
+        <v>769</v>
+      </c>
+      <c r="K262" s="5" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="263" ht="29" spans="1:11">
+      <c r="A263" s="5"/>
+      <c r="B263" s="5" t="s">
+        <v>771</v>
+      </c>
+      <c r="C263" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D263" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E263" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F263" s="5">
+        <v>2</v>
+      </c>
+      <c r="G263" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H263" s="5" t="s">
+        <v>772</v>
+      </c>
+      <c r="I263" s="5" t="s">
+        <v>773</v>
+      </c>
+      <c r="J263" s="5" t="s">
+        <v>774</v>
+      </c>
+      <c r="K263" s="5" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="264" ht="29" spans="1:11">
+      <c r="A264" s="5"/>
+      <c r="B264" s="5" t="s">
+        <v>776</v>
+      </c>
+      <c r="C264" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D264" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="E264" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F264" s="5">
+        <v>2</v>
+      </c>
+      <c r="G264" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H264" s="5" t="s">
+        <v>777</v>
+      </c>
+      <c r="I264" s="5" t="s">
+        <v>778</v>
+      </c>
+      <c r="J264" s="5" t="s">
+        <v>779</v>
+      </c>
+      <c r="K264" s="5" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="265" ht="43.5" spans="1:11">
+      <c r="A265" s="5" t="s">
+        <v>781</v>
+      </c>
+      <c r="B265" s="5" t="s">
+        <v>782</v>
+      </c>
+      <c r="C265" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D265" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E265" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F265" s="5">
+        <v>2</v>
+      </c>
+      <c r="G265" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H265" s="5" t="s">
+        <v>783</v>
+      </c>
+      <c r="I265" s="5" t="s">
+        <v>784</v>
+      </c>
+      <c r="J265" s="5" t="s">
+        <v>785</v>
+      </c>
+      <c r="K265" s="5" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="266" spans="1:11">
+      <c r="A266" s="5"/>
+      <c r="B266" s="5" t="s">
+        <v>787</v>
+      </c>
+      <c r="C266" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D266" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E266" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F266" s="5">
+        <v>2</v>
+      </c>
+      <c r="G266" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H266" s="5" t="s">
+        <v>788</v>
+      </c>
+      <c r="I266" s="5" t="s">
+        <v>789</v>
+      </c>
+      <c r="J266" s="5" t="s">
+        <v>790</v>
+      </c>
+      <c r="K266" s="5" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="267" ht="43.5" spans="1:11">
+      <c r="A267" s="5"/>
+      <c r="B267" s="5" t="s">
+        <v>792</v>
+      </c>
+      <c r="C267" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D267" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E267" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F267" s="5">
+        <v>2</v>
+      </c>
+      <c r="G267" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H267" s="5" t="s">
+        <v>793</v>
+      </c>
+      <c r="I267" s="5" t="s">
+        <v>794</v>
+      </c>
+      <c r="J267" s="5" t="s">
+        <v>795</v>
+      </c>
+      <c r="K267" s="5" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="268" spans="1:11">
+      <c r="A268" s="5"/>
+      <c r="B268" s="5" t="s">
+        <v>797</v>
+      </c>
+      <c r="C268" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D268" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E268" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F268" s="5">
+        <v>2</v>
+      </c>
+      <c r="G268" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H268" s="5" t="s">
+        <v>798</v>
+      </c>
+      <c r="I268" s="5" t="s">
+        <v>799</v>
+      </c>
+      <c r="J268" s="5" t="s">
+        <v>800</v>
+      </c>
+      <c r="K268" s="5" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="269" spans="1:11">
+      <c r="A269" s="5"/>
+      <c r="B269" s="5" t="s">
+        <v>802</v>
+      </c>
+      <c r="C269" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D269" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E269" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F269" s="5">
+        <v>2</v>
+      </c>
+      <c r="G269" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H269" s="5" t="s">
+        <v>803</v>
+      </c>
+      <c r="I269" s="5" t="s">
+        <v>804</v>
+      </c>
+      <c r="J269" s="5" t="s">
+        <v>805</v>
+      </c>
+      <c r="K269" s="5" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="270" ht="43.5" spans="1:11">
+      <c r="A270" s="5"/>
+      <c r="B270" s="5" t="s">
+        <v>807</v>
+      </c>
+      <c r="C270" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D270" s="3" t="s">
+        <v>808</v>
+      </c>
+      <c r="E270" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F270" s="5">
+        <v>2</v>
+      </c>
+      <c r="G270" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H270" s="5" t="s">
+        <v>809</v>
+      </c>
+      <c r="I270" s="5" t="s">
+        <v>810</v>
+      </c>
+      <c r="J270" s="5" t="s">
+        <v>811</v>
+      </c>
+      <c r="K270" s="5" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="271" spans="1:11">
+      <c r="A271" s="5" t="s">
+        <v>813</v>
+      </c>
+      <c r="B271" s="5" t="s">
+        <v>814</v>
+      </c>
+      <c r="C271" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D271" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E271" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F271" s="5">
+        <v>2</v>
+      </c>
+      <c r="G271" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H271" s="5" t="s">
+        <v>815</v>
+      </c>
+      <c r="I271" s="5" t="s">
+        <v>816</v>
+      </c>
+      <c r="J271" s="5" t="s">
+        <v>817</v>
+      </c>
+      <c r="K271" s="5" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="272" spans="1:11">
+      <c r="A272" s="5"/>
+      <c r="B272" s="5" t="s">
+        <v>819</v>
+      </c>
+      <c r="C272" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D272" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E272" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F272" s="5">
+        <v>2</v>
+      </c>
+      <c r="G272" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H272" s="5" t="s">
+        <v>820</v>
+      </c>
+      <c r="I272" s="5" t="s">
+        <v>821</v>
+      </c>
+      <c r="J272" s="5" t="s">
+        <v>791</v>
+      </c>
+      <c r="K272" s="5" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="273" spans="1:11">
+      <c r="A273" s="5"/>
+      <c r="B273" s="5" t="s">
+        <v>823</v>
+      </c>
+      <c r="C273" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D273" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E273" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F273" s="5">
+        <v>2</v>
+      </c>
+      <c r="G273" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H273" s="5" t="s">
+        <v>824</v>
+      </c>
+      <c r="I273" s="5" t="s">
+        <v>825</v>
+      </c>
+      <c r="J273" s="5" t="s">
+        <v>791</v>
+      </c>
+      <c r="K273" s="5" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="274" spans="1:11">
+      <c r="A274" s="5"/>
+      <c r="B274" s="5" t="s">
+        <v>826</v>
+      </c>
+      <c r="C274" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D274" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E274" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F274" s="5">
+        <v>2</v>
+      </c>
+      <c r="G274" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H274" s="5" t="s">
+        <v>827</v>
+      </c>
+      <c r="I274" s="5" t="s">
+        <v>828</v>
+      </c>
+      <c r="J274" s="5" t="s">
+        <v>829</v>
+      </c>
+      <c r="K274" s="5" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="275" spans="1:11">
+      <c r="A275" s="5"/>
+      <c r="B275" s="5" t="s">
+        <v>831</v>
+      </c>
+      <c r="C275" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D275" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E275" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F275" s="5">
+        <v>2</v>
+      </c>
+      <c r="G275" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H275" s="5" t="s">
+        <v>832</v>
+      </c>
+      <c r="I275" s="5" t="s">
+        <v>833</v>
+      </c>
+      <c r="J275" s="5" t="s">
+        <v>834</v>
+      </c>
+      <c r="K275" s="5" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="276" spans="1:11">
+      <c r="A276" s="5"/>
+      <c r="B276" s="5" t="s">
+        <v>836</v>
+      </c>
+      <c r="C276" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D276" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E276" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F276" s="5">
+        <v>2</v>
+      </c>
+      <c r="G276" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H276" s="5" t="s">
+        <v>788</v>
+      </c>
+      <c r="I276" s="5" t="s">
+        <v>789</v>
+      </c>
+      <c r="J276" s="5" t="s">
+        <v>837</v>
+      </c>
+      <c r="K276" s="5" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="277" spans="1:11">
+      <c r="A277" s="5" t="s">
+        <v>839</v>
+      </c>
+      <c r="B277" s="5" t="s">
+        <v>840</v>
+      </c>
+      <c r="C277" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D277" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E277" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F277" s="5">
+        <v>2</v>
+      </c>
+      <c r="G277" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H277" s="5" t="s">
+        <v>841</v>
+      </c>
+      <c r="I277" s="5" t="s">
+        <v>842</v>
+      </c>
+      <c r="J277" s="5" t="s">
+        <v>843</v>
+      </c>
+      <c r="K277" s="5" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="278" ht="29" spans="1:11">
+      <c r="A278" s="5"/>
+      <c r="B278" s="5" t="s">
+        <v>845</v>
+      </c>
+      <c r="C278" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D278" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E278" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F278" s="5">
+        <v>2</v>
+      </c>
+      <c r="G278" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H278" s="5" t="s">
+        <v>846</v>
+      </c>
+      <c r="I278" s="5" t="s">
+        <v>847</v>
+      </c>
+      <c r="J278" s="5" t="s">
+        <v>848</v>
+      </c>
+      <c r="K278" s="5" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="279" ht="29" spans="1:11">
+      <c r="A279" s="5"/>
+      <c r="B279" s="5" t="s">
+        <v>850</v>
+      </c>
+      <c r="C279" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D279" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E279" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F279" s="5">
+        <v>2</v>
+      </c>
+      <c r="G279" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H279" s="5" t="s">
+        <v>851</v>
+      </c>
+      <c r="I279" s="5" t="s">
+        <v>852</v>
+      </c>
+      <c r="J279" s="5" t="s">
+        <v>853</v>
+      </c>
+      <c r="K279" s="5" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="280" ht="58" spans="1:11">
+      <c r="A280" s="5"/>
+      <c r="B280" s="5" t="s">
+        <v>855</v>
+      </c>
+      <c r="C280" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D280" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E280" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F280" s="5">
+        <v>2</v>
+      </c>
+      <c r="G280" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H280" s="5" t="s">
+        <v>856</v>
+      </c>
+      <c r="I280" s="5" t="s">
+        <v>857</v>
+      </c>
+      <c r="J280" s="5" t="s">
+        <v>858</v>
+      </c>
+      <c r="K280" s="5" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="281" ht="29" spans="1:11">
+      <c r="A281" s="5"/>
+      <c r="B281" s="5" t="s">
+        <v>860</v>
+      </c>
+      <c r="C281" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D281" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E281" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F281" s="5">
+        <v>2</v>
+      </c>
+      <c r="G281" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H281" s="5" t="s">
+        <v>861</v>
+      </c>
+      <c r="I281" s="5" t="s">
+        <v>862</v>
+      </c>
+      <c r="J281" s="5" t="s">
+        <v>863</v>
+      </c>
+      <c r="K281" s="5" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="282" ht="58" spans="1:11">
+      <c r="A282" s="5"/>
+      <c r="B282" s="5" t="s">
+        <v>865</v>
+      </c>
+      <c r="C282" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D282" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E282" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F282" s="5">
+        <v>2</v>
+      </c>
+      <c r="G282" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H282" s="5" t="s">
+        <v>866</v>
+      </c>
+      <c r="I282" s="5" t="s">
+        <v>867</v>
+      </c>
+      <c r="J282" s="5" t="s">
+        <v>868</v>
+      </c>
+      <c r="K282" s="5" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="283" ht="58" spans="1:11">
+      <c r="A283" s="5"/>
+      <c r="B283" s="5" t="s">
+        <v>870</v>
+      </c>
+      <c r="C283" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D283" s="3" t="s">
+        <v>808</v>
+      </c>
+      <c r="E283" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F283" s="5">
+        <v>2</v>
+      </c>
+      <c r="G283" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H283" s="5" t="s">
+        <v>871</v>
+      </c>
+      <c r="I283" s="5" t="s">
+        <v>872</v>
+      </c>
+      <c r="J283" s="5" t="s">
+        <v>873</v>
+      </c>
+      <c r="K283" s="5" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="284" ht="43.5" spans="1:11">
+      <c r="A284" s="3" t="s">
+        <v>875</v>
+      </c>
+      <c r="B284" s="5" t="s">
+        <v>876</v>
+      </c>
+      <c r="C284" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D284" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E284" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F284" s="5">
+        <v>2</v>
+      </c>
+      <c r="G284" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H284" s="5" t="s">
+        <v>877</v>
+      </c>
+      <c r="I284" s="5" t="s">
+        <v>878</v>
+      </c>
+      <c r="J284" s="5" t="s">
+        <v>879</v>
+      </c>
+      <c r="K284" s="5" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="285" ht="29" spans="2:11">
+      <c r="B285" s="5" t="s">
+        <v>881</v>
+      </c>
+      <c r="C285" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D285" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E285" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F285" s="5">
+        <v>2</v>
+      </c>
+      <c r="G285" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H285" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="I285" s="5" t="s">
+        <v>882</v>
+      </c>
+      <c r="J285" s="5" t="s">
+        <v>883</v>
+      </c>
+      <c r="K285" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="286" ht="29" spans="2:11">
+      <c r="B286" s="5" t="s">
+        <v>884</v>
+      </c>
+      <c r="C286" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D286" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E286" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F286" s="5">
+        <v>2</v>
+      </c>
+      <c r="G286" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H286" s="5" t="s">
+        <v>885</v>
+      </c>
+      <c r="I286" s="5" t="s">
+        <v>886</v>
+      </c>
+      <c r="J286" s="5" t="s">
+        <v>887</v>
+      </c>
+      <c r="K286" s="5" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="287" ht="29" spans="2:11">
+      <c r="B287" s="5" t="s">
+        <v>889</v>
+      </c>
+      <c r="C287" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D287" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E287" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F287" s="5">
+        <v>2</v>
+      </c>
+      <c r="G287" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H287" s="5" t="s">
+        <v>890</v>
+      </c>
+      <c r="I287" s="5" t="s">
+        <v>891</v>
+      </c>
+      <c r="J287" s="5" t="s">
+        <v>892</v>
+      </c>
+      <c r="K287" s="5" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="288" spans="2:11">
+      <c r="B288" s="5" t="s">
+        <v>894</v>
+      </c>
+      <c r="C288" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D288" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E288" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F288" s="5">
+        <v>2</v>
+      </c>
+      <c r="G288" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H288" s="5" t="s">
+        <v>895</v>
+      </c>
+      <c r="I288" s="5" t="s">
+        <v>896</v>
+      </c>
+      <c r="J288" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="K288" s="5" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="289" ht="43.5" spans="2:11">
+      <c r="B289" s="5" t="s">
+        <v>899</v>
+      </c>
+      <c r="C289" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D289" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E289" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F289" s="5">
+        <v>2</v>
+      </c>
+      <c r="G289" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H289" s="5" t="s">
+        <v>900</v>
+      </c>
+      <c r="I289" s="5" t="s">
+        <v>901</v>
+      </c>
+      <c r="J289" s="5" t="s">
+        <v>902</v>
+      </c>
+      <c r="K289" s="5" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="290" ht="58" spans="1:11">
+      <c r="A290" s="3" t="s">
+        <v>904</v>
+      </c>
+      <c r="B290" s="5" t="s">
+        <v>905</v>
+      </c>
+      <c r="C290" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D290" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E290" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F290" s="5">
+        <v>2</v>
+      </c>
+      <c r="G290" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H290" s="5" t="s">
+        <v>906</v>
+      </c>
+      <c r="I290" s="5" t="s">
+        <v>907</v>
+      </c>
+      <c r="J290" s="5" t="s">
+        <v>908</v>
+      </c>
+      <c r="K290" s="5" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="291" ht="29" spans="2:11">
+      <c r="B291" s="5" t="s">
+        <v>910</v>
+      </c>
+      <c r="C291" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D291" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E291" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F291" s="5">
+        <v>2</v>
+      </c>
+      <c r="G291" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H291" s="5" t="s">
+        <v>911</v>
+      </c>
+      <c r="I291" s="5" t="s">
+        <v>912</v>
+      </c>
+      <c r="J291" s="5" t="s">
+        <v>913</v>
+      </c>
+      <c r="K291" s="5" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="292" spans="2:11">
+      <c r="B292" s="5" t="s">
+        <v>915</v>
+      </c>
+      <c r="C292" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D292" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E292" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F292" s="5">
+        <v>2</v>
+      </c>
+      <c r="G292" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H292" s="5" t="s">
+        <v>916</v>
+      </c>
+      <c r="I292" s="5" t="s">
+        <v>917</v>
+      </c>
+      <c r="J292" s="5" t="s">
+        <v>918</v>
+      </c>
+      <c r="K292" s="5" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="293" spans="2:11">
+      <c r="B293" s="5" t="s">
+        <v>920</v>
+      </c>
+      <c r="C293" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D293" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E293" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F293" s="5">
+        <v>2</v>
+      </c>
+      <c r="G293" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H293" s="5" t="s">
+        <v>921</v>
+      </c>
+      <c r="I293" s="5" t="s">
+        <v>922</v>
+      </c>
+      <c r="J293" s="5" t="s">
+        <v>923</v>
+      </c>
+      <c r="K293" s="5" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="294" ht="43.5" spans="2:11">
+      <c r="B294" s="5" t="s">
+        <v>925</v>
+      </c>
+      <c r="C294" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D294" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E294" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F294" s="5">
+        <v>2</v>
+      </c>
+      <c r="G294" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H294" s="5" t="s">
+        <v>926</v>
+      </c>
+      <c r="I294" s="5" t="s">
+        <v>927</v>
+      </c>
+      <c r="J294" s="5" t="s">
+        <v>928</v>
+      </c>
+      <c r="K294" s="5" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="295" ht="58" spans="2:11">
+      <c r="B295" s="5" t="s">
+        <v>930</v>
+      </c>
+      <c r="C295" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D295" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E295" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F295" s="5">
+        <v>2</v>
+      </c>
+      <c r="G295" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H295" s="5" t="s">
+        <v>931</v>
+      </c>
+      <c r="I295" s="5" t="s">
+        <v>932</v>
+      </c>
+      <c r="J295" s="5" t="s">
+        <v>933</v>
+      </c>
+      <c r="K295" s="5" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="296" ht="43.5" spans="1:11">
+      <c r="A296" s="5" t="s">
+        <v>935</v>
+      </c>
+      <c r="B296" s="5" t="s">
+        <v>936</v>
+      </c>
+      <c r="C296" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D296" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E296" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F296" s="5">
+        <v>2</v>
+      </c>
+      <c r="G296" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H296" s="5" t="s">
+        <v>937</v>
+      </c>
+      <c r="I296" s="5" t="s">
+        <v>938</v>
+      </c>
+      <c r="J296" s="5" t="s">
+        <v>939</v>
+      </c>
+      <c r="K296" s="5" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="297" ht="29" spans="1:11">
+      <c r="A297" s="5"/>
+      <c r="B297" s="5" t="s">
+        <v>941</v>
+      </c>
+      <c r="C297" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D297" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E297" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F297" s="5">
+        <v>2</v>
+      </c>
+      <c r="G297" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H297" s="5" t="s">
+        <v>942</v>
+      </c>
+      <c r="I297" s="5" t="s">
+        <v>943</v>
+      </c>
+      <c r="J297" s="5" t="s">
+        <v>944</v>
+      </c>
+      <c r="K297" s="5" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="298" ht="29" spans="1:11">
+      <c r="A298" s="5"/>
+      <c r="B298" s="5" t="s">
+        <v>946</v>
+      </c>
+      <c r="C298" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D298" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E298" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F298" s="5">
+        <v>2</v>
+      </c>
+      <c r="G298" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H298" s="5" t="s">
+        <v>837</v>
+      </c>
+      <c r="I298" s="5" t="s">
+        <v>947</v>
+      </c>
+      <c r="J298" s="5" t="s">
+        <v>948</v>
+      </c>
+      <c r="K298" s="5" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="299" ht="43.5" spans="1:11">
+      <c r="A299" s="5"/>
+      <c r="B299" s="5" t="s">
+        <v>950</v>
+      </c>
+      <c r="C299" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D299" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E299" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F299" s="5">
+        <v>2</v>
+      </c>
+      <c r="G299" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H299" s="5" t="s">
+        <v>951</v>
+      </c>
+      <c r="I299" s="5" t="s">
+        <v>952</v>
+      </c>
+      <c r="J299" s="5" t="s">
+        <v>953</v>
+      </c>
+      <c r="K299" s="5" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="300" ht="29" spans="1:11">
+      <c r="A300" s="5"/>
+      <c r="B300" s="5" t="s">
+        <v>955</v>
+      </c>
+      <c r="C300" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D300" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E300" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F300" s="5">
+        <v>2</v>
+      </c>
+      <c r="G300" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H300" s="5" t="s">
+        <v>956</v>
+      </c>
+      <c r="I300" s="5" t="s">
+        <v>957</v>
+      </c>
+      <c r="J300" s="5" t="s">
+        <v>958</v>
+      </c>
+      <c r="K300" s="5" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="301" ht="58" spans="1:11">
+      <c r="A301" s="5"/>
+      <c r="B301" s="5" t="s">
+        <v>960</v>
+      </c>
+      <c r="C301" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D301" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E301" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F301" s="5">
+        <v>2</v>
+      </c>
+      <c r="G301" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H301" s="5" t="s">
+        <v>961</v>
+      </c>
+      <c r="I301" s="5" t="s">
+        <v>962</v>
+      </c>
+      <c r="J301" s="5" t="s">
+        <v>963</v>
+      </c>
+      <c r="K301" s="5" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="302" ht="29" spans="1:11">
+      <c r="A302" s="5"/>
+      <c r="B302" s="11" t="s">
+        <v>965</v>
+      </c>
+      <c r="C302" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D302" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E302" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F302" s="5">
+        <v>2</v>
+      </c>
+      <c r="G302" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H302" s="5" t="s">
+        <v>966</v>
+      </c>
+      <c r="I302" s="5" t="s">
+        <v>967</v>
+      </c>
+      <c r="J302" s="5" t="s">
+        <v>968</v>
+      </c>
+      <c r="K302" s="5" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="303" ht="29" spans="1:11">
+      <c r="A303" s="5" t="s">
+        <v>970</v>
+      </c>
+      <c r="B303" s="5" t="s">
+        <v>971</v>
+      </c>
+      <c r="C303" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D303" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E303" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F303" s="5">
+        <v>2</v>
+      </c>
+      <c r="G303" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H303" s="5" t="s">
+        <v>972</v>
+      </c>
+      <c r="I303" s="5" t="s">
+        <v>973</v>
+      </c>
+      <c r="J303" s="5" t="s">
+        <v>974</v>
+      </c>
+      <c r="K303" s="5" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="304" ht="29" spans="1:11">
+      <c r="A304" s="5"/>
+      <c r="B304" s="5" t="s">
+        <v>976</v>
+      </c>
+      <c r="C304" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D304" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E304" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F304" s="5">
+        <v>2</v>
+      </c>
+      <c r="G304" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H304" s="5" t="s">
+        <v>977</v>
+      </c>
+      <c r="I304" s="5" t="s">
+        <v>637</v>
+      </c>
+      <c r="J304" s="5" t="s">
+        <v>838</v>
+      </c>
+      <c r="K304" s="5" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="305" ht="72.5" spans="1:11">
+      <c r="A305" s="5"/>
+      <c r="B305" s="5" t="s">
+        <v>979</v>
+      </c>
+      <c r="C305" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D305" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E305" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F305" s="5">
+        <v>2</v>
+      </c>
+      <c r="G305" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H305" s="5" t="s">
+        <v>980</v>
+      </c>
+      <c r="I305" s="5" t="s">
+        <v>981</v>
+      </c>
+      <c r="J305" s="5" t="s">
+        <v>982</v>
+      </c>
+      <c r="K305" s="5" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="306" ht="58" spans="1:11">
+      <c r="A306" s="5"/>
+      <c r="B306" s="5" t="s">
+        <v>984</v>
+      </c>
+      <c r="C306" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D306" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E306" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F306" s="5">
+        <v>2</v>
+      </c>
+      <c r="G306" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H306" s="5" t="s">
+        <v>985</v>
+      </c>
+      <c r="I306" s="5" t="s">
+        <v>986</v>
+      </c>
+      <c r="J306" s="5" t="s">
+        <v>987</v>
+      </c>
+      <c r="K306" s="5" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="307" ht="29" spans="1:11">
+      <c r="A307" s="5"/>
+      <c r="B307" s="5" t="s">
+        <v>989</v>
+      </c>
+      <c r="C307" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D307" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E307" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F307" s="5">
+        <v>2</v>
+      </c>
+      <c r="G307" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H307" s="5" t="s">
+        <v>990</v>
+      </c>
+      <c r="I307" s="5" t="s">
+        <v>991</v>
+      </c>
+      <c r="J307" s="5" t="s">
+        <v>992</v>
+      </c>
+      <c r="K307" s="5" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="308" ht="43.5" spans="1:11">
+      <c r="A308" s="5"/>
+      <c r="B308" s="5" t="s">
+        <v>994</v>
+      </c>
+      <c r="C308" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D308" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E308" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F308" s="5">
+        <v>2</v>
+      </c>
+      <c r="G308" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H308" s="5" t="s">
+        <v>995</v>
+      </c>
+      <c r="I308" s="5" t="s">
+        <v>996</v>
+      </c>
+      <c r="J308" s="5" t="s">
+        <v>997</v>
+      </c>
+      <c r="K308" s="5" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="309" ht="159.5" spans="1:11">
+      <c r="A309" s="5" t="s">
+        <v>999</v>
+      </c>
+      <c r="B309" s="5" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C309" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D309" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E309" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F309" s="5">
+        <v>2</v>
+      </c>
+      <c r="G309" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H309" s="5" t="s">
+        <v>1001</v>
+      </c>
+      <c r="I309" s="5" t="s">
+        <v>1002</v>
+      </c>
+      <c r="J309" s="5" t="s">
+        <v>1003</v>
+      </c>
+      <c r="K309" s="5" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="310" ht="145" spans="1:11">
+      <c r="A310" s="5"/>
+      <c r="B310" s="5" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C310" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D310" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E310" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F310" s="5">
+        <v>2</v>
+      </c>
+      <c r="G310" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H310" s="5" t="s">
+        <v>1006</v>
+      </c>
+      <c r="I310" s="5" t="s">
+        <v>1007</v>
+      </c>
+      <c r="J310" s="5" t="s">
+        <v>1008</v>
+      </c>
+      <c r="K310" s="5" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="311" ht="130.5" spans="1:11">
+      <c r="A311" s="5"/>
+      <c r="B311" s="5" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C311" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D311" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E311" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F311" s="5">
+        <v>2</v>
+      </c>
+      <c r="G311" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H311" s="5" t="s">
+        <v>1011</v>
+      </c>
+      <c r="I311" s="5" t="s">
+        <v>1012</v>
+      </c>
+      <c r="J311" s="5" t="s">
+        <v>1013</v>
+      </c>
+      <c r="K311" s="5" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="312" ht="43.5" spans="1:11">
+      <c r="A312" s="5"/>
+      <c r="B312" s="5" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C312" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D312" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E312" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F312" s="5">
+        <v>2</v>
+      </c>
+      <c r="G312" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H312" s="5" t="s">
+        <v>1016</v>
+      </c>
+      <c r="I312" s="5" t="s">
+        <v>1017</v>
+      </c>
+      <c r="J312" s="5" t="s">
+        <v>1018</v>
+      </c>
+      <c r="K312" s="5" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="313" ht="43.5" spans="1:11">
+      <c r="A313" s="5"/>
+      <c r="B313" s="5" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C313" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D313" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E313" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F313" s="5">
+        <v>2</v>
+      </c>
+      <c r="G313" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H313" s="5" t="s">
+        <v>1021</v>
+      </c>
+      <c r="I313" s="5" t="s">
+        <v>1022</v>
+      </c>
+      <c r="J313" s="5" t="s">
+        <v>1023</v>
+      </c>
+      <c r="K313" s="5" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="314" ht="29" spans="1:11">
+      <c r="A314" s="5"/>
+      <c r="B314" s="5" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C314" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D314" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="E314" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F314" s="5">
+        <v>2</v>
+      </c>
+      <c r="G314" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H314" s="5" t="s">
+        <v>1026</v>
+      </c>
+      <c r="I314" s="5" t="s">
+        <v>1027</v>
+      </c>
+      <c r="J314" s="5" t="s">
+        <v>1028</v>
+      </c>
+      <c r="K314" s="5" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="315" spans="1:11">
+      <c r="A315" s="3" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B315" s="5" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C315" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D315" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E315" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F315" s="5">
+        <v>2</v>
+      </c>
+      <c r="G315" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H315" s="5" t="s">
+        <v>1032</v>
+      </c>
+      <c r="I315" s="5" t="s">
+        <v>1033</v>
+      </c>
+      <c r="J315" s="5" t="s">
+        <v>1034</v>
+      </c>
+      <c r="K315" s="5" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="316" ht="43.5" spans="2:11">
+      <c r="B316" s="5" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C316" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D316" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E316" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F316" s="5">
+        <v>2</v>
+      </c>
+      <c r="G316" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H316" s="5" t="s">
+        <v>1037</v>
+      </c>
+      <c r="I316" s="5" t="s">
+        <v>1038</v>
+      </c>
+      <c r="J316" s="5" t="s">
+        <v>1039</v>
+      </c>
+      <c r="K316" s="5" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="317" spans="2:11">
+      <c r="B317" s="5" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C317" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D317" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E317" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F317" s="5">
+        <v>2</v>
+      </c>
+      <c r="G317" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H317" s="5" t="s">
+        <v>1042</v>
+      </c>
+      <c r="I317" s="5" t="s">
+        <v>1043</v>
+      </c>
+      <c r="J317" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K317" s="5" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="318" spans="2:11">
+      <c r="B318" s="5" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C318" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D318" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E318" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F318" s="5">
+        <v>2</v>
+      </c>
+      <c r="G318" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H318" s="5" t="s">
+        <v>1046</v>
+      </c>
+      <c r="I318" s="5" t="s">
+        <v>1047</v>
+      </c>
+      <c r="J318" s="5" t="s">
+        <v>1048</v>
+      </c>
+      <c r="K318" s="5" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="319" spans="2:11">
+      <c r="B319" s="5" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C319" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D319" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E319" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F319" s="5">
+        <v>2</v>
+      </c>
+      <c r="G319" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H319" s="5" t="s">
+        <v>1051</v>
+      </c>
+      <c r="I319" s="5" t="s">
+        <v>1052</v>
+      </c>
+      <c r="J319" s="5" t="s">
+        <v>1049</v>
+      </c>
+      <c r="K319" s="5" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="320" ht="43.5" spans="2:11">
+      <c r="B320" s="5" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C320" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D320" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="E320" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F320" s="5">
+        <v>2</v>
+      </c>
+      <c r="G320" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H320" s="5" t="s">
+        <v>1055</v>
+      </c>
+      <c r="I320" s="5" t="s">
+        <v>1056</v>
+      </c>
+      <c r="J320" s="5" t="s">
+        <v>1057</v>
+      </c>
+      <c r="K320" s="5" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="321" ht="43.5" spans="1:11">
+      <c r="A321" s="3" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B321" s="5" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C321" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D321" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E321" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F321" s="5">
+        <v>2</v>
+      </c>
+      <c r="G321" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H321" s="5">
+        <v>2</v>
+      </c>
+      <c r="I321" s="5">
+        <v>3</v>
+      </c>
+      <c r="J321" s="5">
+        <v>5</v>
+      </c>
+      <c r="K321" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="322" ht="58" spans="2:11">
+      <c r="B322" s="5" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C322" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D322" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E322" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F322" s="5">
+        <v>2</v>
+      </c>
+      <c r="G322" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H322" s="5" t="s">
+        <v>1062</v>
+      </c>
+      <c r="I322" s="5" t="s">
+        <v>1063</v>
+      </c>
+      <c r="J322" s="5" t="s">
+        <v>1064</v>
+      </c>
+      <c r="K322" s="5" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="323" ht="43.5" spans="2:11">
+      <c r="B323" s="5" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C323" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D323" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E323" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F323" s="5">
+        <v>2</v>
+      </c>
+      <c r="G323" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H323" s="12" t="s">
+        <v>1067</v>
+      </c>
+      <c r="I323" s="12" t="s">
+        <v>1068</v>
+      </c>
+      <c r="J323" s="5" t="s">
+        <v>1069</v>
+      </c>
+      <c r="K323" s="5" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="324" ht="58" spans="2:11">
+      <c r="B324" s="5" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C324" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D324" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E324" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F324" s="5">
+        <v>2</v>
+      </c>
+      <c r="G324" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H324" s="5" t="s">
+        <v>1072</v>
+      </c>
+      <c r="I324" s="5" t="s">
+        <v>1073</v>
+      </c>
+      <c r="J324" s="5" t="s">
+        <v>1074</v>
+      </c>
+      <c r="K324" s="5" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="325" ht="29" spans="2:11">
+      <c r="B325" s="5" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C325" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D325" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E325" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F325" s="5">
+        <v>2</v>
+      </c>
+      <c r="G325" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H325" s="5" t="s">
+        <v>1077</v>
+      </c>
+      <c r="I325" s="5" t="s">
+        <v>1078</v>
+      </c>
+      <c r="J325" s="5" t="s">
+        <v>1079</v>
+      </c>
+      <c r="K325" s="5" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="326" ht="58" spans="2:11">
+      <c r="B326" s="5" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C326" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D326" s="3" t="s">
+        <v>716</v>
+      </c>
+      <c r="E326" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F326" s="5">
+        <v>2</v>
+      </c>
+      <c r="G326" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H326" s="5" t="s">
+        <v>1082</v>
+      </c>
+      <c r="I326" s="5" t="s">
+        <v>1083</v>
+      </c>
+      <c r="J326" s="5" t="s">
+        <v>1084</v>
+      </c>
+      <c r="K326" s="5" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="327" spans="1:11">
+      <c r="A327" s="5" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B327" s="5" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C327" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D327" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E327" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F327" s="5">
+        <v>2</v>
+      </c>
+      <c r="G327" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H327" s="5" t="s">
+        <v>1088</v>
+      </c>
+      <c r="I327" s="5" t="s">
+        <v>1089</v>
+      </c>
+      <c r="J327" s="5" t="s">
+        <v>1090</v>
+      </c>
+      <c r="K327" s="5" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="328" ht="29" spans="1:11">
+      <c r="A328" s="5"/>
+      <c r="B328" s="5" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C328" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D328" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E328" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F328" s="5">
+        <v>2</v>
+      </c>
+      <c r="G328" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H328" s="5" t="s">
+        <v>1093</v>
+      </c>
+      <c r="I328" s="5" t="s">
+        <v>1094</v>
+      </c>
+      <c r="J328" s="5" t="s">
+        <v>1095</v>
+      </c>
+      <c r="K328" s="5" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="329" ht="29" spans="1:11">
+      <c r="A329" s="5"/>
+      <c r="B329" s="5" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C329" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D329" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E329" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F329" s="5">
+        <v>2</v>
+      </c>
+      <c r="G329" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H329" s="5" t="s">
+        <v>1098</v>
+      </c>
+      <c r="I329" s="5" t="s">
+        <v>1099</v>
+      </c>
+      <c r="J329" s="5" t="s">
+        <v>1100</v>
+      </c>
+      <c r="K329" s="5" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="330" spans="1:11">
+      <c r="A330" s="5"/>
+      <c r="B330" s="5" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C330" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D330" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E330" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F330" s="5">
+        <v>2</v>
+      </c>
+      <c r="G330" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H330" s="5" t="s">
+        <v>1103</v>
+      </c>
+      <c r="I330" s="5" t="s">
+        <v>1104</v>
+      </c>
+      <c r="J330" s="5" t="s">
+        <v>1105</v>
+      </c>
+      <c r="K330" s="5" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="331" ht="43.5" spans="1:11">
+      <c r="A331" s="5"/>
+      <c r="B331" s="5" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C331" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D331" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E331" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F331" s="5">
+        <v>2</v>
+      </c>
+      <c r="G331" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H331" s="5" t="s">
+        <v>1108</v>
+      </c>
+      <c r="I331" s="5" t="s">
+        <v>1109</v>
+      </c>
+      <c r="J331" s="5" t="s">
+        <v>1110</v>
+      </c>
+      <c r="K331" s="5" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="332" ht="29" spans="1:11">
+      <c r="A332" s="5"/>
+      <c r="B332" s="5" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C332" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D332" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E332" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F332" s="5">
+        <v>2</v>
+      </c>
+      <c r="G332" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H332" s="5" t="s">
+        <v>1113</v>
+      </c>
+      <c r="I332" s="5" t="s">
+        <v>1114</v>
+      </c>
+      <c r="J332" s="5" t="s">
+        <v>1115</v>
+      </c>
+      <c r="K332" s="5" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="333" spans="1:11">
+      <c r="A333" s="3" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B333" s="5" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C333" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D333" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E333" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F333" s="5">
+        <v>2</v>
+      </c>
+      <c r="G333" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H333" s="5" t="s">
+        <v>1119</v>
+      </c>
+      <c r="I333" s="5" t="s">
+        <v>1120</v>
+      </c>
+      <c r="J333" s="5" t="s">
+        <v>1121</v>
+      </c>
+      <c r="K333" s="5" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="334" ht="43.5" spans="2:11">
+      <c r="B334" s="5" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C334" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D334" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E334" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F334" s="5">
+        <v>2</v>
+      </c>
+      <c r="G334" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H334" s="5" t="s">
+        <v>1124</v>
+      </c>
+      <c r="I334" s="5" t="s">
+        <v>1125</v>
+      </c>
+      <c r="J334" s="5" t="s">
+        <v>1126</v>
+      </c>
+      <c r="K334" s="5" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="335" spans="2:11">
+      <c r="B335" s="5" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C335" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D335" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E335" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F335" s="5">
+        <v>2</v>
+      </c>
+      <c r="G335" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H335" s="5" t="s">
+        <v>1129</v>
+      </c>
+      <c r="I335" s="5" t="s">
+        <v>1130</v>
+      </c>
+      <c r="J335" s="5" t="s">
+        <v>1131</v>
+      </c>
+      <c r="K335" s="5" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="336" spans="2:11">
+      <c r="B336" s="5" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C336" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D336" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E336" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F336" s="5">
+        <v>2</v>
+      </c>
+      <c r="G336" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H336" s="5" t="s">
+        <v>1134</v>
+      </c>
+      <c r="I336" s="5" t="s">
+        <v>1135</v>
+      </c>
+      <c r="J336" s="5" t="s">
+        <v>1136</v>
+      </c>
+      <c r="K336" s="5" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="337" ht="29" spans="2:11">
+      <c r="B337" s="5" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C337" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D337" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E337" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F337" s="5">
+        <v>2</v>
+      </c>
+      <c r="G337" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H337" s="5" t="s">
+        <v>1139</v>
+      </c>
+      <c r="I337" s="5" t="s">
+        <v>1140</v>
+      </c>
+      <c r="J337" s="5" t="s">
+        <v>1141</v>
+      </c>
+      <c r="K337" s="5" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="338" ht="43.5" spans="2:11">
+      <c r="B338" s="5" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C338" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D338" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E338" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F338" s="5">
+        <v>2</v>
+      </c>
+      <c r="G338" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H338" s="5" t="s">
+        <v>1144</v>
+      </c>
+      <c r="I338" s="5" t="s">
+        <v>1145</v>
+      </c>
+      <c r="J338" s="5" t="s">
+        <v>1146</v>
+      </c>
+      <c r="K338" s="5" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="339" spans="1:11">
+      <c r="A339" s="3" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B339" s="5" t="s">
+        <v>1149</v>
+      </c>
+      <c r="C339" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D339" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E339" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F339" s="5">
+        <v>2</v>
+      </c>
+      <c r="G339" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H339" s="5" t="s">
+        <v>1150</v>
+      </c>
+      <c r="I339" s="5" t="s">
+        <v>1151</v>
+      </c>
+      <c r="J339" s="5" t="s">
+        <v>1152</v>
+      </c>
+      <c r="K339" s="5" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="340" ht="58" spans="2:11">
+      <c r="B340" s="5" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C340" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D340" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E340" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F340" s="5">
+        <v>2</v>
+      </c>
+      <c r="G340" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H340" s="5" t="s">
+        <v>1155</v>
+      </c>
+      <c r="I340" s="5" t="s">
+        <v>1156</v>
+      </c>
+      <c r="J340" s="5" t="s">
+        <v>1157</v>
+      </c>
+      <c r="K340" s="5" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="341" spans="2:11">
+      <c r="B341" s="5" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C341" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D341" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E341" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F341" s="5">
+        <v>2</v>
+      </c>
+      <c r="G341" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H341" s="5" t="s">
+        <v>1160</v>
+      </c>
+      <c r="I341" s="5" t="s">
+        <v>1161</v>
+      </c>
+      <c r="J341" s="5" t="s">
+        <v>1162</v>
+      </c>
+      <c r="K341" s="5" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="342" spans="2:11">
+      <c r="B342" s="5" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C342" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D342" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E342" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F342" s="5">
+        <v>2</v>
+      </c>
+      <c r="G342" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H342" s="5" t="s">
+        <v>1164</v>
+      </c>
+      <c r="I342" s="5" t="s">
+        <v>1165</v>
+      </c>
+      <c r="J342" s="5" t="s">
+        <v>1166</v>
+      </c>
+      <c r="K342" s="5" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="343" ht="43.5" spans="2:11">
+      <c r="B343" s="5" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C343" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D343" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E343" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F343" s="5">
+        <v>2</v>
+      </c>
+      <c r="G343" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H343" s="5" t="s">
+        <v>1169</v>
+      </c>
+      <c r="I343" s="5" t="s">
+        <v>1170</v>
+      </c>
+      <c r="J343" s="5" t="s">
+        <v>1171</v>
+      </c>
+      <c r="K343" s="5" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="344" ht="43.5" spans="2:11">
+      <c r="B344" s="5" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C344" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D344" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E344" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F344" s="5">
+        <v>2</v>
+      </c>
+      <c r="G344" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H344" s="5" t="s">
+        <v>1174</v>
+      </c>
+      <c r="I344" s="5" t="s">
+        <v>1175</v>
+      </c>
+      <c r="J344" s="5" t="s">
+        <v>1176</v>
+      </c>
+      <c r="K344" s="5" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="345" spans="2:11">
+      <c r="B345" s="5" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C345" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D345" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E345" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F345" s="5">
+        <v>2</v>
+      </c>
+      <c r="G345" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H345" s="5" t="s">
+        <v>1179</v>
+      </c>
+      <c r="I345" s="5" t="s">
+        <v>1150</v>
+      </c>
+      <c r="J345" s="5" t="s">
+        <v>1180</v>
+      </c>
+      <c r="K345" s="5" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="346" ht="29" spans="1:11">
+      <c r="A346" s="3" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B346" s="5" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C346" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D346" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E346" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F346" s="5">
+        <v>2</v>
+      </c>
+      <c r="G346" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H346" s="5" t="s">
+        <v>1184</v>
+      </c>
+      <c r="I346" s="5" t="s">
+        <v>1185</v>
+      </c>
+      <c r="J346" s="5" t="s">
+        <v>1186</v>
+      </c>
+      <c r="K346" s="5" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="347" ht="58" spans="2:11">
+      <c r="B347" s="5" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C347" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D347" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E347" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F347" s="5">
+        <v>2</v>
+      </c>
+      <c r="G347" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H347" s="5" t="s">
+        <v>1189</v>
+      </c>
+      <c r="I347" s="5" t="s">
+        <v>1190</v>
+      </c>
+      <c r="J347" s="5" t="s">
+        <v>1191</v>
+      </c>
+      <c r="K347" s="5" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="348" spans="2:11">
+      <c r="B348" s="5" t="s">
+        <v>1193</v>
+      </c>
+      <c r="C348" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D348" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E348" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F348" s="5">
+        <v>2</v>
+      </c>
+      <c r="G348" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H348" s="5" t="s">
+        <v>1194</v>
+      </c>
+      <c r="I348" s="5" t="s">
+        <v>1195</v>
+      </c>
+      <c r="J348" s="5" t="s">
+        <v>1196</v>
+      </c>
+      <c r="K348" s="5" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="349" spans="2:11">
+      <c r="B349" s="5" t="s">
+        <v>1198</v>
+      </c>
+      <c r="C349" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D349" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E349" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F349" s="5">
+        <v>2</v>
+      </c>
+      <c r="G349" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H349" s="5" t="s">
+        <v>1199</v>
+      </c>
+      <c r="I349" s="5" t="s">
+        <v>1200</v>
+      </c>
+      <c r="J349" s="5" t="s">
+        <v>1201</v>
+      </c>
+      <c r="K349" s="5" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="350" spans="2:11">
+      <c r="B350" s="3" t="s">
+        <v>1203</v>
+      </c>
+      <c r="C350" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D350" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E350" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F350" s="5">
+        <v>2</v>
+      </c>
+      <c r="G350" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H350" s="5" t="s">
+        <v>1204</v>
+      </c>
+      <c r="I350" s="5" t="s">
+        <v>1205</v>
+      </c>
+      <c r="J350" s="5" t="s">
+        <v>1206</v>
+      </c>
+      <c r="K350" s="5" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="351" ht="29" spans="2:11">
+      <c r="B351" s="5" t="s">
+        <v>1208</v>
+      </c>
+      <c r="C351" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D351" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E351" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F351" s="5">
+        <v>2</v>
+      </c>
+      <c r="H351" s="5" t="s">
+        <v>1209</v>
+      </c>
+      <c r="I351" s="5" t="s">
+        <v>1187</v>
+      </c>
+      <c r="J351" s="5" t="s">
+        <v>1078</v>
+      </c>
+      <c r="K351" s="5" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="352" ht="29" spans="1:11">
+      <c r="A352" s="3" t="s">
+        <v>1211</v>
+      </c>
+      <c r="B352" s="3" t="s">
+        <v>1212</v>
+      </c>
+      <c r="C352" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D352" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E352" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F352" s="5">
+        <v>2</v>
+      </c>
+      <c r="G352" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H352" s="5" t="s">
+        <v>1213</v>
+      </c>
+      <c r="I352" s="5" t="s">
+        <v>1214</v>
+      </c>
+      <c r="J352" s="5" t="s">
+        <v>1215</v>
+      </c>
+      <c r="K352" s="5" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="353" ht="43.5" spans="2:11">
+      <c r="B353" s="3" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C353" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D353" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E353" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F353" s="5">
+        <v>2</v>
+      </c>
+      <c r="G353" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H353" s="5" t="s">
+        <v>1218</v>
+      </c>
+      <c r="I353" s="5" t="s">
+        <v>1219</v>
+      </c>
+      <c r="J353" s="5" t="s">
+        <v>1220</v>
+      </c>
+      <c r="K353" s="5" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="354" ht="43.5" spans="2:11">
+      <c r="B354" s="3" t="s">
+        <v>1222</v>
+      </c>
+      <c r="C354" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D354" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E354" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F354" s="5">
+        <v>2</v>
+      </c>
+      <c r="G354" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H354" s="5" t="s">
+        <v>1223</v>
+      </c>
+      <c r="I354" s="5" t="s">
+        <v>1224</v>
+      </c>
+      <c r="J354" s="5" t="s">
+        <v>1225</v>
+      </c>
+      <c r="K354" s="5" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="355" ht="43.5" spans="2:11">
+      <c r="B355" s="3" t="s">
+        <v>1227</v>
+      </c>
+      <c r="C355" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D355" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E355" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F355" s="5">
+        <v>2</v>
+      </c>
+      <c r="G355" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H355" s="5" t="s">
+        <v>1228</v>
+      </c>
+      <c r="I355" s="5" t="s">
+        <v>1229</v>
+      </c>
+      <c r="J355" s="5" t="s">
+        <v>1230</v>
+      </c>
+      <c r="K355" s="5" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="356" ht="101.5" spans="2:11">
+      <c r="B356" s="3" t="s">
+        <v>1232</v>
+      </c>
+      <c r="C356" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D356" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E356" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F356" s="5">
+        <v>2</v>
+      </c>
+      <c r="G356" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H356" s="5" t="s">
+        <v>1233</v>
+      </c>
+      <c r="I356" s="5" t="s">
+        <v>1234</v>
+      </c>
+      <c r="J356" s="5" t="s">
+        <v>1235</v>
+      </c>
+      <c r="K356" s="5" t="s">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="357" spans="2:11">
+      <c r="B357" s="3" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C357" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D357" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E357" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F357" s="5">
+        <v>2</v>
+      </c>
+      <c r="H357" s="5" t="s">
+        <v>1238</v>
+      </c>
+      <c r="I357" s="5" t="s">
+        <v>1239</v>
+      </c>
+      <c r="J357" s="5" t="s">
+        <v>1049</v>
+      </c>
+      <c r="K357" s="5" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="358" ht="43.5" spans="1:11">
+      <c r="A358" s="3" t="s">
+        <v>1241</v>
+      </c>
+      <c r="B358" s="3" t="s">
+        <v>1242</v>
+      </c>
+      <c r="C358" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D358" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E358" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F358" s="5">
+        <v>2</v>
+      </c>
+      <c r="G358" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H358" s="5" t="s">
+        <v>1243</v>
+      </c>
+      <c r="I358" s="5" t="s">
+        <v>1244</v>
+      </c>
+      <c r="J358" s="5" t="s">
+        <v>1245</v>
+      </c>
+      <c r="K358" s="5" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="359" ht="43.5" spans="2:11">
+      <c r="B359" s="3" t="s">
+        <v>1247</v>
+      </c>
+      <c r="C359" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D359" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E359" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F359" s="5">
+        <v>2</v>
+      </c>
+      <c r="G359" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H359" s="5" t="s">
+        <v>1248</v>
+      </c>
+      <c r="I359" s="5" t="s">
+        <v>1249</v>
+      </c>
+      <c r="J359" s="5" t="s">
+        <v>1250</v>
+      </c>
+      <c r="K359" s="5" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="360" ht="58" spans="2:11">
+      <c r="B360" s="3" t="s">
+        <v>1252</v>
+      </c>
+      <c r="C360" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D360" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E360" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F360" s="5">
+        <v>2</v>
+      </c>
+      <c r="G360" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H360" s="5" t="s">
+        <v>1253</v>
+      </c>
+      <c r="I360" s="5" t="s">
+        <v>1254</v>
+      </c>
+      <c r="J360" s="5" t="s">
+        <v>1255</v>
+      </c>
+      <c r="K360" s="5" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="361" ht="87" spans="2:11">
+      <c r="B361" s="3" t="s">
+        <v>1257</v>
+      </c>
+      <c r="C361" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D361" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E361" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F361" s="5">
+        <v>2</v>
+      </c>
+      <c r="G361" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H361" s="5" t="s">
+        <v>1258</v>
+      </c>
+      <c r="I361" s="5" t="s">
+        <v>1259</v>
+      </c>
+      <c r="J361" s="5" t="s">
+        <v>1260</v>
+      </c>
+      <c r="K361" s="5" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="362" ht="29" spans="2:11">
+      <c r="B362" s="5" t="s">
+        <v>1262</v>
+      </c>
+      <c r="C362" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D362" s="3" t="s">
+        <v>1263</v>
+      </c>
+      <c r="E362" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F362" s="5">
+        <v>2</v>
+      </c>
+      <c r="G362" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H362" s="5" t="s">
+        <v>1264</v>
+      </c>
+      <c r="I362" s="5" t="s">
+        <v>1265</v>
+      </c>
+      <c r="J362" s="5" t="s">
+        <v>1266</v>
+      </c>
+      <c r="K362" s="5" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="363" ht="29" spans="1:11">
+      <c r="A363" s="3" t="s">
+        <v>1268</v>
+      </c>
+      <c r="B363" s="3" t="s">
+        <v>1269</v>
+      </c>
+      <c r="C363" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D363" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E363" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F363" s="5">
+        <v>2</v>
+      </c>
+      <c r="G363" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H363" s="5" t="s">
+        <v>1270</v>
+      </c>
+      <c r="I363" s="5" t="s">
+        <v>1271</v>
+      </c>
+      <c r="J363" s="5" t="s">
+        <v>1272</v>
+      </c>
+      <c r="K363" s="5" t="s">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="364" ht="29" spans="2:11">
+      <c r="B364" s="3" t="s">
+        <v>1274</v>
+      </c>
+      <c r="C364" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D364" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E364" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F364" s="5">
+        <v>2</v>
+      </c>
+      <c r="G364" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H364" s="5" t="s">
+        <v>1275</v>
+      </c>
+      <c r="I364" s="5" t="s">
+        <v>1276</v>
+      </c>
+      <c r="J364" s="5" t="s">
+        <v>1277</v>
+      </c>
+      <c r="K364" s="5" t="s">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="365" ht="43.5" spans="2:11">
+      <c r="B365" s="3" t="s">
+        <v>1279</v>
+      </c>
+      <c r="C365" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D365" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E365" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F365" s="5">
+        <v>2</v>
+      </c>
+      <c r="G365" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H365" s="5" t="s">
+        <v>1280</v>
+      </c>
+      <c r="I365" s="5" t="s">
+        <v>1281</v>
+      </c>
+      <c r="J365" s="5" t="s">
+        <v>1282</v>
+      </c>
+      <c r="K365" s="5" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="366" ht="58" spans="2:11">
+      <c r="B366" s="3" t="s">
+        <v>1284</v>
+      </c>
+      <c r="C366" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D366" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E366" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F366" s="5">
+        <v>2</v>
+      </c>
+      <c r="G366" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H366" s="5" t="s">
+        <v>1285</v>
+      </c>
+      <c r="I366" s="5" t="s">
+        <v>1286</v>
+      </c>
+      <c r="J366" s="5" t="s">
+        <v>1287</v>
+      </c>
+      <c r="K366" s="5" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="367" ht="58" spans="2:11">
+      <c r="B367" s="3" t="s">
+        <v>1289</v>
+      </c>
+      <c r="C367" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D367" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E367" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F367" s="3">
+        <v>2</v>
+      </c>
+      <c r="G367" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H367" s="5" t="s">
+        <v>1290</v>
+      </c>
+      <c r="I367" s="5" t="s">
+        <v>1291</v>
+      </c>
+      <c r="J367" s="5" t="s">
+        <v>1292</v>
+      </c>
+      <c r="K367" s="5" t="s">
+        <v>1293</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1023">
+  <mergeCells count="1046">
     <mergeCell ref="A2:A6"/>
     <mergeCell ref="A7:A11"/>
     <mergeCell ref="A12:A16"/>
@@ -6786,6 +14083,29 @@
     <mergeCell ref="A187:A196"/>
     <mergeCell ref="A197:A206"/>
     <mergeCell ref="A207:A216"/>
+    <mergeCell ref="A217:A223"/>
+    <mergeCell ref="A224:A230"/>
+    <mergeCell ref="A231:A238"/>
+    <mergeCell ref="A239:A244"/>
+    <mergeCell ref="A245:A251"/>
+    <mergeCell ref="A252:A258"/>
+    <mergeCell ref="A259:A264"/>
+    <mergeCell ref="A265:A270"/>
+    <mergeCell ref="A271:A276"/>
+    <mergeCell ref="A277:A283"/>
+    <mergeCell ref="A284:A289"/>
+    <mergeCell ref="A290:A295"/>
+    <mergeCell ref="A296:A302"/>
+    <mergeCell ref="A303:A308"/>
+    <mergeCell ref="A309:A314"/>
+    <mergeCell ref="A315:A320"/>
+    <mergeCell ref="A321:A326"/>
+    <mergeCell ref="A327:A332"/>
+    <mergeCell ref="A333:A338"/>
+    <mergeCell ref="A339:A345"/>
+    <mergeCell ref="A346:A351"/>
+    <mergeCell ref="A352:A357"/>
+    <mergeCell ref="A358:A362"/>
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="B21:B22"/>
